--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="9">'Code Standar'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Data Definition'!$A$1:$P$57</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$R$94</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$S$94</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$J$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$K$62</definedName>
@@ -815,7 +815,7 @@
     <author>Le Thi Thu Hien</author>
   </authors>
   <commentList>
-    <comment ref="G4" authorId="0" shapeId="0">
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -832,7 +832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0">
+    <comment ref="I4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -847,7 +847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0">
+    <comment ref="J4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -865,7 +865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0">
+    <comment ref="K4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -879,7 +879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0">
+    <comment ref="O4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -893,7 +893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0">
+    <comment ref="P4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -907,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="1" shapeId="0">
+    <comment ref="R4" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="292">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2260,9 +2260,6 @@
     <t>Truyền tham số @APK gọi màn hình Thông tin Hệ thống AS0059</t>
   </si>
   <si>
-    <t>Click LinkExcel</t>
-  </si>
-  <si>
     <t>Truyền tham số @DivisionID gọi màn hình Xuất dữ liệu ra Excel - AS0062</t>
   </si>
   <si>
@@ -2292,9 +2289,6 @@
   </si>
   <si>
     <t>LinkViewAll</t>
-  </si>
-  <si>
-    <t>Click LinkSystem</t>
   </si>
   <si>
     <t>@@DivisionID</t>
@@ -2400,6 +2394,12 @@
   </si>
   <si>
     <t>- Nếu thỏa thực thi @SQL0003 để xóa StationID được chọn, thực thi @SQL0001 đển load lại dữ liệu lên gird</t>
+  </si>
+  <si>
+    <t>Click Excel</t>
+  </si>
+  <si>
+    <t>Click System</t>
   </si>
 </sst>
 </file>
@@ -2852,7 +2852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3197,6 +3197,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3739,10 +3742,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3769,8 +3772,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3809,14 +3812,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3831,14 +3834,14 @@
       <c r="D5" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="147" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="90">
@@ -3848,12 +3851,12 @@
         <v>2</v>
       </c>
       <c r="D6" s="134"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="150"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91">
@@ -3864,12 +3867,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="140"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
@@ -3880,12 +3883,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="143"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="144"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
@@ -3896,12 +3899,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="140"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
@@ -3912,12 +3915,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
@@ -3928,12 +3931,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="140"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
@@ -3944,12 +3947,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
@@ -3960,12 +3963,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="140"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98">
@@ -3976,12 +3979,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -3992,12 +3995,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
@@ -4008,12 +4011,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
@@ -4024,12 +4027,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -4040,12 +4043,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
@@ -4056,12 +4059,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
@@ -4072,12 +4075,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
@@ -4088,12 +4091,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
@@ -4104,12 +4107,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97">
@@ -4120,12 +4123,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98">
@@ -4136,12 +4139,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4152,12 +4155,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90">
@@ -4168,12 +4171,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
@@ -4184,12 +4187,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
@@ -4200,12 +4203,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
@@ -4216,12 +4219,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
@@ -4232,12 +4235,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
@@ -4248,12 +4251,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
@@ -4264,12 +4267,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97">
@@ -4280,12 +4283,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98">
@@ -4296,12 +4299,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4312,12 +4315,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90">
@@ -4328,12 +4331,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -4344,12 +4347,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
@@ -4360,12 +4363,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -4376,12 +4379,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
@@ -4392,12 +4395,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
@@ -4408,12 +4411,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="96">
@@ -4424,12 +4427,12 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -4670,7 +4673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -4689,10 +4692,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4722,8 +4725,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4753,20 +4756,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="151" t="s">
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="152"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4777,10 +4780,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="160" t="s">
+      <c r="I5" s="161" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="161"/>
+      <c r="J5" s="162"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4791,8 +4794,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="164"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4803,8 +4806,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="164"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4815,8 +4818,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4827,8 +4830,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="164"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4839,8 +4842,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="166"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -4851,10 +4854,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="151" t="s">
+      <c r="I11" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="152"/>
+      <c r="J11" s="153"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -4865,10 +4868,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="154" t="s">
+      <c r="I12" s="155" t="s">
         <v>229</v>
       </c>
-      <c r="J12" s="155"/>
+      <c r="J12" s="156"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -4879,8 +4882,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="158"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -4891,8 +4894,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="158"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -4903,8 +4906,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -4915,8 +4918,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="158"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -4927,8 +4930,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -4939,8 +4942,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -4951,8 +4954,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="158"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -4963,8 +4966,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -4975,8 +4978,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="158"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -4987,8 +4990,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="158"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -4999,8 +5002,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="158"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5011,8 +5014,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5023,8 +5026,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="158"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5035,8 +5038,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="158"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5047,8 +5050,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="158"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5059,8 +5062,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="158"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5071,8 +5074,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="158"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5083,8 +5086,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="158"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5095,8 +5098,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5107,8 +5110,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="158"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5119,8 +5122,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="158"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5131,8 +5134,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="158"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5143,8 +5146,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5155,8 +5158,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="158"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5167,8 +5170,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="158"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5179,8 +5182,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5191,8 +5194,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5203,8 +5206,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="158"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5215,8 +5218,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="158"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5227,8 +5230,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="157"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="158"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5239,8 +5242,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="159"/>
+      <c r="I43" s="159"/>
+      <c r="J43" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5299,13 +5302,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5313,16 +5316,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="166" t="s">
+      <c r="H1" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="167"/>
-      <c r="J1" s="168" t="str">
+      <c r="I1" s="168"/>
+      <c r="J1" s="169" t="str">
         <f>'Update History'!F1</f>
         <v>CF0141</v>
       </c>
-      <c r="K1" s="169"/>
-      <c r="L1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="171"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5338,11 +5341,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5350,16 +5353,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="167"/>
-      <c r="J2" s="168" t="str">
+      <c r="I2" s="168"/>
+      <c r="J2" s="169" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục địa điểm</v>
       </c>
-      <c r="K2" s="169"/>
-      <c r="L2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="171"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>237</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -5555,7 +5558,7 @@
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5925,7 +5928,7 @@
         <v>186</v>
       </c>
       <c r="F19" s="122" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G19" s="83"/>
       <c r="H19" s="40" t="s">
@@ -5957,7 +5960,7 @@
         <v>187</v>
       </c>
       <c r="F20" s="122" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G20" s="87"/>
       <c r="H20" s="40" t="s">
@@ -5989,7 +5992,7 @@
         <v>188</v>
       </c>
       <c r="F21" s="122" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G21" s="87"/>
       <c r="H21" s="40" t="s">
@@ -6021,7 +6024,7 @@
         <v>189</v>
       </c>
       <c r="F22" s="122" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G22" s="87"/>
       <c r="H22" s="40" t="s">
@@ -6053,7 +6056,7 @@
         <v>190</v>
       </c>
       <c r="F23" s="122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G23" s="87"/>
       <c r="H23" s="40" t="s">
@@ -6085,7 +6088,7 @@
         <v>191</v>
       </c>
       <c r="F24" s="122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G24" s="83"/>
       <c r="H24" s="40" t="s">
@@ -6932,7 +6935,7 @@
         <v>235</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="J6" s="69"/>
     </row>
@@ -7748,8 +7751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:G10"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7773,7 +7776,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="129"/>
@@ -7806,7 +7809,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="177"/>
+      <c r="A2" s="178"/>
       <c r="B2" s="130"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -7852,15 +7855,15 @@
       <c r="E4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="144" t="s">
+      <c r="F4" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144" t="s">
+      <c r="G4" s="145"/>
+      <c r="H4" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -7878,13 +7881,13 @@
       <c r="E5" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="178" t="s">
-        <v>251</v>
-      </c>
-      <c r="G5" s="179"/>
-      <c r="H5" s="171"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="173"/>
+      <c r="F5" s="179" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="180"/>
+      <c r="H5" s="172"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="174"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -7897,18 +7900,18 @@
         <v>242</v>
       </c>
       <c r="D6" s="136" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="180" t="s">
-        <v>252</v>
-      </c>
-      <c r="G6" s="181"/>
-      <c r="H6" s="171"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="173"/>
+      <c r="F6" s="181" t="s">
+        <v>251</v>
+      </c>
+      <c r="G6" s="182"/>
+      <c r="H6" s="172"/>
+      <c r="I6" s="173"/>
+      <c r="J6" s="174"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -7921,18 +7924,18 @@
         <v>243</v>
       </c>
       <c r="D7" s="136" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="180" t="s">
-        <v>252</v>
-      </c>
-      <c r="G7" s="181"/>
-      <c r="H7" s="171"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
+      <c r="F7" s="181" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="182"/>
+      <c r="H7" s="172"/>
+      <c r="I7" s="173"/>
+      <c r="J7" s="174"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -7950,13 +7953,13 @@
       <c r="E8" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="179"/>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
+      <c r="G8" s="180"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="173"/>
+      <c r="J8" s="174"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -7966,7 +7969,7 @@
         <v>239</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="D9" s="136" t="s">
         <v>246</v>
@@ -7974,13 +7977,13 @@
       <c r="E9" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="179" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="179"/>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
+      <c r="G9" s="180"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="174"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -7990,7 +7993,7 @@
         <v>239</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D10" s="135" t="s">
         <v>135</v>
@@ -7998,13 +8001,13 @@
       <c r="E10" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="178" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="179"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="173"/>
+      <c r="F10" s="179" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="180"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="174"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8014,11 +8017,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="174"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="173"/>
+      <c r="F11" s="175"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="174"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8028,11 +8031,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="174"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="174"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8042,11 +8045,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="173"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="176"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="174"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8056,11 +8059,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="174"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="173"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="174"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8070,11 +8073,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="174"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="173"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="174"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8084,11 +8087,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="173"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="176"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="174"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8098,11 +8101,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="173"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="174"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8112,11 +8115,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="174"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="173"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="174"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8126,11 +8129,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="173"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="174"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8140,11 +8143,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="174"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="173"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="174"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8154,11 +8157,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="173"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="174"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8168,11 +8171,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="173"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="174"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8182,11 +8185,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="173"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="174"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8196,11 +8199,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="173"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="174"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8210,11 +8213,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="138"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="173"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="174"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8224,11 +8227,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="173"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="174"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8238,11 +8241,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="138"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="173"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="174"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8252,11 +8255,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="173"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="174"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8266,11 +8269,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="138"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="173"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8280,11 +8283,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="173"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="174"/>
     </row>
     <row r="31" spans="1:18" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
@@ -8294,11 +8297,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="173"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="174"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -8315,11 +8318,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="173"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="174"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -8336,11 +8339,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="173"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -8357,11 +8360,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="173"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="174"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -8378,11 +8381,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="173"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="174"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -8399,11 +8402,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="173"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="174"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -8420,11 +8423,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="173"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="174"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -8441,11 +8444,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="173"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="174"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -8462,11 +8465,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="173"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="174"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -8483,11 +8486,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="173"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="174"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -8504,11 +8507,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="173"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="174"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -8525,11 +8528,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="173"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="174"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -8546,11 +8549,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="173"/>
+      <c r="F43" s="139"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="172"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="174"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -8567,11 +8570,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="173"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="174"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -8588,11 +8591,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="138"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="173"/>
+      <c r="F45" s="139"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="174"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -8609,11 +8612,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="138"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="172"/>
-      <c r="J46" s="173"/>
+      <c r="F46" s="139"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="173"/>
+      <c r="J46" s="174"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -8630,11 +8633,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="138"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="172"/>
-      <c r="J47" s="173"/>
+      <c r="F47" s="139"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="172"/>
+      <c r="I47" s="173"/>
+      <c r="J47" s="174"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -8651,11 +8654,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="138"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="171"/>
-      <c r="I48" s="172"/>
-      <c r="J48" s="173"/>
+      <c r="F48" s="139"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="173"/>
+      <c r="J48" s="174"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -8672,11 +8675,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="138"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="172"/>
-      <c r="J49" s="173"/>
+      <c r="F49" s="139"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="173"/>
+      <c r="J49" s="174"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -8693,11 +8696,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="171"/>
-      <c r="I50" s="172"/>
-      <c r="J50" s="173"/>
+      <c r="F50" s="139"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="173"/>
+      <c r="J50" s="174"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -8714,11 +8717,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="171"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="173"/>
+      <c r="F51" s="139"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="172"/>
+      <c r="I51" s="173"/>
+      <c r="J51" s="174"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -8735,11 +8738,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="138"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="172"/>
-      <c r="J52" s="173"/>
+      <c r="F52" s="139"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="172"/>
+      <c r="I52" s="173"/>
+      <c r="J52" s="174"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -8756,11 +8759,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="138"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="173"/>
+      <c r="F53" s="139"/>
+      <c r="G53" s="141"/>
+      <c r="H53" s="172"/>
+      <c r="I53" s="173"/>
+      <c r="J53" s="174"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -8777,11 +8780,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="138"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="171"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="173"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="172"/>
+      <c r="I54" s="173"/>
+      <c r="J54" s="174"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -8798,11 +8801,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="138"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="172"/>
-      <c r="J55" s="173"/>
+      <c r="F55" s="139"/>
+      <c r="G55" s="141"/>
+      <c r="H55" s="172"/>
+      <c r="I55" s="173"/>
+      <c r="J55" s="174"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -8938,526 +8941,550 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1048467"/>
+  <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.5703125" style="22" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="22" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" style="22" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="22" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="22" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" style="22" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="22" customWidth="1"/>
-    <col min="12" max="12" width="15.28515625" style="23" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="23" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="23" customWidth="1"/>
-    <col min="15" max="17" width="14.140625" style="23" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" style="23" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" style="23" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="22" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="22"/>
+    <col min="3" max="3" width="12.7109375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="22" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="22" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" style="22" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" style="23" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="23" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="23" customWidth="1"/>
+    <col min="16" max="18" width="14.140625" style="23" customWidth="1"/>
+    <col min="19" max="19" width="36.7109375" style="23" customWidth="1"/>
+    <col min="20" max="21" width="12.7109375" style="23" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="22" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+    <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="31" t="s">
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="185" t="str">
+      <c r="J1" s="186" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="J1" s="185"/>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="186"/>
+      <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="53" t="str">
+      <c r="M1" s="53" t="str">
         <f>'Update History'!F1</f>
         <v>CF0141</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="50" t="str">
+      <c r="O1" s="50" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="50" t="s">
+      <c r="Q1" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="52"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="35"/>
       <c r="T1" s="52"/>
-    </row>
-    <row r="2" spans="1:20" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="31" t="s">
+      <c r="U1" s="52"/>
+    </row>
+    <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="185" t="str">
+      <c r="J2" s="186" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="J2" s="185"/>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="186"/>
+      <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="53" t="str">
+      <c r="M2" s="53" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục địa điểm</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="N2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N2" s="51">
+      <c r="O2" s="51">
         <f>'Update History'!H2</f>
         <v>42381</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="P2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="50">
+      <c r="Q2" s="50">
         <v>42381</v>
       </c>
-      <c r="Q2" s="51"/>
       <c r="R2" s="51"/>
-      <c r="S2" s="52"/>
+      <c r="S2" s="51"/>
       <c r="T2" s="52"/>
-    </row>
-    <row r="4" spans="1:20" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U2" s="52"/>
+    </row>
+    <row r="4" spans="1:21" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="131" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="138" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="68" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="E4" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="70" t="s">
+      <c r="F4" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="G4" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="H4" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="I4" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="151" t="s">
+      <c r="K4" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="39" t="s">
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="153"/>
+      <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="P4" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="P4" s="68" t="s">
+      <c r="Q4" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="R4" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="S4" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="34" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="34" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>280</v>
+      <c r="C5" s="33">
+        <v>51</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="E5" s="63" t="s">
-        <v>288</v>
-      </c>
-      <c r="F5" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="H5" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="I5" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="123" t="s">
+      <c r="J5" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="N5" s="127" t="s">
+      <c r="O5" s="127" t="s">
         <v>135</v>
       </c>
-      <c r="O5" s="127" t="s">
+      <c r="P5" s="127" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q5" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="S5" s="87" t="s">
         <v>260</v>
       </c>
-      <c r="P5" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q5" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="R5" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="S5" s="64"/>
       <c r="T5" s="64"/>
-    </row>
-    <row r="6" spans="1:20" s="34" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="64"/>
+    </row>
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="87" t="s">
+      <c r="C6" s="33">
+        <v>51</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="G6" s="63" t="s">
+      <c r="H6" s="63" t="s">
         <v>219</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="I6" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="123" t="s">
+      <c r="J6" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="J6" s="141" t="s">
-        <v>263</v>
-      </c>
-      <c r="K6" s="142"/>
-      <c r="L6" s="142"/>
+      <c r="K6" s="142" t="s">
+        <v>261</v>
+      </c>
+      <c r="L6" s="143"/>
       <c r="M6" s="143"/>
-      <c r="N6" s="121" t="s">
+      <c r="N6" s="144"/>
+      <c r="O6" s="121" t="s">
         <v>228</v>
       </c>
-      <c r="O6" s="127" t="s">
-        <v>264</v>
-      </c>
-      <c r="P6" s="76" t="s">
+      <c r="P6" s="127" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q6" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="Q6" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="R6" s="87" t="s">
-        <v>273</v>
-      </c>
-      <c r="S6" s="64"/>
+      <c r="R6" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="S6" s="87" t="s">
+        <v>271</v>
+      </c>
       <c r="T6" s="64"/>
-    </row>
-    <row r="7" spans="1:20" s="34" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="64"/>
+    </row>
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="87" t="s">
+      <c r="C7" s="33">
+        <v>51</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="H7" s="63" t="s">
         <v>201</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="I7" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="123" t="s">
+      <c r="J7" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="J7" s="141" t="s">
-        <v>266</v>
-      </c>
-      <c r="K7" s="142"/>
-      <c r="L7" s="142"/>
+      <c r="K7" s="142" t="s">
+        <v>264</v>
+      </c>
+      <c r="L7" s="143"/>
       <c r="M7" s="143"/>
-      <c r="N7" s="121" t="s">
+      <c r="N7" s="144"/>
+      <c r="O7" s="121" t="s">
         <v>223</v>
       </c>
-      <c r="O7" s="121" t="s">
+      <c r="P7" s="121" t="s">
         <v>224</v>
       </c>
-      <c r="P7" s="76" t="s">
+      <c r="Q7" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="Q7" s="75" t="s">
+      <c r="R7" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="R7" s="81" t="s">
-        <v>289</v>
-      </c>
-      <c r="S7" s="64"/>
+      <c r="S7" s="81" t="s">
+        <v>287</v>
+      </c>
       <c r="T7" s="64"/>
-    </row>
-    <row r="8" spans="1:20" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="U7" s="64"/>
+    </row>
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="63"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="63"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="182"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="81"/>
       <c r="K8" s="183"/>
-      <c r="L8" s="183"/>
+      <c r="L8" s="184"/>
       <c r="M8" s="184"/>
-      <c r="N8" s="88"/>
+      <c r="N8" s="185"/>
       <c r="O8" s="88"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="64"/>
+      <c r="P8" s="88"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="81"/>
       <c r="T8" s="64"/>
-    </row>
-    <row r="9" spans="1:20" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="U8" s="64"/>
+    </row>
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="63"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="87"/>
       <c r="H9" s="63"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="182"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="81"/>
       <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
+      <c r="L9" s="184"/>
       <c r="M9" s="184"/>
-      <c r="N9" s="88"/>
+      <c r="N9" s="185"/>
       <c r="O9" s="88"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="81"/>
-      <c r="S9" s="64"/>
+      <c r="P9" s="88"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="75"/>
+      <c r="S9" s="81"/>
       <c r="T9" s="64"/>
-    </row>
-    <row r="10" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U9" s="64"/>
+    </row>
+    <row r="10" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>6</v>
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="63"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="87"/>
       <c r="H10" s="63"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="182"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="81"/>
       <c r="K10" s="183"/>
-      <c r="L10" s="183"/>
+      <c r="L10" s="184"/>
       <c r="M10" s="184"/>
-      <c r="N10" s="88"/>
+      <c r="N10" s="185"/>
       <c r="O10" s="88"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="81"/>
-      <c r="S10" s="64"/>
+      <c r="P10" s="88"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="81"/>
       <c r="T10" s="64"/>
-    </row>
-    <row r="11" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="64"/>
+    </row>
+    <row r="11" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>7</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="63"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="87"/>
       <c r="H11" s="63"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="182"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="81"/>
       <c r="K11" s="183"/>
-      <c r="L11" s="183"/>
+      <c r="L11" s="184"/>
       <c r="M11" s="184"/>
-      <c r="N11" s="88"/>
+      <c r="N11" s="185"/>
       <c r="O11" s="88"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="75"/>
-      <c r="R11" s="81"/>
-      <c r="S11" s="64"/>
+      <c r="P11" s="88"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="81"/>
       <c r="T11" s="64"/>
-    </row>
-    <row r="12" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U11" s="64"/>
+    </row>
+    <row r="12" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>8</v>
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="63"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="87"/>
       <c r="H12" s="63"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="182"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="81"/>
       <c r="K12" s="183"/>
-      <c r="L12" s="183"/>
+      <c r="L12" s="184"/>
       <c r="M12" s="184"/>
-      <c r="N12" s="84"/>
+      <c r="N12" s="185"/>
       <c r="O12" s="84"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="81"/>
-      <c r="S12" s="64"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="81"/>
       <c r="T12" s="64"/>
-    </row>
-    <row r="13" spans="1:20" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="U12" s="64"/>
+    </row>
+    <row r="13" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>9</v>
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="63"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="87"/>
       <c r="H13" s="63"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="182"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="81"/>
       <c r="K13" s="183"/>
-      <c r="L13" s="183"/>
+      <c r="L13" s="184"/>
       <c r="M13" s="184"/>
-      <c r="N13" s="84"/>
+      <c r="N13" s="185"/>
       <c r="O13" s="84"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="75"/>
-      <c r="R13" s="81"/>
-      <c r="S13" s="64"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="75"/>
+      <c r="S13" s="81"/>
       <c r="T13" s="64"/>
-    </row>
-    <row r="14" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U13" s="64"/>
+    </row>
+    <row r="14" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
         <v>10</v>
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="63"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="63"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="182"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="81"/>
       <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
+      <c r="L14" s="184"/>
       <c r="M14" s="184"/>
-      <c r="N14" s="80"/>
+      <c r="N14" s="185"/>
       <c r="O14" s="80"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="75"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="64"/>
+      <c r="P14" s="80"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="75"/>
+      <c r="S14" s="87"/>
       <c r="T14" s="64"/>
-    </row>
-    <row r="15" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="64"/>
+    </row>
+    <row r="15" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>11</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="63"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="83"/>
       <c r="H15" s="63"/>
-      <c r="I15" s="81"/>
-      <c r="J15" s="182"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="183"/>
-      <c r="L15" s="183"/>
+      <c r="L15" s="184"/>
       <c r="M15" s="184"/>
-      <c r="N15" s="80"/>
+      <c r="N15" s="185"/>
       <c r="O15" s="80"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="64"/>
+      <c r="P15" s="80"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="75"/>
+      <c r="S15" s="87"/>
       <c r="T15" s="64"/>
-    </row>
-    <row r="16" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U15" s="64"/>
+    </row>
+    <row r="16" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
         <v>12</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="63"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="83"/>
       <c r="H16" s="63"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="182"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="183"/>
-      <c r="L16" s="183"/>
+      <c r="L16" s="184"/>
       <c r="M16" s="184"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="64"/>
+      <c r="N16" s="185"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="87"/>
       <c r="T16" s="64"/>
-    </row>
-    <row r="17" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U16" s="64"/>
+    </row>
+    <row r="17" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
         <v>13</v>
       </c>
@@ -9465,23 +9492,24 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="63"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="63"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="182"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="40"/>
       <c r="K17" s="183"/>
-      <c r="L17" s="183"/>
+      <c r="L17" s="184"/>
       <c r="M17" s="184"/>
-      <c r="N17" s="60"/>
+      <c r="N17" s="185"/>
       <c r="O17" s="60"/>
-      <c r="P17" s="76"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="64"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="76"/>
+      <c r="R17" s="75"/>
+      <c r="S17" s="87"/>
       <c r="T17" s="64"/>
-    </row>
-    <row r="18" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U17" s="64"/>
+    </row>
+    <row r="18" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
         <v>14</v>
       </c>
@@ -9489,23 +9517,24 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="63"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="83"/>
       <c r="H18" s="63"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="182"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="40"/>
       <c r="K18" s="183"/>
-      <c r="L18" s="183"/>
+      <c r="L18" s="184"/>
       <c r="M18" s="184"/>
-      <c r="N18" s="60"/>
+      <c r="N18" s="185"/>
       <c r="O18" s="60"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="64"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="87"/>
       <c r="T18" s="64"/>
-    </row>
-    <row r="19" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U18" s="64"/>
+    </row>
+    <row r="19" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>15</v>
       </c>
@@ -9513,23 +9542,24 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="63"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="83"/>
       <c r="H19" s="63"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="182"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="40"/>
       <c r="K19" s="183"/>
-      <c r="L19" s="183"/>
+      <c r="L19" s="184"/>
       <c r="M19" s="184"/>
-      <c r="N19" s="60"/>
+      <c r="N19" s="185"/>
       <c r="O19" s="60"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="75"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="64"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="75"/>
+      <c r="S19" s="87"/>
       <c r="T19" s="64"/>
-    </row>
-    <row r="20" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U19" s="64"/>
+    </row>
+    <row r="20" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
         <v>16</v>
       </c>
@@ -9537,23 +9567,24 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="63"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="83"/>
       <c r="H20" s="63"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="182"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="40"/>
       <c r="K20" s="183"/>
-      <c r="L20" s="183"/>
+      <c r="L20" s="184"/>
       <c r="M20" s="184"/>
-      <c r="N20" s="60"/>
+      <c r="N20" s="185"/>
       <c r="O20" s="60"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="64"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="87"/>
       <c r="T20" s="64"/>
-    </row>
-    <row r="21" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U20" s="64"/>
+    </row>
+    <row r="21" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
         <v>17</v>
       </c>
@@ -9561,23 +9592,24 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="63"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="63"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="182"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="40"/>
       <c r="K21" s="183"/>
-      <c r="L21" s="183"/>
+      <c r="L21" s="184"/>
       <c r="M21" s="184"/>
-      <c r="N21" s="60"/>
+      <c r="N21" s="185"/>
       <c r="O21" s="60"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="64"/>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="76"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="87"/>
       <c r="T21" s="64"/>
-    </row>
-    <row r="22" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U21" s="64"/>
+    </row>
+    <row r="22" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
         <v>18</v>
       </c>
@@ -9585,23 +9617,24 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="63"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="63"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="182"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="183"/>
-      <c r="L22" s="183"/>
+      <c r="L22" s="184"/>
       <c r="M22" s="184"/>
-      <c r="N22" s="60"/>
+      <c r="N22" s="185"/>
       <c r="O22" s="60"/>
-      <c r="P22" s="76"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="64"/>
+      <c r="P22" s="60"/>
+      <c r="Q22" s="76"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="87"/>
       <c r="T22" s="64"/>
-    </row>
-    <row r="23" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U22" s="64"/>
+    </row>
+    <row r="23" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
         <v>19</v>
       </c>
@@ -9609,23 +9642,24 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="63"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="83"/>
       <c r="H23" s="63"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="182"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="40"/>
       <c r="K23" s="183"/>
-      <c r="L23" s="183"/>
+      <c r="L23" s="184"/>
       <c r="M23" s="184"/>
-      <c r="N23" s="60"/>
+      <c r="N23" s="185"/>
       <c r="O23" s="60"/>
-      <c r="P23" s="76"/>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="64"/>
+      <c r="P23" s="60"/>
+      <c r="Q23" s="76"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="87"/>
       <c r="T23" s="64"/>
-    </row>
-    <row r="24" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U23" s="64"/>
+    </row>
+    <row r="24" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
         <v>20</v>
       </c>
@@ -9633,23 +9667,24 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="63"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="63"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="182"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="40"/>
       <c r="K24" s="183"/>
-      <c r="L24" s="183"/>
+      <c r="L24" s="184"/>
       <c r="M24" s="184"/>
-      <c r="N24" s="60"/>
+      <c r="N24" s="185"/>
       <c r="O24" s="60"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="75"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="64"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="76"/>
+      <c r="R24" s="75"/>
+      <c r="S24" s="87"/>
       <c r="T24" s="64"/>
-    </row>
-    <row r="25" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U24" s="64"/>
+    </row>
+    <row r="25" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
         <v>21</v>
       </c>
@@ -9657,23 +9692,24 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="63"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="83"/>
       <c r="H25" s="63"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="182"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="40"/>
       <c r="K25" s="183"/>
-      <c r="L25" s="183"/>
+      <c r="L25" s="184"/>
       <c r="M25" s="184"/>
-      <c r="N25" s="60"/>
+      <c r="N25" s="185"/>
       <c r="O25" s="60"/>
-      <c r="P25" s="76"/>
-      <c r="Q25" s="75"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="64"/>
+      <c r="P25" s="60"/>
+      <c r="Q25" s="76"/>
+      <c r="R25" s="75"/>
+      <c r="S25" s="87"/>
       <c r="T25" s="64"/>
-    </row>
-    <row r="26" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U25" s="64"/>
+    </row>
+    <row r="26" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>22</v>
       </c>
@@ -9681,23 +9717,24 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="63"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="83"/>
       <c r="H26" s="63"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="182"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="40"/>
       <c r="K26" s="183"/>
-      <c r="L26" s="183"/>
+      <c r="L26" s="184"/>
       <c r="M26" s="184"/>
-      <c r="N26" s="60"/>
+      <c r="N26" s="185"/>
       <c r="O26" s="60"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="75"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="64"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="87"/>
       <c r="T26" s="64"/>
-    </row>
-    <row r="27" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U26" s="64"/>
+    </row>
+    <row r="27" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>23</v>
       </c>
@@ -9705,23 +9742,24 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="63"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="63"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="182"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="40"/>
       <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
+      <c r="L27" s="184"/>
       <c r="M27" s="184"/>
-      <c r="N27" s="60"/>
+      <c r="N27" s="185"/>
       <c r="O27" s="60"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="75"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="64"/>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="76"/>
+      <c r="R27" s="75"/>
+      <c r="S27" s="87"/>
       <c r="T27" s="64"/>
-    </row>
-    <row r="28" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="64"/>
+    </row>
+    <row r="28" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <v>24</v>
       </c>
@@ -9729,23 +9767,24 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="63"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="83"/>
       <c r="H28" s="63"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="182"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="40"/>
       <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
+      <c r="L28" s="184"/>
       <c r="M28" s="184"/>
-      <c r="N28" s="60"/>
+      <c r="N28" s="185"/>
       <c r="O28" s="60"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="64"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="75"/>
+      <c r="S28" s="87"/>
       <c r="T28" s="64"/>
-    </row>
-    <row r="29" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="64"/>
+    </row>
+    <row r="29" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
         <v>25</v>
       </c>
@@ -9753,23 +9792,24 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="63"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="83"/>
       <c r="H29" s="63"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="182"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="40"/>
       <c r="K29" s="183"/>
-      <c r="L29" s="183"/>
+      <c r="L29" s="184"/>
       <c r="M29" s="184"/>
-      <c r="N29" s="60"/>
+      <c r="N29" s="185"/>
       <c r="O29" s="60"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="75"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="64"/>
+      <c r="P29" s="60"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="87"/>
       <c r="T29" s="64"/>
-    </row>
-    <row r="30" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="64"/>
+    </row>
+    <row r="30" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
         <v>26</v>
       </c>
@@ -9777,23 +9817,24 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="63"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="83"/>
       <c r="H30" s="63"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="182"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="40"/>
       <c r="K30" s="183"/>
-      <c r="L30" s="183"/>
+      <c r="L30" s="184"/>
       <c r="M30" s="184"/>
-      <c r="N30" s="60"/>
+      <c r="N30" s="185"/>
       <c r="O30" s="60"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="75"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="64"/>
+      <c r="P30" s="60"/>
+      <c r="Q30" s="76"/>
+      <c r="R30" s="75"/>
+      <c r="S30" s="87"/>
       <c r="T30" s="64"/>
-    </row>
-    <row r="31" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U30" s="64"/>
+    </row>
+    <row r="31" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <v>27</v>
       </c>
@@ -9801,23 +9842,24 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="63"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="83"/>
       <c r="H31" s="63"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="182"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="40"/>
       <c r="K31" s="183"/>
-      <c r="L31" s="183"/>
+      <c r="L31" s="184"/>
       <c r="M31" s="184"/>
-      <c r="N31" s="60"/>
+      <c r="N31" s="185"/>
       <c r="O31" s="60"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="64"/>
+      <c r="P31" s="60"/>
+      <c r="Q31" s="76"/>
+      <c r="R31" s="75"/>
+      <c r="S31" s="87"/>
       <c r="T31" s="64"/>
-    </row>
-    <row r="32" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U31" s="64"/>
+    </row>
+    <row r="32" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
         <v>28</v>
       </c>
@@ -9825,23 +9867,24 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="63"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="83"/>
       <c r="H32" s="63"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="182"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="40"/>
       <c r="K32" s="183"/>
-      <c r="L32" s="183"/>
+      <c r="L32" s="184"/>
       <c r="M32" s="184"/>
-      <c r="N32" s="60"/>
+      <c r="N32" s="185"/>
       <c r="O32" s="60"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="75"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="64"/>
+      <c r="P32" s="60"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="87"/>
       <c r="T32" s="64"/>
-    </row>
-    <row r="33" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U32" s="64"/>
+    </row>
+    <row r="33" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
         <v>29</v>
       </c>
@@ -9849,47 +9892,49 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="63"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="83"/>
       <c r="H33" s="63"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="182"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="40"/>
       <c r="K33" s="183"/>
-      <c r="L33" s="183"/>
+      <c r="L33" s="184"/>
       <c r="M33" s="184"/>
-      <c r="N33" s="60"/>
+      <c r="N33" s="185"/>
       <c r="O33" s="60"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="75"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="64"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="75"/>
+      <c r="S33" s="87"/>
       <c r="T33" s="64"/>
-    </row>
-    <row r="34" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U33" s="64"/>
+    </row>
+    <row r="34" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
         <v>30</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="63"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="83"/>
       <c r="H34" s="63"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="182"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="81"/>
       <c r="K34" s="183"/>
-      <c r="L34" s="183"/>
+      <c r="L34" s="184"/>
       <c r="M34" s="184"/>
-      <c r="N34" s="84"/>
+      <c r="N34" s="185"/>
       <c r="O34" s="84"/>
-      <c r="P34" s="76"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="87"/>
-      <c r="S34" s="64"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="76"/>
+      <c r="R34" s="75"/>
+      <c r="S34" s="87"/>
       <c r="T34" s="64"/>
-    </row>
-    <row r="35" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U34" s="64"/>
+    </row>
+    <row r="35" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
         <v>31</v>
       </c>
@@ -9897,23 +9942,24 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="63"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="83"/>
       <c r="H35" s="63"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="182"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="40"/>
       <c r="K35" s="183"/>
-      <c r="L35" s="183"/>
+      <c r="L35" s="184"/>
       <c r="M35" s="184"/>
-      <c r="N35" s="60"/>
+      <c r="N35" s="185"/>
       <c r="O35" s="60"/>
-      <c r="P35" s="76"/>
-      <c r="Q35" s="75"/>
-      <c r="R35" s="87"/>
-      <c r="S35" s="64"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="76"/>
+      <c r="R35" s="75"/>
+      <c r="S35" s="87"/>
       <c r="T35" s="64"/>
-    </row>
-    <row r="36" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U35" s="64"/>
+    </row>
+    <row r="36" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
         <v>32</v>
       </c>
@@ -9921,23 +9967,24 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="63"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="83"/>
       <c r="H36" s="63"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="182"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="40"/>
       <c r="K36" s="183"/>
-      <c r="L36" s="183"/>
+      <c r="L36" s="184"/>
       <c r="M36" s="184"/>
-      <c r="N36" s="60"/>
+      <c r="N36" s="185"/>
       <c r="O36" s="60"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="75"/>
-      <c r="R36" s="87"/>
-      <c r="S36" s="64"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="75"/>
+      <c r="S36" s="87"/>
       <c r="T36" s="64"/>
-    </row>
-    <row r="37" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U36" s="64"/>
+    </row>
+    <row r="37" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
         <v>33</v>
       </c>
@@ -9945,23 +9992,24 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="63"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="83"/>
       <c r="H37" s="63"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="182"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="40"/>
       <c r="K37" s="183"/>
-      <c r="L37" s="183"/>
+      <c r="L37" s="184"/>
       <c r="M37" s="184"/>
-      <c r="N37" s="60"/>
+      <c r="N37" s="185"/>
       <c r="O37" s="60"/>
-      <c r="P37" s="76"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="87"/>
-      <c r="S37" s="64"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="75"/>
+      <c r="S37" s="87"/>
       <c r="T37" s="64"/>
-    </row>
-    <row r="38" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U37" s="64"/>
+    </row>
+    <row r="38" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
         <v>34</v>
       </c>
@@ -9969,23 +10017,24 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
-      <c r="F38" s="83"/>
-      <c r="G38" s="63"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="83"/>
       <c r="H38" s="63"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="182"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="40"/>
       <c r="K38" s="183"/>
-      <c r="L38" s="183"/>
+      <c r="L38" s="184"/>
       <c r="M38" s="184"/>
-      <c r="N38" s="60"/>
+      <c r="N38" s="185"/>
       <c r="O38" s="60"/>
-      <c r="P38" s="76"/>
-      <c r="Q38" s="75"/>
-      <c r="R38" s="87"/>
-      <c r="S38" s="64"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="76"/>
+      <c r="R38" s="75"/>
+      <c r="S38" s="87"/>
       <c r="T38" s="64"/>
-    </row>
-    <row r="39" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U38" s="64"/>
+    </row>
+    <row r="39" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
         <v>35</v>
       </c>
@@ -9993,23 +10042,24 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="63"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="83"/>
       <c r="H39" s="63"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="182"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="40"/>
       <c r="K39" s="183"/>
-      <c r="L39" s="183"/>
+      <c r="L39" s="184"/>
       <c r="M39" s="184"/>
-      <c r="N39" s="60"/>
+      <c r="N39" s="185"/>
       <c r="O39" s="60"/>
-      <c r="P39" s="76"/>
-      <c r="Q39" s="75"/>
-      <c r="R39" s="87"/>
-      <c r="S39" s="64"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="76"/>
+      <c r="R39" s="75"/>
+      <c r="S39" s="87"/>
       <c r="T39" s="64"/>
-    </row>
-    <row r="40" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U39" s="64"/>
+    </row>
+    <row r="40" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
         <v>36</v>
       </c>
@@ -10017,23 +10067,24 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="63"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="83"/>
       <c r="H40" s="63"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="182"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="40"/>
       <c r="K40" s="183"/>
-      <c r="L40" s="183"/>
+      <c r="L40" s="184"/>
       <c r="M40" s="184"/>
-      <c r="N40" s="74"/>
+      <c r="N40" s="185"/>
       <c r="O40" s="74"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="87"/>
-      <c r="S40" s="64"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="76"/>
+      <c r="R40" s="75"/>
+      <c r="S40" s="87"/>
       <c r="T40" s="64"/>
-    </row>
-    <row r="41" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U40" s="64"/>
+    </row>
+    <row r="41" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
         <v>37</v>
       </c>
@@ -10041,23 +10092,24 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="63"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="83"/>
       <c r="H41" s="63"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="182"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="40"/>
       <c r="K41" s="183"/>
-      <c r="L41" s="183"/>
+      <c r="L41" s="184"/>
       <c r="M41" s="184"/>
-      <c r="N41" s="74"/>
+      <c r="N41" s="185"/>
       <c r="O41" s="74"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="75"/>
-      <c r="R41" s="87"/>
-      <c r="S41" s="64"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="75"/>
+      <c r="S41" s="87"/>
       <c r="T41" s="64"/>
-    </row>
-    <row r="42" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U41" s="64"/>
+    </row>
+    <row r="42" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
         <v>38</v>
       </c>
@@ -10065,23 +10117,24 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="63"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="83"/>
       <c r="H42" s="63"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="182"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="40"/>
       <c r="K42" s="183"/>
-      <c r="L42" s="183"/>
+      <c r="L42" s="184"/>
       <c r="M42" s="184"/>
-      <c r="N42" s="74"/>
+      <c r="N42" s="185"/>
       <c r="O42" s="74"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="75"/>
-      <c r="R42" s="87"/>
-      <c r="S42" s="64"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="76"/>
+      <c r="R42" s="75"/>
+      <c r="S42" s="87"/>
       <c r="T42" s="64"/>
-    </row>
-    <row r="43" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U42" s="64"/>
+    </row>
+    <row r="43" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
         <v>39</v>
       </c>
@@ -10089,23 +10142,24 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="63"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="83"/>
       <c r="H43" s="63"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="182"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="40"/>
       <c r="K43" s="183"/>
-      <c r="L43" s="183"/>
+      <c r="L43" s="184"/>
       <c r="M43" s="184"/>
-      <c r="N43" s="74"/>
+      <c r="N43" s="185"/>
       <c r="O43" s="74"/>
-      <c r="P43" s="76"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="87"/>
-      <c r="S43" s="64"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="76"/>
+      <c r="R43" s="75"/>
+      <c r="S43" s="87"/>
       <c r="T43" s="64"/>
-    </row>
-    <row r="44" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U43" s="64"/>
+    </row>
+    <row r="44" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
         <v>40</v>
       </c>
@@ -10113,23 +10167,24 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="63"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="83"/>
       <c r="H44" s="63"/>
-      <c r="I44" s="40"/>
-      <c r="J44" s="182"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="40"/>
       <c r="K44" s="183"/>
-      <c r="L44" s="183"/>
+      <c r="L44" s="184"/>
       <c r="M44" s="184"/>
-      <c r="N44" s="74"/>
+      <c r="N44" s="185"/>
       <c r="O44" s="74"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="75"/>
-      <c r="R44" s="87"/>
-      <c r="S44" s="64"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="75"/>
+      <c r="S44" s="87"/>
       <c r="T44" s="64"/>
-    </row>
-    <row r="45" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U44" s="64"/>
+    </row>
+    <row r="45" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
         <v>41</v>
       </c>
@@ -10137,23 +10192,24 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="63"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="83"/>
       <c r="H45" s="63"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="182"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="40"/>
       <c r="K45" s="183"/>
-      <c r="L45" s="183"/>
+      <c r="L45" s="184"/>
       <c r="M45" s="184"/>
-      <c r="N45" s="74"/>
+      <c r="N45" s="185"/>
       <c r="O45" s="74"/>
-      <c r="P45" s="76"/>
-      <c r="Q45" s="75"/>
-      <c r="R45" s="87"/>
-      <c r="S45" s="64"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="76"/>
+      <c r="R45" s="75"/>
+      <c r="S45" s="87"/>
       <c r="T45" s="64"/>
-    </row>
-    <row r="46" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U45" s="64"/>
+    </row>
+    <row r="46" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
         <v>42</v>
       </c>
@@ -10161,23 +10217,24 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="63"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="83"/>
       <c r="H46" s="63"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="182"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="40"/>
       <c r="K46" s="183"/>
-      <c r="L46" s="183"/>
+      <c r="L46" s="184"/>
       <c r="M46" s="184"/>
-      <c r="N46" s="74"/>
+      <c r="N46" s="185"/>
       <c r="O46" s="74"/>
-      <c r="P46" s="76"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="87"/>
-      <c r="S46" s="64"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="76"/>
+      <c r="R46" s="75"/>
+      <c r="S46" s="87"/>
       <c r="T46" s="64"/>
-    </row>
-    <row r="47" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U46" s="64"/>
+    </row>
+    <row r="47" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
         <v>43</v>
       </c>
@@ -10185,23 +10242,24 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="63"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="83"/>
       <c r="H47" s="63"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="182"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="40"/>
       <c r="K47" s="183"/>
-      <c r="L47" s="183"/>
+      <c r="L47" s="184"/>
       <c r="M47" s="184"/>
-      <c r="N47" s="74"/>
+      <c r="N47" s="185"/>
       <c r="O47" s="74"/>
-      <c r="P47" s="76"/>
-      <c r="Q47" s="75"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="64"/>
+      <c r="P47" s="74"/>
+      <c r="Q47" s="76"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="87"/>
       <c r="T47" s="64"/>
-    </row>
-    <row r="48" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U47" s="64"/>
+    </row>
+    <row r="48" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
         <v>44</v>
       </c>
@@ -10209,23 +10267,24 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="63"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="83"/>
       <c r="H48" s="63"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="182"/>
+      <c r="I48" s="63"/>
+      <c r="J48" s="40"/>
       <c r="K48" s="183"/>
-      <c r="L48" s="183"/>
+      <c r="L48" s="184"/>
       <c r="M48" s="184"/>
-      <c r="N48" s="74"/>
+      <c r="N48" s="185"/>
       <c r="O48" s="74"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="75"/>
-      <c r="R48" s="87"/>
-      <c r="S48" s="64"/>
+      <c r="P48" s="74"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="75"/>
+      <c r="S48" s="87"/>
       <c r="T48" s="64"/>
-    </row>
-    <row r="49" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U48" s="64"/>
+    </row>
+    <row r="49" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
         <v>45</v>
       </c>
@@ -10233,23 +10292,24 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="63"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="83"/>
       <c r="H49" s="63"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="182"/>
+      <c r="I49" s="63"/>
+      <c r="J49" s="40"/>
       <c r="K49" s="183"/>
-      <c r="L49" s="183"/>
+      <c r="L49" s="184"/>
       <c r="M49" s="184"/>
-      <c r="N49" s="74"/>
+      <c r="N49" s="185"/>
       <c r="O49" s="74"/>
-      <c r="P49" s="76"/>
-      <c r="Q49" s="75"/>
-      <c r="R49" s="87"/>
-      <c r="S49" s="64"/>
+      <c r="P49" s="74"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="75"/>
+      <c r="S49" s="87"/>
       <c r="T49" s="64"/>
-    </row>
-    <row r="50" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U49" s="64"/>
+    </row>
+    <row r="50" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
         <v>46</v>
       </c>
@@ -10257,23 +10317,24 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="63"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="83"/>
       <c r="H50" s="63"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="182"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="40"/>
       <c r="K50" s="183"/>
-      <c r="L50" s="183"/>
+      <c r="L50" s="184"/>
       <c r="M50" s="184"/>
-      <c r="N50" s="74"/>
+      <c r="N50" s="185"/>
       <c r="O50" s="74"/>
-      <c r="P50" s="76"/>
-      <c r="Q50" s="75"/>
-      <c r="R50" s="87"/>
-      <c r="S50" s="64"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="75"/>
+      <c r="S50" s="87"/>
       <c r="T50" s="64"/>
-    </row>
-    <row r="51" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U50" s="64"/>
+    </row>
+    <row r="51" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
         <v>47</v>
       </c>
@@ -10281,23 +10342,24 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="63"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="83"/>
       <c r="H51" s="63"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="182"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="40"/>
       <c r="K51" s="183"/>
-      <c r="L51" s="183"/>
+      <c r="L51" s="184"/>
       <c r="M51" s="184"/>
-      <c r="N51" s="74"/>
+      <c r="N51" s="185"/>
       <c r="O51" s="74"/>
-      <c r="P51" s="76"/>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="87"/>
-      <c r="S51" s="64"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="76"/>
+      <c r="R51" s="75"/>
+      <c r="S51" s="87"/>
       <c r="T51" s="64"/>
-    </row>
-    <row r="52" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U51" s="64"/>
+    </row>
+    <row r="52" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
         <v>48</v>
       </c>
@@ -10305,23 +10367,24 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="63"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="83"/>
       <c r="H52" s="63"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="182"/>
+      <c r="I52" s="63"/>
+      <c r="J52" s="40"/>
       <c r="K52" s="183"/>
-      <c r="L52" s="183"/>
+      <c r="L52" s="184"/>
       <c r="M52" s="184"/>
-      <c r="N52" s="74"/>
+      <c r="N52" s="185"/>
       <c r="O52" s="74"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="75"/>
-      <c r="R52" s="87"/>
-      <c r="S52" s="64"/>
+      <c r="P52" s="74"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="75"/>
+      <c r="S52" s="87"/>
       <c r="T52" s="64"/>
-    </row>
-    <row r="53" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U52" s="64"/>
+    </row>
+    <row r="53" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
         <v>49</v>
       </c>
@@ -10329,23 +10392,24 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="63"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="83"/>
       <c r="H53" s="63"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="182"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="40"/>
       <c r="K53" s="183"/>
-      <c r="L53" s="183"/>
+      <c r="L53" s="184"/>
       <c r="M53" s="184"/>
-      <c r="N53" s="74"/>
+      <c r="N53" s="185"/>
       <c r="O53" s="74"/>
-      <c r="P53" s="76"/>
-      <c r="Q53" s="75"/>
-      <c r="R53" s="87"/>
-      <c r="S53" s="64"/>
+      <c r="P53" s="74"/>
+      <c r="Q53" s="76"/>
+      <c r="R53" s="75"/>
+      <c r="S53" s="87"/>
       <c r="T53" s="64"/>
-    </row>
-    <row r="54" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U53" s="64"/>
+    </row>
+    <row r="54" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
         <v>50</v>
       </c>
@@ -10353,23 +10417,24 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="63"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="83"/>
       <c r="H54" s="63"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="182"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="40"/>
       <c r="K54" s="183"/>
-      <c r="L54" s="183"/>
+      <c r="L54" s="184"/>
       <c r="M54" s="184"/>
-      <c r="N54" s="74"/>
+      <c r="N54" s="185"/>
       <c r="O54" s="74"/>
-      <c r="P54" s="76"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="87"/>
-      <c r="S54" s="64"/>
+      <c r="P54" s="74"/>
+      <c r="Q54" s="76"/>
+      <c r="R54" s="75"/>
+      <c r="S54" s="87"/>
       <c r="T54" s="64"/>
-    </row>
-    <row r="55" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U54" s="64"/>
+    </row>
+    <row r="55" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33">
         <v>51</v>
       </c>
@@ -10377,23 +10442,24 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="63"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="83"/>
       <c r="H55" s="63"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="182"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="40"/>
       <c r="K55" s="183"/>
-      <c r="L55" s="183"/>
+      <c r="L55" s="184"/>
       <c r="M55" s="184"/>
-      <c r="N55" s="74"/>
+      <c r="N55" s="185"/>
       <c r="O55" s="74"/>
-      <c r="P55" s="76"/>
-      <c r="Q55" s="75"/>
-      <c r="R55" s="87"/>
-      <c r="S55" s="64"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="76"/>
+      <c r="R55" s="75"/>
+      <c r="S55" s="87"/>
       <c r="T55" s="64"/>
-    </row>
-    <row r="56" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U55" s="64"/>
+    </row>
+    <row r="56" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33">
         <v>52</v>
       </c>
@@ -10401,23 +10467,24 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="63"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="83"/>
       <c r="H56" s="63"/>
-      <c r="I56" s="40"/>
-      <c r="J56" s="182"/>
+      <c r="I56" s="63"/>
+      <c r="J56" s="40"/>
       <c r="K56" s="183"/>
-      <c r="L56" s="183"/>
+      <c r="L56" s="184"/>
       <c r="M56" s="184"/>
-      <c r="N56" s="74"/>
+      <c r="N56" s="185"/>
       <c r="O56" s="74"/>
-      <c r="P56" s="76"/>
-      <c r="Q56" s="75"/>
-      <c r="R56" s="87"/>
-      <c r="S56" s="64"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="76"/>
+      <c r="R56" s="75"/>
+      <c r="S56" s="87"/>
       <c r="T56" s="64"/>
-    </row>
-    <row r="57" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U56" s="64"/>
+    </row>
+    <row r="57" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33">
         <v>53</v>
       </c>
@@ -10425,23 +10492,24 @@
       <c r="C57" s="33"/>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="63"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="83"/>
       <c r="H57" s="63"/>
-      <c r="I57" s="40"/>
-      <c r="J57" s="182"/>
+      <c r="I57" s="63"/>
+      <c r="J57" s="40"/>
       <c r="K57" s="183"/>
-      <c r="L57" s="183"/>
+      <c r="L57" s="184"/>
       <c r="M57" s="184"/>
-      <c r="N57" s="74"/>
+      <c r="N57" s="185"/>
       <c r="O57" s="74"/>
-      <c r="P57" s="76"/>
-      <c r="Q57" s="75"/>
-      <c r="R57" s="87"/>
-      <c r="S57" s="64"/>
+      <c r="P57" s="74"/>
+      <c r="Q57" s="76"/>
+      <c r="R57" s="75"/>
+      <c r="S57" s="87"/>
       <c r="T57" s="64"/>
-    </row>
-    <row r="58" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U57" s="64"/>
+    </row>
+    <row r="58" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="33">
         <v>54</v>
       </c>
@@ -10449,23 +10517,24 @@
       <c r="C58" s="33"/>
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="63"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="83"/>
       <c r="H58" s="63"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="182"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="40"/>
       <c r="K58" s="183"/>
-      <c r="L58" s="183"/>
+      <c r="L58" s="184"/>
       <c r="M58" s="184"/>
-      <c r="N58" s="74"/>
+      <c r="N58" s="185"/>
       <c r="O58" s="74"/>
-      <c r="P58" s="76"/>
-      <c r="Q58" s="75"/>
-      <c r="R58" s="87"/>
-      <c r="S58" s="64"/>
+      <c r="P58" s="74"/>
+      <c r="Q58" s="76"/>
+      <c r="R58" s="75"/>
+      <c r="S58" s="87"/>
       <c r="T58" s="64"/>
-    </row>
-    <row r="59" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U58" s="64"/>
+    </row>
+    <row r="59" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
         <v>55</v>
       </c>
@@ -10473,23 +10542,24 @@
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="63"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="83"/>
       <c r="H59" s="63"/>
-      <c r="I59" s="40"/>
-      <c r="J59" s="182"/>
+      <c r="I59" s="63"/>
+      <c r="J59" s="40"/>
       <c r="K59" s="183"/>
-      <c r="L59" s="183"/>
+      <c r="L59" s="184"/>
       <c r="M59" s="184"/>
-      <c r="N59" s="74"/>
+      <c r="N59" s="185"/>
       <c r="O59" s="74"/>
-      <c r="P59" s="76"/>
-      <c r="Q59" s="75"/>
-      <c r="R59" s="87"/>
-      <c r="S59" s="64"/>
+      <c r="P59" s="74"/>
+      <c r="Q59" s="76"/>
+      <c r="R59" s="75"/>
+      <c r="S59" s="87"/>
       <c r="T59" s="64"/>
-    </row>
-    <row r="60" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U59" s="64"/>
+    </row>
+    <row r="60" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="33">
         <v>56</v>
       </c>
@@ -10497,23 +10567,24 @@
       <c r="C60" s="33"/>
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="63"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="83"/>
       <c r="H60" s="63"/>
-      <c r="I60" s="40"/>
-      <c r="J60" s="182"/>
+      <c r="I60" s="63"/>
+      <c r="J60" s="40"/>
       <c r="K60" s="183"/>
-      <c r="L60" s="183"/>
+      <c r="L60" s="184"/>
       <c r="M60" s="184"/>
-      <c r="N60" s="74"/>
+      <c r="N60" s="185"/>
       <c r="O60" s="74"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="75"/>
-      <c r="R60" s="87"/>
-      <c r="S60" s="64"/>
+      <c r="P60" s="74"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="75"/>
+      <c r="S60" s="87"/>
       <c r="T60" s="64"/>
-    </row>
-    <row r="61" spans="1:20" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U60" s="64"/>
+    </row>
+    <row r="61" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
         <v>57</v>
       </c>
@@ -10521,23 +10592,24 @@
       <c r="C61" s="33"/>
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="63"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="83"/>
       <c r="H61" s="63"/>
-      <c r="I61" s="40"/>
-      <c r="J61" s="182"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="40"/>
       <c r="K61" s="183"/>
-      <c r="L61" s="183"/>
+      <c r="L61" s="184"/>
       <c r="M61" s="184"/>
-      <c r="N61" s="74"/>
+      <c r="N61" s="185"/>
       <c r="O61" s="74"/>
-      <c r="P61" s="76"/>
-      <c r="Q61" s="75"/>
-      <c r="R61" s="87"/>
-      <c r="S61" s="64"/>
+      <c r="P61" s="74"/>
+      <c r="Q61" s="76"/>
+      <c r="R61" s="75"/>
+      <c r="S61" s="87"/>
       <c r="T61" s="64"/>
-    </row>
-    <row r="62" spans="1:20" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="U61" s="64"/>
+    </row>
+    <row r="62" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A62" s="33">
         <v>58</v>
       </c>
@@ -10545,23 +10617,24 @@
       <c r="C62" s="33"/>
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="63"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="83"/>
       <c r="H62" s="63"/>
-      <c r="I62" s="40"/>
-      <c r="J62" s="182"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="40"/>
       <c r="K62" s="183"/>
-      <c r="L62" s="183"/>
+      <c r="L62" s="184"/>
       <c r="M62" s="184"/>
-      <c r="N62" s="83"/>
+      <c r="N62" s="185"/>
       <c r="O62" s="83"/>
-      <c r="P62" s="76"/>
-      <c r="Q62" s="75"/>
-      <c r="R62" s="87"/>
-      <c r="S62" s="64"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="76"/>
+      <c r="R62" s="75"/>
+      <c r="S62" s="87"/>
       <c r="T62" s="64"/>
-    </row>
-    <row r="63" spans="1:20" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="U62" s="64"/>
+    </row>
+    <row r="63" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A63" s="33">
         <v>59</v>
       </c>
@@ -10569,23 +10642,24 @@
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="63"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="83"/>
       <c r="H63" s="63"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="182"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="40"/>
       <c r="K63" s="183"/>
-      <c r="L63" s="183"/>
+      <c r="L63" s="184"/>
       <c r="M63" s="184"/>
-      <c r="N63" s="83"/>
+      <c r="N63" s="185"/>
       <c r="O63" s="83"/>
-      <c r="P63" s="76"/>
-      <c r="Q63" s="75"/>
-      <c r="R63" s="87"/>
-      <c r="S63" s="64"/>
+      <c r="P63" s="83"/>
+      <c r="Q63" s="76"/>
+      <c r="R63" s="75"/>
+      <c r="S63" s="87"/>
       <c r="T63" s="64"/>
-    </row>
-    <row r="64" spans="1:20" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="U63" s="64"/>
+    </row>
+    <row r="64" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="33">
         <v>60</v>
       </c>
@@ -10593,21 +10667,22 @@
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="63"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="83"/>
       <c r="H64" s="63"/>
-      <c r="I64" s="40"/>
-      <c r="J64" s="182"/>
+      <c r="I64" s="63"/>
+      <c r="J64" s="40"/>
       <c r="K64" s="183"/>
-      <c r="L64" s="183"/>
+      <c r="L64" s="184"/>
       <c r="M64" s="184"/>
-      <c r="N64" s="83"/>
+      <c r="N64" s="185"/>
       <c r="O64" s="83"/>
-      <c r="P64" s="76"/>
-      <c r="Q64" s="75"/>
-      <c r="R64" s="87"/>
-    </row>
-    <row r="65" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P64" s="83"/>
+      <c r="Q64" s="76"/>
+      <c r="R64" s="75"/>
+      <c r="S64" s="87"/>
+    </row>
+    <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="33">
         <v>61</v>
       </c>
@@ -10615,21 +10690,22 @@
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
       <c r="E65" s="33"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="63"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="83"/>
       <c r="H65" s="63"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="182"/>
+      <c r="I65" s="63"/>
+      <c r="J65" s="40"/>
       <c r="K65" s="183"/>
-      <c r="L65" s="183"/>
+      <c r="L65" s="184"/>
       <c r="M65" s="184"/>
-      <c r="N65" s="83"/>
+      <c r="N65" s="185"/>
       <c r="O65" s="83"/>
-      <c r="P65" s="76"/>
-      <c r="Q65" s="75"/>
-      <c r="R65" s="87"/>
-    </row>
-    <row r="66" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P65" s="83"/>
+      <c r="Q65" s="76"/>
+      <c r="R65" s="75"/>
+      <c r="S65" s="87"/>
+    </row>
+    <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="33">
         <v>62</v>
       </c>
@@ -10637,21 +10713,22 @@
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="63"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="83"/>
       <c r="H66" s="63"/>
-      <c r="I66" s="40"/>
-      <c r="J66" s="182"/>
+      <c r="I66" s="63"/>
+      <c r="J66" s="40"/>
       <c r="K66" s="183"/>
-      <c r="L66" s="183"/>
+      <c r="L66" s="184"/>
       <c r="M66" s="184"/>
-      <c r="N66" s="83"/>
+      <c r="N66" s="185"/>
       <c r="O66" s="83"/>
-      <c r="P66" s="76"/>
-      <c r="Q66" s="75"/>
-      <c r="R66" s="87"/>
-    </row>
-    <row r="67" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P66" s="83"/>
+      <c r="Q66" s="76"/>
+      <c r="R66" s="75"/>
+      <c r="S66" s="87"/>
+    </row>
+    <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="33">
         <v>63</v>
       </c>
@@ -10659,21 +10736,22 @@
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="63"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="83"/>
       <c r="H67" s="63"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="182"/>
+      <c r="I67" s="63"/>
+      <c r="J67" s="40"/>
       <c r="K67" s="183"/>
-      <c r="L67" s="183"/>
+      <c r="L67" s="184"/>
       <c r="M67" s="184"/>
-      <c r="N67" s="83"/>
+      <c r="N67" s="185"/>
       <c r="O67" s="83"/>
-      <c r="P67" s="76"/>
-      <c r="Q67" s="75"/>
-      <c r="R67" s="87"/>
-    </row>
-    <row r="68" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P67" s="83"/>
+      <c r="Q67" s="76"/>
+      <c r="R67" s="75"/>
+      <c r="S67" s="87"/>
+    </row>
+    <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="33">
         <v>64</v>
       </c>
@@ -10681,21 +10759,22 @@
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="63"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="83"/>
       <c r="H68" s="63"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="182"/>
+      <c r="I68" s="63"/>
+      <c r="J68" s="40"/>
       <c r="K68" s="183"/>
-      <c r="L68" s="183"/>
+      <c r="L68" s="184"/>
       <c r="M68" s="184"/>
-      <c r="N68" s="83"/>
+      <c r="N68" s="185"/>
       <c r="O68" s="83"/>
-      <c r="P68" s="76"/>
-      <c r="Q68" s="75"/>
-      <c r="R68" s="87"/>
-    </row>
-    <row r="69" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P68" s="83"/>
+      <c r="Q68" s="76"/>
+      <c r="R68" s="75"/>
+      <c r="S68" s="87"/>
+    </row>
+    <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="33">
         <v>65</v>
       </c>
@@ -10703,21 +10782,22 @@
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
       <c r="E69" s="33"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="63"/>
+      <c r="F69" s="33"/>
+      <c r="G69" s="83"/>
       <c r="H69" s="63"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="182"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="40"/>
       <c r="K69" s="183"/>
-      <c r="L69" s="183"/>
+      <c r="L69" s="184"/>
       <c r="M69" s="184"/>
-      <c r="N69" s="83"/>
+      <c r="N69" s="185"/>
       <c r="O69" s="83"/>
-      <c r="P69" s="76"/>
-      <c r="Q69" s="75"/>
-      <c r="R69" s="87"/>
-    </row>
-    <row r="70" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P69" s="83"/>
+      <c r="Q69" s="76"/>
+      <c r="R69" s="75"/>
+      <c r="S69" s="87"/>
+    </row>
+    <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="33">
         <v>66</v>
       </c>
@@ -10725,21 +10805,22 @@
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
       <c r="E70" s="33"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="63"/>
+      <c r="F70" s="33"/>
+      <c r="G70" s="83"/>
       <c r="H70" s="63"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="182"/>
+      <c r="I70" s="63"/>
+      <c r="J70" s="40"/>
       <c r="K70" s="183"/>
-      <c r="L70" s="183"/>
+      <c r="L70" s="184"/>
       <c r="M70" s="184"/>
-      <c r="N70" s="83"/>
+      <c r="N70" s="185"/>
       <c r="O70" s="83"/>
-      <c r="P70" s="76"/>
-      <c r="Q70" s="75"/>
-      <c r="R70" s="87"/>
-    </row>
-    <row r="71" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P70" s="83"/>
+      <c r="Q70" s="76"/>
+      <c r="R70" s="75"/>
+      <c r="S70" s="87"/>
+    </row>
+    <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="33">
         <v>67</v>
       </c>
@@ -10747,21 +10828,22 @@
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="63"/>
+      <c r="F71" s="33"/>
+      <c r="G71" s="83"/>
       <c r="H71" s="63"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="182"/>
+      <c r="I71" s="63"/>
+      <c r="J71" s="40"/>
       <c r="K71" s="183"/>
-      <c r="L71" s="183"/>
+      <c r="L71" s="184"/>
       <c r="M71" s="184"/>
-      <c r="N71" s="83"/>
+      <c r="N71" s="185"/>
       <c r="O71" s="83"/>
-      <c r="P71" s="76"/>
-      <c r="Q71" s="75"/>
-      <c r="R71" s="87"/>
-    </row>
-    <row r="72" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P71" s="83"/>
+      <c r="Q71" s="76"/>
+      <c r="R71" s="75"/>
+      <c r="S71" s="87"/>
+    </row>
+    <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="33">
         <v>68</v>
       </c>
@@ -10769,21 +10851,22 @@
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="63"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="83"/>
       <c r="H72" s="63"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="182"/>
+      <c r="I72" s="63"/>
+      <c r="J72" s="40"/>
       <c r="K72" s="183"/>
-      <c r="L72" s="183"/>
+      <c r="L72" s="184"/>
       <c r="M72" s="184"/>
-      <c r="N72" s="83"/>
+      <c r="N72" s="185"/>
       <c r="O72" s="83"/>
-      <c r="P72" s="76"/>
-      <c r="Q72" s="75"/>
-      <c r="R72" s="87"/>
-    </row>
-    <row r="73" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P72" s="83"/>
+      <c r="Q72" s="76"/>
+      <c r="R72" s="75"/>
+      <c r="S72" s="87"/>
+    </row>
+    <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="33">
         <v>69</v>
       </c>
@@ -10791,21 +10874,22 @@
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="63"/>
+      <c r="F73" s="33"/>
+      <c r="G73" s="83"/>
       <c r="H73" s="63"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="182"/>
+      <c r="I73" s="63"/>
+      <c r="J73" s="40"/>
       <c r="K73" s="183"/>
-      <c r="L73" s="183"/>
+      <c r="L73" s="184"/>
       <c r="M73" s="184"/>
-      <c r="N73" s="83"/>
+      <c r="N73" s="185"/>
       <c r="O73" s="83"/>
-      <c r="P73" s="76"/>
-      <c r="Q73" s="75"/>
-      <c r="R73" s="87"/>
-    </row>
-    <row r="74" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P73" s="83"/>
+      <c r="Q73" s="76"/>
+      <c r="R73" s="75"/>
+      <c r="S73" s="87"/>
+    </row>
+    <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="33">
         <v>70</v>
       </c>
@@ -10813,21 +10897,22 @@
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="63"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="83"/>
       <c r="H74" s="63"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="182"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="40"/>
       <c r="K74" s="183"/>
-      <c r="L74" s="183"/>
+      <c r="L74" s="184"/>
       <c r="M74" s="184"/>
-      <c r="N74" s="83"/>
+      <c r="N74" s="185"/>
       <c r="O74" s="83"/>
-      <c r="P74" s="76"/>
-      <c r="Q74" s="75"/>
-      <c r="R74" s="87"/>
-    </row>
-    <row r="75" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P74" s="83"/>
+      <c r="Q74" s="76"/>
+      <c r="R74" s="75"/>
+      <c r="S74" s="87"/>
+    </row>
+    <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="33">
         <v>71</v>
       </c>
@@ -10835,21 +10920,22 @@
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="63"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="83"/>
       <c r="H75" s="63"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="182"/>
+      <c r="I75" s="63"/>
+      <c r="J75" s="40"/>
       <c r="K75" s="183"/>
-      <c r="L75" s="183"/>
+      <c r="L75" s="184"/>
       <c r="M75" s="184"/>
-      <c r="N75" s="83"/>
+      <c r="N75" s="185"/>
       <c r="O75" s="83"/>
-      <c r="P75" s="76"/>
-      <c r="Q75" s="75"/>
-      <c r="R75" s="87"/>
-    </row>
-    <row r="76" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P75" s="83"/>
+      <c r="Q75" s="76"/>
+      <c r="R75" s="75"/>
+      <c r="S75" s="87"/>
+    </row>
+    <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="33">
         <v>72</v>
       </c>
@@ -10857,21 +10943,22 @@
       <c r="C76" s="33"/>
       <c r="D76" s="33"/>
       <c r="E76" s="33"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="63"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="83"/>
       <c r="H76" s="63"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="182"/>
+      <c r="I76" s="63"/>
+      <c r="J76" s="40"/>
       <c r="K76" s="183"/>
-      <c r="L76" s="183"/>
+      <c r="L76" s="184"/>
       <c r="M76" s="184"/>
-      <c r="N76" s="83"/>
+      <c r="N76" s="185"/>
       <c r="O76" s="83"/>
-      <c r="P76" s="76"/>
-      <c r="Q76" s="75"/>
-      <c r="R76" s="87"/>
-    </row>
-    <row r="77" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P76" s="83"/>
+      <c r="Q76" s="76"/>
+      <c r="R76" s="75"/>
+      <c r="S76" s="87"/>
+    </row>
+    <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="33">
         <v>73</v>
       </c>
@@ -10879,21 +10966,22 @@
       <c r="C77" s="33"/>
       <c r="D77" s="33"/>
       <c r="E77" s="33"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="63"/>
+      <c r="F77" s="33"/>
+      <c r="G77" s="83"/>
       <c r="H77" s="63"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="182"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="40"/>
       <c r="K77" s="183"/>
-      <c r="L77" s="183"/>
+      <c r="L77" s="184"/>
       <c r="M77" s="184"/>
-      <c r="N77" s="83"/>
+      <c r="N77" s="185"/>
       <c r="O77" s="83"/>
-      <c r="P77" s="76"/>
-      <c r="Q77" s="75"/>
-      <c r="R77" s="87"/>
-    </row>
-    <row r="78" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P77" s="83"/>
+      <c r="Q77" s="76"/>
+      <c r="R77" s="75"/>
+      <c r="S77" s="87"/>
+    </row>
+    <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="33">
         <v>74</v>
       </c>
@@ -10901,21 +10989,22 @@
       <c r="C78" s="33"/>
       <c r="D78" s="33"/>
       <c r="E78" s="33"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="63"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="83"/>
       <c r="H78" s="63"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="182"/>
+      <c r="I78" s="63"/>
+      <c r="J78" s="40"/>
       <c r="K78" s="183"/>
-      <c r="L78" s="183"/>
+      <c r="L78" s="184"/>
       <c r="M78" s="184"/>
-      <c r="N78" s="83"/>
+      <c r="N78" s="185"/>
       <c r="O78" s="83"/>
-      <c r="P78" s="76"/>
-      <c r="Q78" s="75"/>
-      <c r="R78" s="87"/>
-    </row>
-    <row r="79" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P78" s="83"/>
+      <c r="Q78" s="76"/>
+      <c r="R78" s="75"/>
+      <c r="S78" s="87"/>
+    </row>
+    <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="33">
         <v>75</v>
       </c>
@@ -10923,21 +11012,22 @@
       <c r="C79" s="33"/>
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="63"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="83"/>
       <c r="H79" s="63"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="182"/>
+      <c r="I79" s="63"/>
+      <c r="J79" s="40"/>
       <c r="K79" s="183"/>
-      <c r="L79" s="183"/>
+      <c r="L79" s="184"/>
       <c r="M79" s="184"/>
-      <c r="N79" s="83"/>
+      <c r="N79" s="185"/>
       <c r="O79" s="83"/>
-      <c r="P79" s="76"/>
-      <c r="Q79" s="75"/>
-      <c r="R79" s="87"/>
-    </row>
-    <row r="80" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P79" s="83"/>
+      <c r="Q79" s="76"/>
+      <c r="R79" s="75"/>
+      <c r="S79" s="87"/>
+    </row>
+    <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="33">
         <v>76</v>
       </c>
@@ -10945,21 +11035,22 @@
       <c r="C80" s="33"/>
       <c r="D80" s="33"/>
       <c r="E80" s="33"/>
-      <c r="F80" s="83"/>
-      <c r="G80" s="63"/>
+      <c r="F80" s="33"/>
+      <c r="G80" s="83"/>
       <c r="H80" s="63"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="182"/>
+      <c r="I80" s="63"/>
+      <c r="J80" s="40"/>
       <c r="K80" s="183"/>
-      <c r="L80" s="183"/>
+      <c r="L80" s="184"/>
       <c r="M80" s="184"/>
-      <c r="N80" s="83"/>
+      <c r="N80" s="185"/>
       <c r="O80" s="83"/>
-      <c r="P80" s="76"/>
-      <c r="Q80" s="75"/>
-      <c r="R80" s="87"/>
-    </row>
-    <row r="81" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P80" s="83"/>
+      <c r="Q80" s="76"/>
+      <c r="R80" s="75"/>
+      <c r="S80" s="87"/>
+    </row>
+    <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="33">
         <v>77</v>
       </c>
@@ -10967,21 +11058,22 @@
       <c r="C81" s="33"/>
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>
-      <c r="F81" s="83"/>
-      <c r="G81" s="63"/>
+      <c r="F81" s="33"/>
+      <c r="G81" s="83"/>
       <c r="H81" s="63"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="182"/>
+      <c r="I81" s="63"/>
+      <c r="J81" s="40"/>
       <c r="K81" s="183"/>
-      <c r="L81" s="183"/>
+      <c r="L81" s="184"/>
       <c r="M81" s="184"/>
-      <c r="N81" s="83"/>
+      <c r="N81" s="185"/>
       <c r="O81" s="83"/>
-      <c r="P81" s="76"/>
-      <c r="Q81" s="75"/>
-      <c r="R81" s="87"/>
-    </row>
-    <row r="82" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P81" s="83"/>
+      <c r="Q81" s="76"/>
+      <c r="R81" s="75"/>
+      <c r="S81" s="87"/>
+    </row>
+    <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="33">
         <v>78</v>
       </c>
@@ -10989,21 +11081,22 @@
       <c r="C82" s="33"/>
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
-      <c r="F82" s="83"/>
-      <c r="G82" s="63"/>
+      <c r="F82" s="33"/>
+      <c r="G82" s="83"/>
       <c r="H82" s="63"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="182"/>
+      <c r="I82" s="63"/>
+      <c r="J82" s="40"/>
       <c r="K82" s="183"/>
-      <c r="L82" s="183"/>
+      <c r="L82" s="184"/>
       <c r="M82" s="184"/>
-      <c r="N82" s="83"/>
+      <c r="N82" s="185"/>
       <c r="O82" s="83"/>
-      <c r="P82" s="76"/>
-      <c r="Q82" s="75"/>
-      <c r="R82" s="87"/>
-    </row>
-    <row r="83" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P82" s="83"/>
+      <c r="Q82" s="76"/>
+      <c r="R82" s="75"/>
+      <c r="S82" s="87"/>
+    </row>
+    <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="33">
         <v>79</v>
       </c>
@@ -11011,21 +11104,22 @@
       <c r="C83" s="33"/>
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
-      <c r="F83" s="83"/>
-      <c r="G83" s="63"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="83"/>
       <c r="H83" s="63"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="182"/>
+      <c r="I83" s="63"/>
+      <c r="J83" s="40"/>
       <c r="K83" s="183"/>
-      <c r="L83" s="183"/>
+      <c r="L83" s="184"/>
       <c r="M83" s="184"/>
-      <c r="N83" s="83"/>
+      <c r="N83" s="185"/>
       <c r="O83" s="83"/>
-      <c r="P83" s="76"/>
-      <c r="Q83" s="75"/>
-      <c r="R83" s="87"/>
-    </row>
-    <row r="84" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P83" s="83"/>
+      <c r="Q83" s="76"/>
+      <c r="R83" s="75"/>
+      <c r="S83" s="87"/>
+    </row>
+    <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="33">
         <v>80</v>
       </c>
@@ -11033,21 +11127,22 @@
       <c r="C84" s="33"/>
       <c r="D84" s="33"/>
       <c r="E84" s="33"/>
-      <c r="F84" s="83"/>
-      <c r="G84" s="63"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="83"/>
       <c r="H84" s="63"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="182"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="40"/>
       <c r="K84" s="183"/>
-      <c r="L84" s="183"/>
+      <c r="L84" s="184"/>
       <c r="M84" s="184"/>
-      <c r="N84" s="83"/>
+      <c r="N84" s="185"/>
       <c r="O84" s="83"/>
-      <c r="P84" s="76"/>
-      <c r="Q84" s="75"/>
-      <c r="R84" s="87"/>
-    </row>
-    <row r="85" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P84" s="83"/>
+      <c r="Q84" s="76"/>
+      <c r="R84" s="75"/>
+      <c r="S84" s="87"/>
+    </row>
+    <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="33">
         <v>81</v>
       </c>
@@ -11055,21 +11150,22 @@
       <c r="C85" s="33"/>
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
-      <c r="F85" s="83"/>
-      <c r="G85" s="63"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="83"/>
       <c r="H85" s="63"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="182"/>
+      <c r="I85" s="63"/>
+      <c r="J85" s="40"/>
       <c r="K85" s="183"/>
-      <c r="L85" s="183"/>
+      <c r="L85" s="184"/>
       <c r="M85" s="184"/>
-      <c r="N85" s="83"/>
+      <c r="N85" s="185"/>
       <c r="O85" s="83"/>
-      <c r="P85" s="76"/>
-      <c r="Q85" s="75"/>
-      <c r="R85" s="87"/>
-    </row>
-    <row r="86" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P85" s="83"/>
+      <c r="Q85" s="76"/>
+      <c r="R85" s="75"/>
+      <c r="S85" s="87"/>
+    </row>
+    <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="33">
         <v>82</v>
       </c>
@@ -11077,21 +11173,22 @@
       <c r="C86" s="33"/>
       <c r="D86" s="33"/>
       <c r="E86" s="33"/>
-      <c r="F86" s="83"/>
-      <c r="G86" s="63"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="83"/>
       <c r="H86" s="63"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="182"/>
+      <c r="I86" s="63"/>
+      <c r="J86" s="40"/>
       <c r="K86" s="183"/>
-      <c r="L86" s="183"/>
+      <c r="L86" s="184"/>
       <c r="M86" s="184"/>
-      <c r="N86" s="83"/>
+      <c r="N86" s="185"/>
       <c r="O86" s="83"/>
-      <c r="P86" s="76"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="87"/>
-    </row>
-    <row r="87" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P86" s="83"/>
+      <c r="Q86" s="76"/>
+      <c r="R86" s="75"/>
+      <c r="S86" s="87"/>
+    </row>
+    <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="33">
         <v>83</v>
       </c>
@@ -11099,21 +11196,22 @@
       <c r="C87" s="33"/>
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
-      <c r="F87" s="83"/>
-      <c r="G87" s="63"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="83"/>
       <c r="H87" s="63"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="182"/>
+      <c r="I87" s="63"/>
+      <c r="J87" s="40"/>
       <c r="K87" s="183"/>
-      <c r="L87" s="183"/>
+      <c r="L87" s="184"/>
       <c r="M87" s="184"/>
-      <c r="N87" s="83"/>
+      <c r="N87" s="185"/>
       <c r="O87" s="83"/>
-      <c r="P87" s="76"/>
-      <c r="Q87" s="75"/>
-      <c r="R87" s="87"/>
-    </row>
-    <row r="88" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P87" s="83"/>
+      <c r="Q87" s="76"/>
+      <c r="R87" s="75"/>
+      <c r="S87" s="87"/>
+    </row>
+    <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="33">
         <v>84</v>
       </c>
@@ -11121,21 +11219,22 @@
       <c r="C88" s="33"/>
       <c r="D88" s="33"/>
       <c r="E88" s="33"/>
-      <c r="F88" s="83"/>
-      <c r="G88" s="63"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="83"/>
       <c r="H88" s="63"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="182"/>
+      <c r="I88" s="63"/>
+      <c r="J88" s="40"/>
       <c r="K88" s="183"/>
-      <c r="L88" s="183"/>
+      <c r="L88" s="184"/>
       <c r="M88" s="184"/>
-      <c r="N88" s="83"/>
+      <c r="N88" s="185"/>
       <c r="O88" s="83"/>
-      <c r="P88" s="76"/>
-      <c r="Q88" s="75"/>
-      <c r="R88" s="87"/>
-    </row>
-    <row r="89" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P88" s="83"/>
+      <c r="Q88" s="76"/>
+      <c r="R88" s="75"/>
+      <c r="S88" s="87"/>
+    </row>
+    <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="33">
         <v>85</v>
       </c>
@@ -11143,21 +11242,22 @@
       <c r="C89" s="33"/>
       <c r="D89" s="33"/>
       <c r="E89" s="33"/>
-      <c r="F89" s="83"/>
-      <c r="G89" s="63"/>
+      <c r="F89" s="33"/>
+      <c r="G89" s="83"/>
       <c r="H89" s="63"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="182"/>
+      <c r="I89" s="63"/>
+      <c r="J89" s="40"/>
       <c r="K89" s="183"/>
-      <c r="L89" s="183"/>
+      <c r="L89" s="184"/>
       <c r="M89" s="184"/>
-      <c r="N89" s="83"/>
+      <c r="N89" s="185"/>
       <c r="O89" s="83"/>
-      <c r="P89" s="76"/>
-      <c r="Q89" s="75"/>
-      <c r="R89" s="87"/>
-    </row>
-    <row r="90" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P89" s="83"/>
+      <c r="Q89" s="76"/>
+      <c r="R89" s="75"/>
+      <c r="S89" s="87"/>
+    </row>
+    <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="33">
         <v>86</v>
       </c>
@@ -11165,21 +11265,22 @@
       <c r="C90" s="33"/>
       <c r="D90" s="33"/>
       <c r="E90" s="33"/>
-      <c r="F90" s="83"/>
-      <c r="G90" s="63"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="83"/>
       <c r="H90" s="63"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="182"/>
+      <c r="I90" s="63"/>
+      <c r="J90" s="40"/>
       <c r="K90" s="183"/>
-      <c r="L90" s="183"/>
+      <c r="L90" s="184"/>
       <c r="M90" s="184"/>
-      <c r="N90" s="83"/>
+      <c r="N90" s="185"/>
       <c r="O90" s="83"/>
-      <c r="P90" s="76"/>
-      <c r="Q90" s="75"/>
-      <c r="R90" s="87"/>
-    </row>
-    <row r="91" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P90" s="83"/>
+      <c r="Q90" s="76"/>
+      <c r="R90" s="75"/>
+      <c r="S90" s="87"/>
+    </row>
+    <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="33">
         <v>87</v>
       </c>
@@ -11187,21 +11288,22 @@
       <c r="C91" s="33"/>
       <c r="D91" s="33"/>
       <c r="E91" s="33"/>
-      <c r="F91" s="83"/>
-      <c r="G91" s="63"/>
+      <c r="F91" s="33"/>
+      <c r="G91" s="83"/>
       <c r="H91" s="63"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="182"/>
+      <c r="I91" s="63"/>
+      <c r="J91" s="40"/>
       <c r="K91" s="183"/>
-      <c r="L91" s="183"/>
+      <c r="L91" s="184"/>
       <c r="M91" s="184"/>
-      <c r="N91" s="83"/>
+      <c r="N91" s="185"/>
       <c r="O91" s="83"/>
-      <c r="P91" s="76"/>
-      <c r="Q91" s="75"/>
-      <c r="R91" s="87"/>
-    </row>
-    <row r="92" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P91" s="83"/>
+      <c r="Q91" s="76"/>
+      <c r="R91" s="75"/>
+      <c r="S91" s="87"/>
+    </row>
+    <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="33">
         <v>88</v>
       </c>
@@ -11209,21 +11311,22 @@
       <c r="C92" s="33"/>
       <c r="D92" s="33"/>
       <c r="E92" s="33"/>
-      <c r="F92" s="83"/>
-      <c r="G92" s="63"/>
+      <c r="F92" s="33"/>
+      <c r="G92" s="83"/>
       <c r="H92" s="63"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="182"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="40"/>
       <c r="K92" s="183"/>
-      <c r="L92" s="183"/>
+      <c r="L92" s="184"/>
       <c r="M92" s="184"/>
-      <c r="N92" s="83"/>
+      <c r="N92" s="185"/>
       <c r="O92" s="83"/>
-      <c r="P92" s="76"/>
-      <c r="Q92" s="75"/>
-      <c r="R92" s="87"/>
-    </row>
-    <row r="93" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P92" s="83"/>
+      <c r="Q92" s="76"/>
+      <c r="R92" s="75"/>
+      <c r="S92" s="87"/>
+    </row>
+    <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="33">
         <v>89</v>
       </c>
@@ -11231,21 +11334,22 @@
       <c r="C93" s="33"/>
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
-      <c r="F93" s="83"/>
-      <c r="G93" s="63"/>
+      <c r="F93" s="33"/>
+      <c r="G93" s="83"/>
       <c r="H93" s="63"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="182"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="40"/>
       <c r="K93" s="183"/>
-      <c r="L93" s="183"/>
+      <c r="L93" s="184"/>
       <c r="M93" s="184"/>
-      <c r="N93" s="83"/>
+      <c r="N93" s="185"/>
       <c r="O93" s="83"/>
-      <c r="P93" s="76"/>
-      <c r="Q93" s="75"/>
-      <c r="R93" s="87"/>
-    </row>
-    <row r="94" spans="1:18" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P93" s="83"/>
+      <c r="Q93" s="76"/>
+      <c r="R93" s="75"/>
+      <c r="S93" s="87"/>
+    </row>
+    <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="33">
         <v>90</v>
       </c>
@@ -11253,129 +11357,130 @@
       <c r="C94" s="33"/>
       <c r="D94" s="33"/>
       <c r="E94" s="33"/>
-      <c r="F94" s="83"/>
-      <c r="G94" s="63"/>
+      <c r="F94" s="33"/>
+      <c r="G94" s="83"/>
       <c r="H94" s="63"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="182"/>
+      <c r="I94" s="63"/>
+      <c r="J94" s="40"/>
       <c r="K94" s="183"/>
-      <c r="L94" s="183"/>
+      <c r="L94" s="184"/>
       <c r="M94" s="184"/>
-      <c r="N94" s="83"/>
+      <c r="N94" s="185"/>
       <c r="O94" s="83"/>
-      <c r="P94" s="76"/>
-      <c r="Q94" s="75"/>
-      <c r="R94" s="87"/>
-    </row>
-    <row r="1048467" spans="16:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P1048467" s="76"/>
+      <c r="P94" s="83"/>
+      <c r="Q94" s="76"/>
+      <c r="R94" s="75"/>
+      <c r="S94" s="87"/>
+    </row>
+    <row r="1048467" spans="17:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1048467" s="76"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="93">
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="J77:M77"/>
-    <mergeCell ref="J60:M60"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J61:M61"/>
-    <mergeCell ref="J62:M62"/>
-    <mergeCell ref="J63:M63"/>
-    <mergeCell ref="J64:M64"/>
-    <mergeCell ref="J65:M65"/>
-    <mergeCell ref="J66:M66"/>
-    <mergeCell ref="J67:M67"/>
-    <mergeCell ref="J68:M68"/>
-    <mergeCell ref="J74:M74"/>
-    <mergeCell ref="J75:M75"/>
-    <mergeCell ref="J76:M76"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="J53:M53"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="J73:M73"/>
-    <mergeCell ref="J59:M59"/>
-    <mergeCell ref="J55:M55"/>
-    <mergeCell ref="J56:M56"/>
-    <mergeCell ref="J57:M57"/>
-    <mergeCell ref="J93:M93"/>
-    <mergeCell ref="J94:M94"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J78:M78"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="J80:M80"/>
-    <mergeCell ref="J81:M81"/>
-    <mergeCell ref="J82:M82"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="J84:M84"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J69:M69"/>
-    <mergeCell ref="J70:M70"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="J38:M38"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J58:M58"/>
-    <mergeCell ref="J47:M47"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J54:M54"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J44:M44"/>
-    <mergeCell ref="J45:M45"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="P1048467:P1048576 P5:P94"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5:G94">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I94">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q5:Q94">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R94">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11411,10 +11516,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11444,8 +11549,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -11503,7 +11608,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -11595,7 +11700,7 @@
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="137" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11648,7 +11753,7 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -11737,7 +11842,7 @@
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="73"/>
       <c r="B25" s="85" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -11765,7 +11870,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="73"/>
       <c r="B27" s="85" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -11793,7 +11898,7 @@
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="73"/>
       <c r="B29" s="85" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -11807,7 +11912,7 @@
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="73"/>
       <c r="B30" s="124" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -11821,7 +11926,7 @@
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="73"/>
       <c r="B31" s="85" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -11835,7 +11940,7 @@
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="73"/>
       <c r="B32" s="85" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -11849,7 +11954,7 @@
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="73"/>
       <c r="B33" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -11863,7 +11968,7 @@
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="73"/>
       <c r="B34" s="79" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -11877,7 +11982,7 @@
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="73"/>
       <c r="B35" s="85" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -11890,7 +11995,7 @@
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="73"/>
       <c r="B36" s="79" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -11904,7 +12009,7 @@
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="73"/>
       <c r="B37" s="85" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
@@ -11918,7 +12023,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="73"/>
       <c r="B38" s="79" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C38" s="43"/>
       <c r="D38" s="43"/>
@@ -11932,7 +12037,7 @@
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="73"/>
       <c r="B39" s="85" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -12177,12 +12282,12 @@
       <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="186" t="s">
-        <v>271</v>
-      </c>
-      <c r="C59" s="186"/>
-      <c r="D59" s="186"/>
-      <c r="E59" s="186"/>
+      <c r="B59" s="187" t="s">
+        <v>269</v>
+      </c>
+      <c r="C59" s="187"/>
+      <c r="D59" s="187"/>
+      <c r="E59" s="187"/>
       <c r="F59" s="125"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
@@ -12215,7 +12320,7 @@
     </row>
     <row r="62" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="43"/>
@@ -12740,10 +12845,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12771,8 +12876,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13183,14 +13288,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="187" t="s">
+      <c r="B1" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
-      <c r="E1" s="187"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -13383,11 +13488,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="188" t="s">
+      <c r="E27" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="189"/>
-      <c r="G27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="191"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="293">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2400,6 +2400,14 @@
   </si>
   <si>
     <t>Click System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT CT41.StationID, CT41.[Address], CT41.StreetNo, CT41.Street, CT41.Ward, CT41.District, CT41.CityID, AT02.CityName, CT41.[Description], CT41.[Disabled] 
+FROM CT0141 CT41 
+LEFT JOIN AT1002 AT02 ON AT02.DivisionID = CT41.DivisionID AND AT02.CityID = CT41.CityID
+WHERE CT41.DivisionID = @DivisionID
+ORDER BY CT41.StationID
+</t>
   </si>
 </sst>
 </file>
@@ -3200,6 +3208,9 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3227,9 +3238,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3299,6 +3307,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3308,23 +3322,17 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3742,10 +3750,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="146"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3772,8 +3780,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3812,14 +3820,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3834,14 +3842,14 @@
       <c r="D5" s="100" t="s">
         <v>231</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="90">
@@ -3867,12 +3875,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
@@ -3883,12 +3891,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="144"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
@@ -3899,12 +3907,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
@@ -3915,12 +3923,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="142"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
@@ -3931,12 +3939,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
@@ -3947,12 +3955,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="142"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
@@ -3963,12 +3971,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="142"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98">
@@ -3979,12 +3987,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="142"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -3995,12 +4003,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
@@ -4011,12 +4019,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
@@ -4027,12 +4035,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -4043,12 +4051,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
@@ -4059,12 +4067,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
@@ -4075,12 +4083,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
@@ -4091,12 +4099,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
@@ -4107,12 +4115,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97">
@@ -4123,12 +4131,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98">
@@ -4139,12 +4147,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4155,12 +4163,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90">
@@ -4171,12 +4179,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
@@ -4187,12 +4195,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
@@ -4203,12 +4211,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
@@ -4219,12 +4227,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
@@ -4235,12 +4243,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
@@ -4251,12 +4259,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="148"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
@@ -4267,12 +4275,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97">
@@ -4283,12 +4291,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98">
@@ -4299,12 +4307,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4315,12 +4323,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90">
@@ -4331,12 +4339,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -4347,12 +4355,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
@@ -4363,12 +4371,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -4379,12 +4387,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="139"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
@@ -4395,12 +4403,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
@@ -4411,12 +4419,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="139"/>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="96">
@@ -4427,32 +4435,23 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4468,14 +4467,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4692,10 +4700,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="146"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4725,8 +4733,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5302,13 +5310,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5341,11 +5349,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7751,7 +7759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -7776,7 +7784,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="172" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="129"/>
@@ -7809,7 +7817,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="178"/>
+      <c r="A2" s="173"/>
       <c r="B2" s="130"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -7855,15 +7863,15 @@
       <c r="E4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="145" t="s">
+      <c r="F4" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145" t="s">
+      <c r="G4" s="146"/>
+      <c r="H4" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -7881,13 +7889,13 @@
       <c r="E5" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="179" t="s">
+      <c r="F5" s="177" t="s">
         <v>250</v>
       </c>
-      <c r="G5" s="180"/>
-      <c r="H5" s="172"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="174"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="174"/>
+      <c r="I5" s="175"/>
+      <c r="J5" s="176"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -7909,9 +7917,9 @@
         <v>251</v>
       </c>
       <c r="G6" s="182"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="173"/>
-      <c r="J6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="175"/>
+      <c r="J6" s="176"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -7933,9 +7941,9 @@
         <v>251</v>
       </c>
       <c r="G7" s="182"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="173"/>
-      <c r="J7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175"/>
+      <c r="J7" s="176"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -7953,13 +7961,13 @@
       <c r="E8" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="179" t="s">
+      <c r="F8" s="177" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="180"/>
-      <c r="H8" s="172"/>
-      <c r="I8" s="173"/>
-      <c r="J8" s="174"/>
+      <c r="G8" s="178"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -7977,13 +7985,13 @@
       <c r="E9" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="179" t="s">
+      <c r="F9" s="177" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="180"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="174"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="175"/>
+      <c r="J9" s="176"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8001,13 +8009,13 @@
       <c r="E10" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="179" t="s">
+      <c r="F10" s="177" t="s">
         <v>248</v>
       </c>
-      <c r="G10" s="180"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="174"/>
+      <c r="G10" s="178"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="176"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8017,11 +8025,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="176"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="174"/>
+      <c r="F11" s="179"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="176"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8031,11 +8039,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="176"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="174"/>
+      <c r="F12" s="179"/>
+      <c r="G12" s="180"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="176"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8045,11 +8053,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="174"/>
+      <c r="F13" s="179"/>
+      <c r="G13" s="180"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="176"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8059,11 +8067,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="174"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="180"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="176"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8073,11 +8081,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="174"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="180"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="175"/>
+      <c r="J15" s="176"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8087,11 +8095,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="176"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="174"/>
+      <c r="F16" s="179"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8101,11 +8109,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="176"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="174"/>
+      <c r="F17" s="179"/>
+      <c r="G17" s="180"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="176"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8115,11 +8123,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="176"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="174"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="180"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="176"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8129,11 +8137,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="176"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="174"/>
+      <c r="F19" s="179"/>
+      <c r="G19" s="180"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="176"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8143,11 +8151,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="174"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="180"/>
+      <c r="H20" s="174"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="176"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8157,11 +8165,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="174"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="174"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="176"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8171,11 +8179,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="174"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="174"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="176"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8185,11 +8193,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="174"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="174"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="176"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8199,11 +8207,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="174"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="174"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="176"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8213,11 +8221,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="174"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="174"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="176"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8227,11 +8235,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="174"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="174"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="176"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8241,11 +8249,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="174"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="174"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="176"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8255,11 +8263,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="174"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="174"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="176"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8269,11 +8277,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="174"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="174"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="176"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8283,11 +8291,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="174"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="176"/>
     </row>
     <row r="31" spans="1:18" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
@@ -8297,11 +8305,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="174"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="174"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="176"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -8318,11 +8326,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="174"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="176"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -8339,11 +8347,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="176"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -8360,11 +8368,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="174"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="176"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -8381,11 +8389,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="174"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="174"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="176"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -8402,11 +8410,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="174"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="176"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -8423,11 +8431,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="174"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="142"/>
+      <c r="H37" s="174"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="176"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -8444,11 +8452,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="174"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="174"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="176"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -8465,11 +8473,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="174"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="174"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="176"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -8486,11 +8494,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="174"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="176"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -8507,11 +8515,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="174"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="174"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="176"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -8528,11 +8536,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="174"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="174"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="176"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -8549,11 +8557,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="139"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="174"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="174"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="176"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -8570,11 +8578,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="174"/>
+      <c r="F44" s="140"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="174"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="176"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -8591,11 +8599,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="139"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="174"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="174"/>
+      <c r="I45" s="175"/>
+      <c r="J45" s="176"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -8612,11 +8620,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="172"/>
-      <c r="I46" s="173"/>
-      <c r="J46" s="174"/>
+      <c r="F46" s="140"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="174"/>
+      <c r="I46" s="175"/>
+      <c r="J46" s="176"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -8633,11 +8641,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="139"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="172"/>
-      <c r="I47" s="173"/>
-      <c r="J47" s="174"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="174"/>
+      <c r="I47" s="175"/>
+      <c r="J47" s="176"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -8654,11 +8662,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="139"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="172"/>
-      <c r="I48" s="173"/>
-      <c r="J48" s="174"/>
+      <c r="F48" s="140"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="174"/>
+      <c r="I48" s="175"/>
+      <c r="J48" s="176"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -8675,11 +8683,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="139"/>
-      <c r="G49" s="141"/>
-      <c r="H49" s="172"/>
-      <c r="I49" s="173"/>
-      <c r="J49" s="174"/>
+      <c r="F49" s="140"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="174"/>
+      <c r="I49" s="175"/>
+      <c r="J49" s="176"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -8696,11 +8704,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="172"/>
-      <c r="I50" s="173"/>
-      <c r="J50" s="174"/>
+      <c r="F50" s="140"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="174"/>
+      <c r="I50" s="175"/>
+      <c r="J50" s="176"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -8717,11 +8725,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="172"/>
-      <c r="I51" s="173"/>
-      <c r="J51" s="174"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="174"/>
+      <c r="I51" s="175"/>
+      <c r="J51" s="176"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -8738,11 +8746,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="139"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="172"/>
-      <c r="I52" s="173"/>
-      <c r="J52" s="174"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="175"/>
+      <c r="J52" s="176"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -8759,11 +8767,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="139"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="172"/>
-      <c r="I53" s="173"/>
-      <c r="J53" s="174"/>
+      <c r="F53" s="140"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="174"/>
+      <c r="I53" s="175"/>
+      <c r="J53" s="176"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -8780,11 +8788,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="172"/>
-      <c r="I54" s="173"/>
-      <c r="J54" s="174"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="174"/>
+      <c r="I54" s="175"/>
+      <c r="J54" s="176"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -8801,11 +8809,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="139"/>
-      <c r="G55" s="141"/>
-      <c r="H55" s="172"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="174"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="174"/>
+      <c r="I55" s="175"/>
+      <c r="J55" s="176"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -8817,6 +8825,94 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="105">
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -8834,94 +8930,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E55">
@@ -8943,8 +8951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8972,16 +8980,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -9016,14 +9024,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9141,6 +9149,12 @@
       <c r="J5" s="123" t="s">
         <v>220</v>
       </c>
+      <c r="K5" s="143" t="s">
+        <v>292</v>
+      </c>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="145"/>
       <c r="O5" s="127" t="s">
         <v>135</v>
       </c>
@@ -9184,12 +9198,12 @@
       <c r="J6" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="K6" s="142" t="s">
+      <c r="K6" s="143" t="s">
         <v>261</v>
       </c>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="145"/>
       <c r="O6" s="121" t="s">
         <v>228</v>
       </c>
@@ -9235,12 +9249,12 @@
       <c r="J7" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="142" t="s">
+      <c r="K7" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="145"/>
       <c r="O7" s="121" t="s">
         <v>223</v>
       </c>
@@ -11377,33 +11391,59 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="93">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
+  <mergeCells count="94">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
     <mergeCell ref="K93:N93"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K6:N6"/>
@@ -11420,57 +11460,32 @@
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -11516,10 +11531,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="146"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11549,8 +11564,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12845,10 +12860,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="146"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12876,8 +12891,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="286">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2180,12 +2180,6 @@
     <t>@SQL0003</t>
   </si>
   <si>
-    <t>@StationID</t>
-  </si>
-  <si>
-    <t>Grid.StationID</t>
-  </si>
-  <si>
     <t>1. Thêm</t>
   </si>
   <si>
@@ -2193,11 +2187,6 @@
   </si>
   <si>
     <t>3. Xem</t>
-  </si>
-  <si>
-    <t>@KeyID
-@TableID
- @IsEdit</t>
   </si>
   <si>
     <t>ASOFT-CI
@@ -2211,22 +2200,9 @@
     <t>Thị Phượng</t>
   </si>
   <si>
-    <t>- Tạo mới tài liệu
-- Danh mục địa điểm (Danh mục trạm) - Customize Hoàng Trần (CustomizeIndex = 51)</t>
-  </si>
-  <si>
-    <t>Xóa</t>
-  </si>
-  <si>
-    <t>Require</t>
-  </si>
-  <si>
     <t>Click</t>
   </si>
   <si>
-    <t>CFML000038</t>
-  </si>
-  <si>
     <t>Version</t>
   </si>
   <si>
@@ -2237,18 +2213,6 @@
   </si>
   <si>
     <t>ver 1.0</t>
-  </si>
-  <si>
-    <t>click LinkAdd</t>
-  </si>
-  <si>
-    <t>Click LinkEdit</t>
-  </si>
-  <si>
-    <t>Click LinkView</t>
-  </si>
-  <si>
-    <t>Click LinkSearch</t>
   </si>
   <si>
     <t>Truyền tham số @DivisionID gọi màn hình Thanh tìm kiếm - AS0060</t>
@@ -2307,14 +2271,6 @@
  @IsEdit TINYINT  ----  =0  la Xoa,  = 1 la Sua</t>
   </si>
   <si>
-    <t>Grid.StationID
-'CT0141'
-=0  la Xoa,  = 1 la Sua</t>
-  </si>
-  <si>
-    <t>CFML000064</t>
-  </si>
-  <si>
     <t>DELETE FROM CT0141
 WHERE DivisionID = @DivisionID AND StationID = @StationID</t>
   </si>
@@ -2394,12 +2350,6 @@
   </si>
   <si>
     <t>- Nếu thỏa thực thi @SQL0003 để xóa StationID được chọn, thực thi @SQL0001 đển load lại dữ liệu lên gird</t>
-  </si>
-  <si>
-    <t>Click Excel</t>
-  </si>
-  <si>
-    <t>Click System</t>
   </si>
   <si>
     <t xml:space="preserve">SELECT CT41.StationID, CT41.[Address], CT41.StreetNo, CT41.Street, CT41.Ward, CT41.District, CT41.CityID, AT02.CityName, CT41.[Description], CT41.[Disabled] 
@@ -2408,6 +2358,40 @@
 WHERE CT41.DivisionID = @DivisionID
 ORDER BY CT41.StationID
 </t>
+  </si>
+  <si>
+    <t>Popup menu</t>
+  </si>
+  <si>
+    <t>Ver 2.0</t>
+  </si>
+  <si>
+    <t>@DivisionID
+@KeyID
+@TableID
+ @IsEdit</t>
+  </si>
+  <si>
+    <t>@@DivisionID
+Grid.StationID
+'CT0141'
+=0  la Xoa,  = 1 la Sua</t>
+  </si>
+  <si>
+    <t>@DivisionID @StationID</t>
+  </si>
+  <si>
+    <t>@@DivisionID Grid.StationID</t>
+  </si>
+  <si>
+    <t>- Tạo mới tài liệu
+- Danh mục địa điểm (Danh mục trạm)</t>
+  </si>
+  <si>
+    <t>- Layout Screen thêm số thứ tự vào cột
+- Item Screen thêm popup menu và chỉnh sửa lại note
+- Input Check xóa các Message không cần thiết
+- Data Input chỉnh sửa lại câu @SQL002 và @SQL003</t>
   </si>
 </sst>
 </file>
@@ -2860,7 +2844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3158,9 +3142,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3192,12 +3173,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3208,45 +3183,36 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3307,33 +3273,33 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3366,6 +3332,74 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3373,6 +3407,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3389,19 +3428,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1162050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>1170345</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3421,8 +3460,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="142875" y="1133475"/>
-          <a:ext cx="7896225" cy="3905250"/>
+          <a:off x="28575" y="1000126"/>
+          <a:ext cx="8018820" cy="4000500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3734,7 +3773,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E14" sqref="E14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3750,10 +3789,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="142"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3764,24 +3803,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3820,14 +3859,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3836,35 +3875,42 @@
       <c r="B5" s="41">
         <v>1</v>
       </c>
-      <c r="C5" s="132">
+      <c r="C5" s="131">
         <v>42381</v>
       </c>
       <c r="D5" s="100" t="s">
-        <v>231</v>
-      </c>
-      <c r="E5" s="148" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-    </row>
-    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+        <v>228</v>
+      </c>
+      <c r="E5" s="144" t="s">
+        <v>284</v>
+      </c>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="145"/>
+      <c r="J5" s="145"/>
+    </row>
+    <row r="6" spans="1:10" s="196" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="90">
         <v>2</v>
       </c>
-      <c r="B6" s="133">
+      <c r="B6" s="191">
         <v>2</v>
       </c>
-      <c r="D6" s="134"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="C6" s="192">
+        <v>42387</v>
+      </c>
+      <c r="D6" s="193" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="208" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="195"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91">
@@ -3875,12 +3921,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="E7" s="136"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
@@ -3891,12 +3937,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="141"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
@@ -3907,12 +3953,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
+      <c r="E9" s="136"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
@@ -3923,12 +3969,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="142"/>
+      <c r="E10" s="136"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="138"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
@@ -3939,12 +3985,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="142"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
@@ -3955,12 +4001,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="138"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
@@ -3971,12 +4017,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="142"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98">
@@ -3987,12 +4033,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="142"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="138"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4003,12 +4049,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="145"/>
+      <c r="G15" s="145"/>
+      <c r="H15" s="145"/>
+      <c r="I15" s="145"/>
+      <c r="J15" s="145"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
@@ -4019,12 +4065,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="145"/>
+      <c r="G16" s="145"/>
+      <c r="H16" s="145"/>
+      <c r="I16" s="145"/>
+      <c r="J16" s="145"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
@@ -4035,12 +4081,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="145"/>
+      <c r="G17" s="145"/>
+      <c r="H17" s="145"/>
+      <c r="I17" s="145"/>
+      <c r="J17" s="145"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -4051,12 +4097,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="145"/>
+      <c r="H18" s="145"/>
+      <c r="I18" s="145"/>
+      <c r="J18" s="145"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
@@ -4067,12 +4113,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
+      <c r="G19" s="145"/>
+      <c r="H19" s="145"/>
+      <c r="I19" s="145"/>
+      <c r="J19" s="145"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
@@ -4083,12 +4129,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="145"/>
+      <c r="J20" s="145"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
@@ -4099,12 +4145,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="145"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="145"/>
+      <c r="J21" s="145"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
@@ -4115,12 +4161,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97">
@@ -4131,12 +4177,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98">
@@ -4147,12 +4193,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4163,12 +4209,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90">
@@ -4179,12 +4225,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
@@ -4195,12 +4241,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
@@ -4211,12 +4257,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
@@ -4227,12 +4273,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="145"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
@@ -4243,12 +4289,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="145"/>
+      <c r="I30" s="145"/>
+      <c r="J30" s="145"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
@@ -4259,12 +4305,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
+      <c r="J31" s="145"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
@@ -4275,12 +4321,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
+      <c r="J32" s="145"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97">
@@ -4291,12 +4337,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
+      <c r="J33" s="145"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98">
@@ -4307,12 +4353,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
+      <c r="J34" s="145"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4323,12 +4369,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="145"/>
+      <c r="J35" s="145"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90">
@@ -4339,12 +4385,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="145"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -4355,12 +4401,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+      <c r="G37" s="145"/>
+      <c r="H37" s="145"/>
+      <c r="I37" s="145"/>
+      <c r="J37" s="145"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
@@ -4371,12 +4417,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+      <c r="G38" s="145"/>
+      <c r="H38" s="145"/>
+      <c r="I38" s="145"/>
+      <c r="J38" s="145"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -4387,12 +4433,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+      <c r="G39" s="145"/>
+      <c r="H39" s="145"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="145"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
@@ -4403,12 +4449,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="145"/>
+      <c r="H40" s="145"/>
+      <c r="I40" s="145"/>
+      <c r="J40" s="145"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
@@ -4419,12 +4465,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+      <c r="G41" s="145"/>
+      <c r="H41" s="145"/>
+      <c r="I41" s="145"/>
+      <c r="J41" s="145"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="96">
@@ -4435,23 +4481,32 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="145"/>
+      <c r="H42" s="145"/>
+      <c r="I42" s="145"/>
+      <c r="J42" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4467,23 +4522,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4681,8 +4727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4700,10 +4746,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="142"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4729,12 +4775,12 @@
         <v>7</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4760,24 +4806,24 @@
         <v>8</v>
       </c>
       <c r="J2" s="29">
-        <v>42381</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="152" t="s">
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="153"/>
+      <c r="J4" s="147"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4788,10 +4834,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="161" t="s">
+      <c r="I5" s="155" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="162"/>
+      <c r="J5" s="156"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4802,8 +4848,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="164"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4814,8 +4860,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="164"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="158"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4826,8 +4872,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
+      <c r="I8" s="157"/>
+      <c r="J8" s="158"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4838,8 +4884,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="164"/>
+      <c r="I9" s="157"/>
+      <c r="J9" s="158"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4850,8 +4896,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="166"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -4862,10 +4908,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="152" t="s">
+      <c r="I11" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="153"/>
+      <c r="J11" s="147"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -4876,10 +4922,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="155" t="s">
-        <v>229</v>
-      </c>
-      <c r="J12" s="156"/>
+      <c r="I12" s="149" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" s="150"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -4890,8 +4936,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="I13" s="151"/>
+      <c r="J13" s="152"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -4902,8 +4948,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158"/>
+      <c r="I14" s="151"/>
+      <c r="J14" s="152"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -4914,8 +4960,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
+      <c r="I15" s="151"/>
+      <c r="J15" s="152"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -4926,8 +4972,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
+      <c r="I16" s="151"/>
+      <c r="J16" s="152"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -4938,8 +4984,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="158"/>
+      <c r="I17" s="151"/>
+      <c r="J17" s="152"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -4950,8 +4996,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="158"/>
+      <c r="I18" s="151"/>
+      <c r="J18" s="152"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -4962,8 +5008,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="158"/>
+      <c r="I19" s="151"/>
+      <c r="J19" s="152"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -4974,8 +5020,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="158"/>
+      <c r="I20" s="151"/>
+      <c r="J20" s="152"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -4986,8 +5032,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="158"/>
+      <c r="I21" s="151"/>
+      <c r="J21" s="152"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -4998,8 +5044,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="158"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="152"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5010,8 +5056,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="158"/>
+      <c r="I23" s="151"/>
+      <c r="J23" s="152"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5022,8 +5068,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="152"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5034,8 +5080,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="158"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="152"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5046,8 +5092,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="158"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="152"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5058,8 +5104,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="158"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="152"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5070,8 +5116,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="158"/>
+      <c r="I28" s="151"/>
+      <c r="J28" s="152"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5082,8 +5128,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="I29" s="151"/>
+      <c r="J29" s="152"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5094,8 +5140,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="152"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5106,8 +5152,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="158"/>
+      <c r="I31" s="151"/>
+      <c r="J31" s="152"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5118,8 +5164,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="158"/>
+      <c r="I32" s="151"/>
+      <c r="J32" s="152"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5130,8 +5176,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="158"/>
+      <c r="I33" s="151"/>
+      <c r="J33" s="152"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5142,8 +5188,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="158"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5154,8 +5200,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="152"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5166,8 +5212,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="158"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="152"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5178,8 +5224,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="158"/>
+      <c r="I37" s="151"/>
+      <c r="J37" s="152"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5190,8 +5236,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="158"/>
+      <c r="I38" s="151"/>
+      <c r="J38" s="152"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5202,8 +5248,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="158"/>
+      <c r="I39" s="151"/>
+      <c r="J39" s="152"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5214,8 +5260,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="158"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="152"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5226,8 +5272,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="158"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="152"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5238,8 +5284,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="158"/>
+      <c r="I42" s="151"/>
+      <c r="J42" s="152"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5250,8 +5296,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="159"/>
-      <c r="J43" s="160"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5282,10 +5328,10 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5310,13 +5356,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5324,16 +5370,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="167" t="s">
+      <c r="H1" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="168"/>
-      <c r="J1" s="169" t="str">
+      <c r="I1" s="162"/>
+      <c r="J1" s="163" t="str">
         <f>'Update History'!F1</f>
         <v>CF0141</v>
       </c>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
+      <c r="K1" s="164"/>
+      <c r="L1" s="165"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5345,15 +5391,15 @@
         <v>7</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5361,16 +5407,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="H2" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="169" t="str">
+      <c r="I2" s="162"/>
+      <c r="J2" s="163" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục địa điểm</v>
       </c>
-      <c r="K2" s="170"/>
-      <c r="L2" s="171"/>
+      <c r="K2" s="164"/>
+      <c r="L2" s="165"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5382,18 +5428,18 @@
         <v>8</v>
       </c>
       <c r="P2" s="29">
-        <v>42381</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="126" t="s">
-        <v>237</v>
+      <c r="B4" s="125" t="s">
+        <v>230</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -5440,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33">
@@ -5472,11 +5518,9 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C6" s="33"/>
       <c r="D6" s="33">
         <v>2</v>
       </c>
@@ -5500,11 +5544,9 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C7" s="33"/>
       <c r="D7" s="33">
         <v>2.1</v>
       </c>
@@ -5529,16 +5571,14 @@
       <c r="O7" s="87"/>
       <c r="P7" s="87"/>
     </row>
-    <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C8" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C8" s="33"/>
       <c r="D8" s="33">
         <v>2.2000000000000002</v>
       </c>
@@ -5548,7 +5588,7 @@
       <c r="F8" s="87" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="122" t="s">
+      <c r="G8" s="121" t="s">
         <v>194</v>
       </c>
       <c r="H8" s="40" t="s">
@@ -5566,7 +5606,7 @@
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="87" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5574,11 +5614,9 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C9" s="33"/>
       <c r="D9" s="33">
         <v>2.2999999999999998</v>
       </c>
@@ -5588,7 +5626,7 @@
       <c r="F9" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="122" t="s">
+      <c r="G9" s="121" t="s">
         <v>195</v>
       </c>
       <c r="H9" s="40" t="s">
@@ -5612,11 +5650,9 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C10" s="33"/>
       <c r="D10" s="33">
         <v>2.4</v>
       </c>
@@ -5626,7 +5662,7 @@
       <c r="F10" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="G10" s="122" t="s">
+      <c r="G10" s="121" t="s">
         <v>196</v>
       </c>
       <c r="H10" s="40" t="s">
@@ -5650,11 +5686,9 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C11" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C11" s="33"/>
       <c r="D11" s="33">
         <v>2.5</v>
       </c>
@@ -5664,7 +5698,7 @@
       <c r="F11" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="G11" s="122" t="s">
+      <c r="G11" s="121" t="s">
         <v>197</v>
       </c>
       <c r="H11" s="40" t="s">
@@ -5688,11 +5722,9 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C12" s="33"/>
       <c r="D12" s="33">
         <v>2.6</v>
       </c>
@@ -5702,7 +5734,7 @@
       <c r="F12" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G12" s="122" t="s">
+      <c r="G12" s="121" t="s">
         <v>198</v>
       </c>
       <c r="H12" s="40" t="s">
@@ -5721,92 +5753,90 @@
       <c r="O12" s="69"/>
       <c r="P12" s="87"/>
     </row>
-    <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+    <row r="13" spans="1:16" s="190" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="186">
         <v>9</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="33">
-        <v>51</v>
-      </c>
-      <c r="D13" s="33">
+      <c r="B13" s="186" t="s">
+        <v>279</v>
+      </c>
+      <c r="C13" s="186"/>
+      <c r="D13" s="186">
         <v>2.7</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="187" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="87" t="s">
+      <c r="F13" s="188" t="s">
         <v>199</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="188" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="189" t="s">
         <v>208</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="189" t="s">
         <v>213</v>
       </c>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="40" t="s">
+      <c r="J13" s="197"/>
+      <c r="K13" s="197"/>
+      <c r="L13" s="189" t="s">
         <v>215</v>
       </c>
-      <c r="M13" s="89"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="87"/>
-    </row>
-    <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
+      <c r="P13" s="188" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="186">
         <v>10</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C14" s="33">
-        <v>51</v>
-      </c>
-      <c r="D14" s="33">
+      <c r="B14" s="186" t="s">
+        <v>279</v>
+      </c>
+      <c r="C14" s="186"/>
+      <c r="D14" s="186">
         <v>2.8</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="187" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="188" t="s">
         <v>200</v>
       </c>
-      <c r="G14" s="122" t="s">
+      <c r="G14" s="188" t="s">
         <v>200</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="189" t="s">
         <v>208</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="189" t="s">
         <v>214</v>
       </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="40" t="s">
+      <c r="J14" s="197"/>
+      <c r="K14" s="197"/>
+      <c r="L14" s="189" t="s">
         <v>215</v>
       </c>
-      <c r="M14" s="62"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="87"/>
+      <c r="M14" s="197"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188">
+        <v>0</v>
+      </c>
+      <c r="P14" s="188"/>
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C15" s="33"/>
       <c r="D15" s="33">
         <v>3</v>
       </c>
@@ -5834,11 +5864,9 @@
         <v>12</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C16" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C16" s="33"/>
       <c r="D16" s="33">
         <v>4</v>
       </c>
@@ -5866,11 +5894,9 @@
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C17" s="33"/>
       <c r="D17" s="33">
         <v>5</v>
       </c>
@@ -5893,50 +5919,50 @@
       <c r="O17" s="69"/>
       <c r="P17" s="87"/>
     </row>
-    <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+    <row r="18" spans="1:16" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="186">
         <v>14</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="33">
-        <v>51</v>
-      </c>
-      <c r="D18" s="33">
+      <c r="B18" s="186" t="s">
+        <v>279</v>
+      </c>
+      <c r="C18" s="186"/>
+      <c r="D18" s="186">
         <v>6</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="87"/>
+      <c r="E18" s="187" t="s">
+        <v>278</v>
+      </c>
+      <c r="F18" s="188" t="s">
+        <v>211</v>
+      </c>
+      <c r="G18" s="188"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
+      <c r="K18" s="189"/>
+      <c r="L18" s="189"/>
+      <c r="M18" s="189"/>
+      <c r="N18" s="189"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="188"/>
     </row>
     <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
         <v>15</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C19" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C19" s="33"/>
       <c r="D19" s="33">
         <v>6.1</v>
       </c>
       <c r="E19" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="F19" s="122" t="s">
-        <v>252</v>
+      <c r="F19" s="121" t="s">
+        <v>241</v>
       </c>
       <c r="G19" s="83"/>
       <c r="H19" s="40" t="s">
@@ -5956,19 +5982,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C20" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C20" s="33"/>
       <c r="D20" s="33">
         <v>6.2</v>
       </c>
       <c r="E20" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="F20" s="122" t="s">
-        <v>253</v>
+      <c r="F20" s="121" t="s">
+        <v>242</v>
       </c>
       <c r="G20" s="87"/>
       <c r="H20" s="40" t="s">
@@ -5988,19 +6012,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C21" s="33"/>
       <c r="D21" s="33">
         <v>6.3</v>
       </c>
       <c r="E21" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="122" t="s">
-        <v>254</v>
+      <c r="F21" s="121" t="s">
+        <v>243</v>
       </c>
       <c r="G21" s="87"/>
       <c r="H21" s="40" t="s">
@@ -6020,19 +6042,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C22" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C22" s="33"/>
       <c r="D22" s="33">
         <v>6.4</v>
       </c>
       <c r="E22" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F22" s="122" t="s">
-        <v>255</v>
+      <c r="F22" s="121" t="s">
+        <v>244</v>
       </c>
       <c r="G22" s="87"/>
       <c r="H22" s="40" t="s">
@@ -6052,19 +6072,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C23" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C23" s="33"/>
       <c r="D23" s="33">
         <v>6.5</v>
       </c>
       <c r="E23" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="122" t="s">
-        <v>256</v>
+      <c r="F23" s="121" t="s">
+        <v>245</v>
       </c>
       <c r="G23" s="87"/>
       <c r="H23" s="40" t="s">
@@ -6084,19 +6102,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C24" s="33"/>
       <c r="D24" s="33">
         <v>6.6</v>
       </c>
       <c r="E24" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="F24" s="122" t="s">
-        <v>257</v>
+      <c r="F24" s="121" t="s">
+        <v>246</v>
       </c>
       <c r="G24" s="83"/>
       <c r="H24" s="40" t="s">
@@ -6116,18 +6132,16 @@
         <v>21</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C25" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C25" s="33"/>
       <c r="D25" s="33">
         <v>6.7</v>
       </c>
       <c r="E25" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="F25" s="122" t="s">
+      <c r="F25" s="121" t="s">
         <v>202</v>
       </c>
       <c r="G25" s="82"/>
@@ -6148,18 +6162,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C26" s="33"/>
       <c r="D26" s="33">
         <v>6.8</v>
       </c>
       <c r="E26" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="121" t="s">
         <v>203</v>
       </c>
       <c r="G26" s="40"/>
@@ -6772,7 +6784,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6823,7 +6835,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="J1" s="66"/>
     </row>
@@ -6854,7 +6866,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="67">
-        <v>42381</v>
+        <v>42387</v>
       </c>
       <c r="J2" s="67"/>
     </row>
@@ -6863,7 +6875,7 @@
         <v>45</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>104</v>
@@ -6899,52 +6911,28 @@
       <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="87" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="114" t="s">
-        <v>234</v>
-      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="114"/>
       <c r="E5" s="40"/>
       <c r="F5" s="62"/>
-      <c r="G5" s="115" t="s">
-        <v>201</v>
-      </c>
-      <c r="H5" s="115" t="s">
-        <v>235</v>
-      </c>
-      <c r="I5" s="63" t="s">
-        <v>236</v>
-      </c>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="63"/>
       <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="128" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="128" t="s">
-        <v>234</v>
-      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
       <c r="E6" s="40"/>
       <c r="F6" s="62"/>
-      <c r="G6" s="128" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" s="128" t="s">
-        <v>235</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>263</v>
-      </c>
+      <c r="G6" s="127"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
@@ -7760,7 +7748,7 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H7" sqref="H7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7784,10 +7772,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
+      <c r="B1" s="128"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7812,13 +7800,15 @@
       <c r="I1" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="50"/>
+      <c r="J1" s="50" t="s">
+        <v>228</v>
+      </c>
       <c r="K1" s="52"/>
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="173"/>
-      <c r="B2" s="130"/>
+      <c r="A2" s="172"/>
+      <c r="B2" s="129"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7843,7 +7833,9 @@
       <c r="I2" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="50"/>
+      <c r="J2" s="50">
+        <v>42387</v>
+      </c>
       <c r="K2" s="52"/>
       <c r="L2" s="52"/>
     </row>
@@ -7851,8 +7843,8 @@
       <c r="A4" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="126" t="s">
-        <v>237</v>
+      <c r="B4" s="125" t="s">
+        <v>230</v>
       </c>
       <c r="C4" s="24" t="s">
         <v>130</v>
@@ -7863,159 +7855,159 @@
       <c r="E4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="146" t="s">
+      <c r="F4" s="142" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146" t="s">
+      <c r="G4" s="142"/>
+      <c r="H4" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="132" t="s">
         <v>135</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="177" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="178"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="176"/>
+      <c r="F5" s="173" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="174"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="168"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C6" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="136" t="s">
-        <v>249</v>
+      <c r="D6" s="133" t="s">
+        <v>238</v>
       </c>
       <c r="E6" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="181" t="s">
-        <v>251</v>
-      </c>
-      <c r="G6" s="182"/>
-      <c r="H6" s="174"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="176"/>
+      <c r="F6" s="175" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="176"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="168"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="136" t="s">
-        <v>249</v>
+        <v>244</v>
+      </c>
+      <c r="D7" s="133" t="s">
+        <v>238</v>
       </c>
       <c r="E7" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="181" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="182"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="176"/>
+      <c r="F7" s="175" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" s="176"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="168"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>244</v>
-      </c>
-      <c r="D8" s="135" t="s">
+        <v>245</v>
+      </c>
+      <c r="D8" s="132" t="s">
         <v>135</v>
       </c>
       <c r="E8" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="177" t="s">
-        <v>245</v>
-      </c>
-      <c r="G8" s="178"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
+      <c r="F8" s="173" t="s">
+        <v>234</v>
+      </c>
+      <c r="G8" s="174"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="168"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="D9" s="136" t="s">
-        <v>246</v>
+        <v>202</v>
+      </c>
+      <c r="D9" s="133" t="s">
+        <v>235</v>
       </c>
       <c r="E9" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="177" t="s">
-        <v>247</v>
-      </c>
-      <c r="G9" s="178"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="176"/>
+      <c r="F9" s="173" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" s="174"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="168"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="D10" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="132" t="s">
         <v>135</v>
       </c>
       <c r="E10" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="177" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="178"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="176"/>
+      <c r="F10" s="173" t="s">
+        <v>237</v>
+      </c>
+      <c r="G10" s="174"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="168"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8025,11 +8017,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="176"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="168"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8039,11 +8031,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="176"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="168"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8053,11 +8045,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="176"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="168"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8067,11 +8059,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="180"/>
-      <c r="H14" s="174"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="176"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="168"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8081,11 +8073,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="179"/>
-      <c r="G15" s="180"/>
-      <c r="H15" s="174"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="176"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="168"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8095,11 +8087,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="168"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8109,11 +8101,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="179"/>
-      <c r="G17" s="180"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="176"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="166"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="168"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8123,11 +8115,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="180"/>
-      <c r="H18" s="174"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="176"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="168"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8137,11 +8129,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="179"/>
-      <c r="G19" s="180"/>
-      <c r="H19" s="174"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="176"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="168"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8151,11 +8143,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="179"/>
-      <c r="G20" s="180"/>
-      <c r="H20" s="174"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="176"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="168"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8165,11 +8157,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="174"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="176"/>
+      <c r="F21" s="136"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="168"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8179,11 +8171,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="174"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="176"/>
+      <c r="F22" s="136"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="168"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8193,11 +8185,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="174"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="176"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="168"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8207,11 +8199,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="174"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="176"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="168"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8221,11 +8213,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="174"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="176"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="168"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8235,11 +8227,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="174"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="176"/>
+      <c r="F26" s="136"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="168"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8249,11 +8241,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="174"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="176"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="168"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8263,11 +8255,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="174"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="176"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="168"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8277,11 +8269,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="174"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="176"/>
+      <c r="F29" s="136"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="168"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8291,11 +8283,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="174"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="176"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="168"/>
     </row>
     <row r="31" spans="1:18" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
@@ -8305,11 +8297,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="174"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="176"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="168"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -8326,11 +8318,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="174"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="176"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="168"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -8347,11 +8339,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="174"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="176"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="168"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -8368,11 +8360,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="174"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="176"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="168"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -8389,11 +8381,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="174"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="176"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="168"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -8410,11 +8402,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="174"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="176"/>
+      <c r="F36" s="136"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="166"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="168"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -8431,11 +8423,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="174"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="176"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="166"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="168"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -8452,11 +8444,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="142"/>
-      <c r="H38" s="174"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="176"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="168"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -8473,11 +8465,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="142"/>
-      <c r="H39" s="174"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="176"/>
+      <c r="F39" s="136"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="166"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="168"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -8494,11 +8486,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="174"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="176"/>
+      <c r="F40" s="136"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="166"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="168"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -8515,11 +8507,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="174"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="176"/>
+      <c r="F41" s="136"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="166"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="168"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -8536,11 +8528,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="174"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="176"/>
+      <c r="F42" s="136"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="166"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="168"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -8557,11 +8549,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="174"/>
-      <c r="I43" s="175"/>
-      <c r="J43" s="176"/>
+      <c r="F43" s="136"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="166"/>
+      <c r="I43" s="167"/>
+      <c r="J43" s="168"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -8578,11 +8570,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="174"/>
-      <c r="I44" s="175"/>
-      <c r="J44" s="176"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="166"/>
+      <c r="I44" s="167"/>
+      <c r="J44" s="168"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -8599,11 +8591,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="174"/>
-      <c r="I45" s="175"/>
-      <c r="J45" s="176"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="166"/>
+      <c r="I45" s="167"/>
+      <c r="J45" s="168"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -8620,11 +8612,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="174"/>
-      <c r="I46" s="175"/>
-      <c r="J46" s="176"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="168"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -8641,11 +8633,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="140"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="174"/>
-      <c r="I47" s="175"/>
-      <c r="J47" s="176"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="166"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="168"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -8662,11 +8654,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="174"/>
-      <c r="I48" s="175"/>
-      <c r="J48" s="176"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="166"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="168"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -8683,11 +8675,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="140"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="174"/>
-      <c r="I49" s="175"/>
-      <c r="J49" s="176"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="166"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="168"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -8704,11 +8696,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="140"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="174"/>
-      <c r="I50" s="175"/>
-      <c r="J50" s="176"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="166"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="168"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -8725,11 +8717,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="174"/>
-      <c r="I51" s="175"/>
-      <c r="J51" s="176"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="166"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="168"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -8746,11 +8738,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="140"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="174"/>
-      <c r="I52" s="175"/>
-      <c r="J52" s="176"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="166"/>
+      <c r="I52" s="167"/>
+      <c r="J52" s="168"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -8767,11 +8759,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="140"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="174"/>
-      <c r="I53" s="175"/>
-      <c r="J53" s="176"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="166"/>
+      <c r="I53" s="167"/>
+      <c r="J53" s="168"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -8788,11 +8780,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="174"/>
-      <c r="I54" s="175"/>
-      <c r="J54" s="176"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="138"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="168"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -8809,11 +8801,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="174"/>
-      <c r="I55" s="175"/>
-      <c r="J55" s="176"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="166"/>
+      <c r="I55" s="167"/>
+      <c r="J55" s="168"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -8825,94 +8817,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="105">
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -8930,6 +8834,94 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E55">
@@ -8952,7 +8944,7 @@
   <dimension ref="A1:U1048467"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:N5"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8980,24 +8972,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="186" t="str">
+      <c r="J1" s="180" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="186"/>
+      <c r="K1" s="180"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9016,7 +9008,7 @@
         <v>7</v>
       </c>
       <c r="Q1" s="50" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="R1" s="50"/>
       <c r="S1" s="35"/>
@@ -9024,22 +9016,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="186" t="str">
+      <c r="J2" s="180" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="186"/>
+      <c r="K2" s="180"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9058,7 +9050,7 @@
         <v>8</v>
       </c>
       <c r="Q2" s="50">
-        <v>42381</v>
+        <v>42387</v>
       </c>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
@@ -9069,11 +9061,11 @@
       <c r="A4" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="131" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="138" t="s">
-        <v>272</v>
+      <c r="B4" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="C4" s="135" t="s">
+        <v>259</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>98</v>
@@ -9096,12 +9088,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="152" t="s">
+      <c r="K4" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="153"/>
+      <c r="L4" s="148"/>
+      <c r="M4" s="148"/>
+      <c r="N4" s="147"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9123,19 +9115,17 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C5" s="33">
-        <v>51</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="C5" s="33"/>
       <c r="D5" s="40" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="G5" s="87" t="s">
         <v>216</v>
@@ -9146,132 +9136,128 @@
       <c r="I5" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="123" t="s">
+      <c r="J5" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="K5" s="143" t="s">
-        <v>292</v>
-      </c>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="127" t="s">
+      <c r="K5" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="126" t="s">
         <v>135</v>
       </c>
-      <c r="P5" s="127" t="s">
-        <v>258</v>
+      <c r="P5" s="126" t="s">
+        <v>247</v>
       </c>
       <c r="Q5" s="76" t="s">
         <v>106</v>
       </c>
       <c r="R5" s="75" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="S5" s="87" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
     </row>
-    <row r="6" spans="1:21" s="34" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+    <row r="6" spans="1:21" s="190" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="186">
         <v>2</v>
       </c>
-      <c r="B6" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="33">
-        <v>51</v>
-      </c>
-      <c r="D6" s="40"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="87" t="s">
+      <c r="B6" s="186" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="186"/>
+      <c r="D6" s="189"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="188" t="s">
         <v>217</v>
       </c>
-      <c r="H6" s="63" t="s">
+      <c r="H6" s="200" t="s">
         <v>219</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="123" t="s">
+      <c r="J6" s="201" t="s">
         <v>221</v>
       </c>
-      <c r="K6" s="143" t="s">
-        <v>261</v>
-      </c>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="121" t="s">
-        <v>228</v>
-      </c>
-      <c r="P6" s="127" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q6" s="76" t="s">
+      <c r="K6" s="202" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" s="203"/>
+      <c r="M6" s="203"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="205" t="s">
+        <v>280</v>
+      </c>
+      <c r="P6" s="205" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q6" s="206" t="s">
         <v>201</v>
       </c>
-      <c r="R6" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="S6" s="87" t="s">
-        <v>271</v>
-      </c>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-    </row>
-    <row r="7" spans="1:21" s="34" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="R6" s="198" t="s">
+        <v>229</v>
+      </c>
+      <c r="S6" s="188" t="s">
+        <v>258</v>
+      </c>
+      <c r="T6" s="207"/>
+      <c r="U6" s="207"/>
+    </row>
+    <row r="7" spans="1:21" s="190" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="186">
         <v>3</v>
       </c>
-      <c r="B7" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" s="33">
-        <v>51</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>277</v>
-      </c>
-      <c r="E7" s="33"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="87" t="s">
+      <c r="B7" s="186" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="186"/>
+      <c r="D7" s="189" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="186"/>
+      <c r="F7" s="199"/>
+      <c r="G7" s="188" t="s">
         <v>218</v>
       </c>
-      <c r="H7" s="63" t="s">
+      <c r="H7" s="200" t="s">
         <v>201</v>
       </c>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="200" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="123" t="s">
+      <c r="J7" s="201" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="143" t="s">
-        <v>264</v>
-      </c>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="121" t="s">
-        <v>223</v>
-      </c>
-      <c r="P7" s="121" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q7" s="76" t="s">
+      <c r="K7" s="202" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="203"/>
+      <c r="M7" s="203"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="205" t="s">
+        <v>282</v>
+      </c>
+      <c r="P7" s="205" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q7" s="206" t="s">
         <v>201</v>
       </c>
-      <c r="R7" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="S7" s="81" t="s">
-        <v>287</v>
-      </c>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
+      <c r="R7" s="198" t="s">
+        <v>229</v>
+      </c>
+      <c r="S7" s="209" t="s">
+        <v>274</v>
+      </c>
+      <c r="T7" s="207"/>
+      <c r="U7" s="207"/>
     </row>
     <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -9286,10 +9272,10 @@
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
       <c r="J8" s="81"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="185"/>
+      <c r="K8" s="177"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="179"/>
       <c r="O8" s="88"/>
       <c r="P8" s="88"/>
       <c r="Q8" s="76"/>
@@ -9311,10 +9297,10 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="81"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="184"/>
-      <c r="N9" s="185"/>
+      <c r="K9" s="177"/>
+      <c r="L9" s="178"/>
+      <c r="M9" s="178"/>
+      <c r="N9" s="179"/>
       <c r="O9" s="88"/>
       <c r="P9" s="88"/>
       <c r="Q9" s="76"/>
@@ -9336,10 +9322,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="81"/>
-      <c r="K10" s="183"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="184"/>
-      <c r="N10" s="185"/>
+      <c r="K10" s="177"/>
+      <c r="L10" s="178"/>
+      <c r="M10" s="178"/>
+      <c r="N10" s="179"/>
       <c r="O10" s="88"/>
       <c r="P10" s="88"/>
       <c r="Q10" s="76"/>
@@ -9361,10 +9347,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="183"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="184"/>
-      <c r="N11" s="185"/>
+      <c r="K11" s="177"/>
+      <c r="L11" s="178"/>
+      <c r="M11" s="178"/>
+      <c r="N11" s="179"/>
       <c r="O11" s="88"/>
       <c r="P11" s="88"/>
       <c r="Q11" s="76"/>
@@ -9386,10 +9372,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="184"/>
-      <c r="N12" s="185"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="178"/>
+      <c r="M12" s="178"/>
+      <c r="N12" s="179"/>
       <c r="O12" s="84"/>
       <c r="P12" s="84"/>
       <c r="Q12" s="76"/>
@@ -9411,10 +9397,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="183"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="184"/>
-      <c r="N13" s="185"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="178"/>
+      <c r="N13" s="179"/>
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="76"/>
@@ -9436,10 +9422,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="81"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="184"/>
-      <c r="N14" s="185"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="178"/>
+      <c r="M14" s="178"/>
+      <c r="N14" s="179"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="76"/>
@@ -9461,10 +9447,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="81"/>
-      <c r="K15" s="183"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="184"/>
-      <c r="N15" s="185"/>
+      <c r="K15" s="177"/>
+      <c r="L15" s="178"/>
+      <c r="M15" s="178"/>
+      <c r="N15" s="179"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="76"/>
@@ -9486,10 +9472,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="183"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="184"/>
-      <c r="N16" s="185"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="178"/>
+      <c r="M16" s="178"/>
+      <c r="N16" s="179"/>
       <c r="O16" s="72"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
@@ -9511,10 +9497,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="183"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="184"/>
-      <c r="N17" s="185"/>
+      <c r="K17" s="177"/>
+      <c r="L17" s="178"/>
+      <c r="M17" s="178"/>
+      <c r="N17" s="179"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -9536,10 +9522,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="183"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="184"/>
-      <c r="N18" s="185"/>
+      <c r="K18" s="177"/>
+      <c r="L18" s="178"/>
+      <c r="M18" s="178"/>
+      <c r="N18" s="179"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -9561,10 +9547,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="183"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="184"/>
-      <c r="N19" s="185"/>
+      <c r="K19" s="177"/>
+      <c r="L19" s="178"/>
+      <c r="M19" s="178"/>
+      <c r="N19" s="179"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -9586,10 +9572,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="183"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="184"/>
-      <c r="N20" s="185"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="178"/>
+      <c r="M20" s="178"/>
+      <c r="N20" s="179"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -9611,10 +9597,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="183"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="184"/>
-      <c r="N21" s="185"/>
+      <c r="K21" s="177"/>
+      <c r="L21" s="178"/>
+      <c r="M21" s="178"/>
+      <c r="N21" s="179"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -9636,10 +9622,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="184"/>
-      <c r="N22" s="185"/>
+      <c r="K22" s="177"/>
+      <c r="L22" s="178"/>
+      <c r="M22" s="178"/>
+      <c r="N22" s="179"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -9661,10 +9647,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="183"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="184"/>
-      <c r="N23" s="185"/>
+      <c r="K23" s="177"/>
+      <c r="L23" s="178"/>
+      <c r="M23" s="178"/>
+      <c r="N23" s="179"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -9686,10 +9672,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="183"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="184"/>
-      <c r="N24" s="185"/>
+      <c r="K24" s="177"/>
+      <c r="L24" s="178"/>
+      <c r="M24" s="178"/>
+      <c r="N24" s="179"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -9711,10 +9697,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="183"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="184"/>
-      <c r="N25" s="185"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="178"/>
+      <c r="M25" s="178"/>
+      <c r="N25" s="179"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -9736,10 +9722,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="183"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="184"/>
-      <c r="N26" s="185"/>
+      <c r="K26" s="177"/>
+      <c r="L26" s="178"/>
+      <c r="M26" s="178"/>
+      <c r="N26" s="179"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -9761,10 +9747,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="183"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="184"/>
-      <c r="N27" s="185"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="178"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="179"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -9786,10 +9772,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="184"/>
-      <c r="N28" s="185"/>
+      <c r="K28" s="177"/>
+      <c r="L28" s="178"/>
+      <c r="M28" s="178"/>
+      <c r="N28" s="179"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -9811,10 +9797,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="183"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="184"/>
-      <c r="N29" s="185"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="178"/>
+      <c r="M29" s="178"/>
+      <c r="N29" s="179"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -9836,10 +9822,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="183"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="184"/>
-      <c r="N30" s="185"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="178"/>
+      <c r="M30" s="178"/>
+      <c r="N30" s="179"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -9861,10 +9847,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="183"/>
-      <c r="L31" s="184"/>
-      <c r="M31" s="184"/>
-      <c r="N31" s="185"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="178"/>
+      <c r="M31" s="178"/>
+      <c r="N31" s="179"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -9886,10 +9872,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="183"/>
-      <c r="L32" s="184"/>
-      <c r="M32" s="184"/>
-      <c r="N32" s="185"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="178"/>
+      <c r="M32" s="178"/>
+      <c r="N32" s="179"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -9911,10 +9897,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="183"/>
-      <c r="L33" s="184"/>
-      <c r="M33" s="184"/>
-      <c r="N33" s="185"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="178"/>
+      <c r="M33" s="178"/>
+      <c r="N33" s="179"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -9936,10 +9922,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="81"/>
-      <c r="K34" s="183"/>
-      <c r="L34" s="184"/>
-      <c r="M34" s="184"/>
-      <c r="N34" s="185"/>
+      <c r="K34" s="177"/>
+      <c r="L34" s="178"/>
+      <c r="M34" s="178"/>
+      <c r="N34" s="179"/>
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
       <c r="Q34" s="76"/>
@@ -9961,10 +9947,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="183"/>
-      <c r="L35" s="184"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="185"/>
+      <c r="K35" s="177"/>
+      <c r="L35" s="178"/>
+      <c r="M35" s="178"/>
+      <c r="N35" s="179"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="76"/>
@@ -9986,10 +9972,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="183"/>
-      <c r="L36" s="184"/>
-      <c r="M36" s="184"/>
-      <c r="N36" s="185"/>
+      <c r="K36" s="177"/>
+      <c r="L36" s="178"/>
+      <c r="M36" s="178"/>
+      <c r="N36" s="179"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -10011,10 +9997,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="183"/>
-      <c r="L37" s="184"/>
-      <c r="M37" s="184"/>
-      <c r="N37" s="185"/>
+      <c r="K37" s="177"/>
+      <c r="L37" s="178"/>
+      <c r="M37" s="178"/>
+      <c r="N37" s="179"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -10036,10 +10022,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="183"/>
-      <c r="L38" s="184"/>
-      <c r="M38" s="184"/>
-      <c r="N38" s="185"/>
+      <c r="K38" s="177"/>
+      <c r="L38" s="178"/>
+      <c r="M38" s="178"/>
+      <c r="N38" s="179"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10061,10 +10047,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="183"/>
-      <c r="L39" s="184"/>
-      <c r="M39" s="184"/>
-      <c r="N39" s="185"/>
+      <c r="K39" s="177"/>
+      <c r="L39" s="178"/>
+      <c r="M39" s="178"/>
+      <c r="N39" s="179"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10086,10 +10072,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="183"/>
-      <c r="L40" s="184"/>
-      <c r="M40" s="184"/>
-      <c r="N40" s="185"/>
+      <c r="K40" s="177"/>
+      <c r="L40" s="178"/>
+      <c r="M40" s="178"/>
+      <c r="N40" s="179"/>
       <c r="O40" s="74"/>
       <c r="P40" s="74"/>
       <c r="Q40" s="76"/>
@@ -10111,10 +10097,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="183"/>
-      <c r="L41" s="184"/>
-      <c r="M41" s="184"/>
-      <c r="N41" s="185"/>
+      <c r="K41" s="177"/>
+      <c r="L41" s="178"/>
+      <c r="M41" s="178"/>
+      <c r="N41" s="179"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10136,10 +10122,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="183"/>
-      <c r="L42" s="184"/>
-      <c r="M42" s="184"/>
-      <c r="N42" s="185"/>
+      <c r="K42" s="177"/>
+      <c r="L42" s="178"/>
+      <c r="M42" s="178"/>
+      <c r="N42" s="179"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10161,10 +10147,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="183"/>
-      <c r="L43" s="184"/>
-      <c r="M43" s="184"/>
-      <c r="N43" s="185"/>
+      <c r="K43" s="177"/>
+      <c r="L43" s="178"/>
+      <c r="M43" s="178"/>
+      <c r="N43" s="179"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10186,10 +10172,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="183"/>
-      <c r="L44" s="184"/>
-      <c r="M44" s="184"/>
-      <c r="N44" s="185"/>
+      <c r="K44" s="177"/>
+      <c r="L44" s="178"/>
+      <c r="M44" s="178"/>
+      <c r="N44" s="179"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10211,10 +10197,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="183"/>
-      <c r="L45" s="184"/>
-      <c r="M45" s="184"/>
-      <c r="N45" s="185"/>
+      <c r="K45" s="177"/>
+      <c r="L45" s="178"/>
+      <c r="M45" s="178"/>
+      <c r="N45" s="179"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10236,10 +10222,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="183"/>
-      <c r="L46" s="184"/>
-      <c r="M46" s="184"/>
-      <c r="N46" s="185"/>
+      <c r="K46" s="177"/>
+      <c r="L46" s="178"/>
+      <c r="M46" s="178"/>
+      <c r="N46" s="179"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10261,10 +10247,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="183"/>
-      <c r="L47" s="184"/>
-      <c r="M47" s="184"/>
-      <c r="N47" s="185"/>
+      <c r="K47" s="177"/>
+      <c r="L47" s="178"/>
+      <c r="M47" s="178"/>
+      <c r="N47" s="179"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -10286,10 +10272,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="183"/>
-      <c r="L48" s="184"/>
-      <c r="M48" s="184"/>
-      <c r="N48" s="185"/>
+      <c r="K48" s="177"/>
+      <c r="L48" s="178"/>
+      <c r="M48" s="178"/>
+      <c r="N48" s="179"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -10311,10 +10297,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="183"/>
-      <c r="L49" s="184"/>
-      <c r="M49" s="184"/>
-      <c r="N49" s="185"/>
+      <c r="K49" s="177"/>
+      <c r="L49" s="178"/>
+      <c r="M49" s="178"/>
+      <c r="N49" s="179"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -10336,10 +10322,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="183"/>
-      <c r="L50" s="184"/>
-      <c r="M50" s="184"/>
-      <c r="N50" s="185"/>
+      <c r="K50" s="177"/>
+      <c r="L50" s="178"/>
+      <c r="M50" s="178"/>
+      <c r="N50" s="179"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -10361,10 +10347,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="183"/>
-      <c r="L51" s="184"/>
-      <c r="M51" s="184"/>
-      <c r="N51" s="185"/>
+      <c r="K51" s="177"/>
+      <c r="L51" s="178"/>
+      <c r="M51" s="178"/>
+      <c r="N51" s="179"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -10386,10 +10372,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="183"/>
-      <c r="L52" s="184"/>
-      <c r="M52" s="184"/>
-      <c r="N52" s="185"/>
+      <c r="K52" s="177"/>
+      <c r="L52" s="178"/>
+      <c r="M52" s="178"/>
+      <c r="N52" s="179"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -10411,10 +10397,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="183"/>
-      <c r="L53" s="184"/>
-      <c r="M53" s="184"/>
-      <c r="N53" s="185"/>
+      <c r="K53" s="177"/>
+      <c r="L53" s="178"/>
+      <c r="M53" s="178"/>
+      <c r="N53" s="179"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -10436,10 +10422,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="183"/>
-      <c r="L54" s="184"/>
-      <c r="M54" s="184"/>
-      <c r="N54" s="185"/>
+      <c r="K54" s="177"/>
+      <c r="L54" s="178"/>
+      <c r="M54" s="178"/>
+      <c r="N54" s="179"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -10461,10 +10447,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="183"/>
-      <c r="L55" s="184"/>
-      <c r="M55" s="184"/>
-      <c r="N55" s="185"/>
+      <c r="K55" s="177"/>
+      <c r="L55" s="178"/>
+      <c r="M55" s="178"/>
+      <c r="N55" s="179"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -10486,10 +10472,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="183"/>
-      <c r="L56" s="184"/>
-      <c r="M56" s="184"/>
-      <c r="N56" s="185"/>
+      <c r="K56" s="177"/>
+      <c r="L56" s="178"/>
+      <c r="M56" s="178"/>
+      <c r="N56" s="179"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -10511,10 +10497,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="183"/>
-      <c r="L57" s="184"/>
-      <c r="M57" s="184"/>
-      <c r="N57" s="185"/>
+      <c r="K57" s="177"/>
+      <c r="L57" s="178"/>
+      <c r="M57" s="178"/>
+      <c r="N57" s="179"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -10536,10 +10522,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="183"/>
-      <c r="L58" s="184"/>
-      <c r="M58" s="184"/>
-      <c r="N58" s="185"/>
+      <c r="K58" s="177"/>
+      <c r="L58" s="178"/>
+      <c r="M58" s="178"/>
+      <c r="N58" s="179"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -10561,10 +10547,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="183"/>
-      <c r="L59" s="184"/>
-      <c r="M59" s="184"/>
-      <c r="N59" s="185"/>
+      <c r="K59" s="177"/>
+      <c r="L59" s="178"/>
+      <c r="M59" s="178"/>
+      <c r="N59" s="179"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -10586,10 +10572,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="183"/>
-      <c r="L60" s="184"/>
-      <c r="M60" s="184"/>
-      <c r="N60" s="185"/>
+      <c r="K60" s="177"/>
+      <c r="L60" s="178"/>
+      <c r="M60" s="178"/>
+      <c r="N60" s="179"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -10611,10 +10597,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="183"/>
-      <c r="L61" s="184"/>
-      <c r="M61" s="184"/>
-      <c r="N61" s="185"/>
+      <c r="K61" s="177"/>
+      <c r="L61" s="178"/>
+      <c r="M61" s="178"/>
+      <c r="N61" s="179"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -10636,10 +10622,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="183"/>
-      <c r="L62" s="184"/>
-      <c r="M62" s="184"/>
-      <c r="N62" s="185"/>
+      <c r="K62" s="177"/>
+      <c r="L62" s="178"/>
+      <c r="M62" s="178"/>
+      <c r="N62" s="179"/>
       <c r="O62" s="83"/>
       <c r="P62" s="83"/>
       <c r="Q62" s="76"/>
@@ -10661,10 +10647,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="183"/>
-      <c r="L63" s="184"/>
-      <c r="M63" s="184"/>
-      <c r="N63" s="185"/>
+      <c r="K63" s="177"/>
+      <c r="L63" s="178"/>
+      <c r="M63" s="178"/>
+      <c r="N63" s="179"/>
       <c r="O63" s="83"/>
       <c r="P63" s="83"/>
       <c r="Q63" s="76"/>
@@ -10686,10 +10672,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="183"/>
-      <c r="L64" s="184"/>
-      <c r="M64" s="184"/>
-      <c r="N64" s="185"/>
+      <c r="K64" s="177"/>
+      <c r="L64" s="178"/>
+      <c r="M64" s="178"/>
+      <c r="N64" s="179"/>
       <c r="O64" s="83"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="76"/>
@@ -10709,10 +10695,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="183"/>
-      <c r="L65" s="184"/>
-      <c r="M65" s="184"/>
-      <c r="N65" s="185"/>
+      <c r="K65" s="177"/>
+      <c r="L65" s="178"/>
+      <c r="M65" s="178"/>
+      <c r="N65" s="179"/>
       <c r="O65" s="83"/>
       <c r="P65" s="83"/>
       <c r="Q65" s="76"/>
@@ -10732,10 +10718,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="183"/>
-      <c r="L66" s="184"/>
-      <c r="M66" s="184"/>
-      <c r="N66" s="185"/>
+      <c r="K66" s="177"/>
+      <c r="L66" s="178"/>
+      <c r="M66" s="178"/>
+      <c r="N66" s="179"/>
       <c r="O66" s="83"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="76"/>
@@ -10755,10 +10741,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="183"/>
-      <c r="L67" s="184"/>
-      <c r="M67" s="184"/>
-      <c r="N67" s="185"/>
+      <c r="K67" s="177"/>
+      <c r="L67" s="178"/>
+      <c r="M67" s="178"/>
+      <c r="N67" s="179"/>
       <c r="O67" s="83"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="76"/>
@@ -10778,10 +10764,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="183"/>
-      <c r="L68" s="184"/>
-      <c r="M68" s="184"/>
-      <c r="N68" s="185"/>
+      <c r="K68" s="177"/>
+      <c r="L68" s="178"/>
+      <c r="M68" s="178"/>
+      <c r="N68" s="179"/>
       <c r="O68" s="83"/>
       <c r="P68" s="83"/>
       <c r="Q68" s="76"/>
@@ -10801,10 +10787,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="183"/>
-      <c r="L69" s="184"/>
-      <c r="M69" s="184"/>
-      <c r="N69" s="185"/>
+      <c r="K69" s="177"/>
+      <c r="L69" s="178"/>
+      <c r="M69" s="178"/>
+      <c r="N69" s="179"/>
       <c r="O69" s="83"/>
       <c r="P69" s="83"/>
       <c r="Q69" s="76"/>
@@ -10824,10 +10810,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="183"/>
-      <c r="L70" s="184"/>
-      <c r="M70" s="184"/>
-      <c r="N70" s="185"/>
+      <c r="K70" s="177"/>
+      <c r="L70" s="178"/>
+      <c r="M70" s="178"/>
+      <c r="N70" s="179"/>
       <c r="O70" s="83"/>
       <c r="P70" s="83"/>
       <c r="Q70" s="76"/>
@@ -10847,10 +10833,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="183"/>
-      <c r="L71" s="184"/>
-      <c r="M71" s="184"/>
-      <c r="N71" s="185"/>
+      <c r="K71" s="177"/>
+      <c r="L71" s="178"/>
+      <c r="M71" s="178"/>
+      <c r="N71" s="179"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="76"/>
@@ -10870,10 +10856,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="183"/>
-      <c r="L72" s="184"/>
-      <c r="M72" s="184"/>
-      <c r="N72" s="185"/>
+      <c r="K72" s="177"/>
+      <c r="L72" s="178"/>
+      <c r="M72" s="178"/>
+      <c r="N72" s="179"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="76"/>
@@ -10893,10 +10879,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="183"/>
-      <c r="L73" s="184"/>
-      <c r="M73" s="184"/>
-      <c r="N73" s="185"/>
+      <c r="K73" s="177"/>
+      <c r="L73" s="178"/>
+      <c r="M73" s="178"/>
+      <c r="N73" s="179"/>
       <c r="O73" s="83"/>
       <c r="P73" s="83"/>
       <c r="Q73" s="76"/>
@@ -10916,10 +10902,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="183"/>
-      <c r="L74" s="184"/>
-      <c r="M74" s="184"/>
-      <c r="N74" s="185"/>
+      <c r="K74" s="177"/>
+      <c r="L74" s="178"/>
+      <c r="M74" s="178"/>
+      <c r="N74" s="179"/>
       <c r="O74" s="83"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="76"/>
@@ -10939,10 +10925,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="183"/>
-      <c r="L75" s="184"/>
-      <c r="M75" s="184"/>
-      <c r="N75" s="185"/>
+      <c r="K75" s="177"/>
+      <c r="L75" s="178"/>
+      <c r="M75" s="178"/>
+      <c r="N75" s="179"/>
       <c r="O75" s="83"/>
       <c r="P75" s="83"/>
       <c r="Q75" s="76"/>
@@ -10962,10 +10948,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="183"/>
-      <c r="L76" s="184"/>
-      <c r="M76" s="184"/>
-      <c r="N76" s="185"/>
+      <c r="K76" s="177"/>
+      <c r="L76" s="178"/>
+      <c r="M76" s="178"/>
+      <c r="N76" s="179"/>
       <c r="O76" s="83"/>
       <c r="P76" s="83"/>
       <c r="Q76" s="76"/>
@@ -10985,10 +10971,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="183"/>
-      <c r="L77" s="184"/>
-      <c r="M77" s="184"/>
-      <c r="N77" s="185"/>
+      <c r="K77" s="177"/>
+      <c r="L77" s="178"/>
+      <c r="M77" s="178"/>
+      <c r="N77" s="179"/>
       <c r="O77" s="83"/>
       <c r="P77" s="83"/>
       <c r="Q77" s="76"/>
@@ -11008,10 +10994,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="183"/>
-      <c r="L78" s="184"/>
-      <c r="M78" s="184"/>
-      <c r="N78" s="185"/>
+      <c r="K78" s="177"/>
+      <c r="L78" s="178"/>
+      <c r="M78" s="178"/>
+      <c r="N78" s="179"/>
       <c r="O78" s="83"/>
       <c r="P78" s="83"/>
       <c r="Q78" s="76"/>
@@ -11031,10 +11017,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="183"/>
-      <c r="L79" s="184"/>
-      <c r="M79" s="184"/>
-      <c r="N79" s="185"/>
+      <c r="K79" s="177"/>
+      <c r="L79" s="178"/>
+      <c r="M79" s="178"/>
+      <c r="N79" s="179"/>
       <c r="O79" s="83"/>
       <c r="P79" s="83"/>
       <c r="Q79" s="76"/>
@@ -11054,10 +11040,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="183"/>
-      <c r="L80" s="184"/>
-      <c r="M80" s="184"/>
-      <c r="N80" s="185"/>
+      <c r="K80" s="177"/>
+      <c r="L80" s="178"/>
+      <c r="M80" s="178"/>
+      <c r="N80" s="179"/>
       <c r="O80" s="83"/>
       <c r="P80" s="83"/>
       <c r="Q80" s="76"/>
@@ -11077,10 +11063,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="183"/>
-      <c r="L81" s="184"/>
-      <c r="M81" s="184"/>
-      <c r="N81" s="185"/>
+      <c r="K81" s="177"/>
+      <c r="L81" s="178"/>
+      <c r="M81" s="178"/>
+      <c r="N81" s="179"/>
       <c r="O81" s="83"/>
       <c r="P81" s="83"/>
       <c r="Q81" s="76"/>
@@ -11100,10 +11086,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="183"/>
-      <c r="L82" s="184"/>
-      <c r="M82" s="184"/>
-      <c r="N82" s="185"/>
+      <c r="K82" s="177"/>
+      <c r="L82" s="178"/>
+      <c r="M82" s="178"/>
+      <c r="N82" s="179"/>
       <c r="O82" s="83"/>
       <c r="P82" s="83"/>
       <c r="Q82" s="76"/>
@@ -11123,10 +11109,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="183"/>
-      <c r="L83" s="184"/>
-      <c r="M83" s="184"/>
-      <c r="N83" s="185"/>
+      <c r="K83" s="177"/>
+      <c r="L83" s="178"/>
+      <c r="M83" s="178"/>
+      <c r="N83" s="179"/>
       <c r="O83" s="83"/>
       <c r="P83" s="83"/>
       <c r="Q83" s="76"/>
@@ -11146,10 +11132,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="183"/>
-      <c r="L84" s="184"/>
-      <c r="M84" s="184"/>
-      <c r="N84" s="185"/>
+      <c r="K84" s="177"/>
+      <c r="L84" s="178"/>
+      <c r="M84" s="178"/>
+      <c r="N84" s="179"/>
       <c r="O84" s="83"/>
       <c r="P84" s="83"/>
       <c r="Q84" s="76"/>
@@ -11169,10 +11155,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="183"/>
-      <c r="L85" s="184"/>
-      <c r="M85" s="184"/>
-      <c r="N85" s="185"/>
+      <c r="K85" s="177"/>
+      <c r="L85" s="178"/>
+      <c r="M85" s="178"/>
+      <c r="N85" s="179"/>
       <c r="O85" s="83"/>
       <c r="P85" s="83"/>
       <c r="Q85" s="76"/>
@@ -11192,10 +11178,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="183"/>
-      <c r="L86" s="184"/>
-      <c r="M86" s="184"/>
-      <c r="N86" s="185"/>
+      <c r="K86" s="177"/>
+      <c r="L86" s="178"/>
+      <c r="M86" s="178"/>
+      <c r="N86" s="179"/>
       <c r="O86" s="83"/>
       <c r="P86" s="83"/>
       <c r="Q86" s="76"/>
@@ -11215,10 +11201,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="183"/>
-      <c r="L87" s="184"/>
-      <c r="M87" s="184"/>
-      <c r="N87" s="185"/>
+      <c r="K87" s="177"/>
+      <c r="L87" s="178"/>
+      <c r="M87" s="178"/>
+      <c r="N87" s="179"/>
       <c r="O87" s="83"/>
       <c r="P87" s="83"/>
       <c r="Q87" s="76"/>
@@ -11238,10 +11224,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="183"/>
-      <c r="L88" s="184"/>
-      <c r="M88" s="184"/>
-      <c r="N88" s="185"/>
+      <c r="K88" s="177"/>
+      <c r="L88" s="178"/>
+      <c r="M88" s="178"/>
+      <c r="N88" s="179"/>
       <c r="O88" s="83"/>
       <c r="P88" s="83"/>
       <c r="Q88" s="76"/>
@@ -11261,10 +11247,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="183"/>
-      <c r="L89" s="184"/>
-      <c r="M89" s="184"/>
-      <c r="N89" s="185"/>
+      <c r="K89" s="177"/>
+      <c r="L89" s="178"/>
+      <c r="M89" s="178"/>
+      <c r="N89" s="179"/>
       <c r="O89" s="83"/>
       <c r="P89" s="83"/>
       <c r="Q89" s="76"/>
@@ -11284,10 +11270,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="183"/>
-      <c r="L90" s="184"/>
-      <c r="M90" s="184"/>
-      <c r="N90" s="185"/>
+      <c r="K90" s="177"/>
+      <c r="L90" s="178"/>
+      <c r="M90" s="178"/>
+      <c r="N90" s="179"/>
       <c r="O90" s="83"/>
       <c r="P90" s="83"/>
       <c r="Q90" s="76"/>
@@ -11307,10 +11293,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="183"/>
-      <c r="L91" s="184"/>
-      <c r="M91" s="184"/>
-      <c r="N91" s="185"/>
+      <c r="K91" s="177"/>
+      <c r="L91" s="178"/>
+      <c r="M91" s="178"/>
+      <c r="N91" s="179"/>
       <c r="O91" s="83"/>
       <c r="P91" s="83"/>
       <c r="Q91" s="76"/>
@@ -11330,10 +11316,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="183"/>
-      <c r="L92" s="184"/>
-      <c r="M92" s="184"/>
-      <c r="N92" s="185"/>
+      <c r="K92" s="177"/>
+      <c r="L92" s="178"/>
+      <c r="M92" s="178"/>
+      <c r="N92" s="179"/>
       <c r="O92" s="83"/>
       <c r="P92" s="83"/>
       <c r="Q92" s="76"/>
@@ -11353,10 +11339,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="183"/>
-      <c r="L93" s="184"/>
-      <c r="M93" s="184"/>
-      <c r="N93" s="185"/>
+      <c r="K93" s="177"/>
+      <c r="L93" s="178"/>
+      <c r="M93" s="178"/>
+      <c r="N93" s="179"/>
       <c r="O93" s="83"/>
       <c r="P93" s="83"/>
       <c r="Q93" s="76"/>
@@ -11376,10 +11362,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="183"/>
-      <c r="L94" s="184"/>
-      <c r="M94" s="184"/>
-      <c r="N94" s="185"/>
+      <c r="K94" s="177"/>
+      <c r="L94" s="178"/>
+      <c r="M94" s="178"/>
+      <c r="N94" s="179"/>
       <c r="O94" s="83"/>
       <c r="P94" s="83"/>
       <c r="Q94" s="76"/>
@@ -11392,6 +11378,84 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="K15:N15"/>
@@ -11408,84 +11472,6 @@
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -11514,8 +11500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11531,10 +11517,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="142"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11560,12 +11546,12 @@
         <v>7</v>
       </c>
       <c r="J1" s="37" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -11623,7 +11609,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -11714,8 +11700,8 @@
       <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="137" t="s">
-        <v>274</v>
+      <c r="C13" s="134" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11768,12 +11754,12 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="43" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
-      <c r="F18" s="124"/>
+      <c r="F18" s="123"/>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
@@ -11843,7 +11829,7 @@
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="73"/>
       <c r="B24" s="79" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -11857,7 +11843,7 @@
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="73"/>
       <c r="B25" s="85" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -11871,7 +11857,7 @@
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="73"/>
       <c r="B26" s="79" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="43"/>
@@ -11885,7 +11871,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="73"/>
       <c r="B27" s="85" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -11899,7 +11885,7 @@
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="73"/>
       <c r="B28" s="79" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="43"/>
@@ -11913,7 +11899,7 @@
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="73"/>
       <c r="B29" s="85" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -11926,8 +11912,8 @@
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="73"/>
-      <c r="B30" s="124" t="s">
-        <v>265</v>
+      <c r="B30" s="123" t="s">
+        <v>252</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -11941,7 +11927,7 @@
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="73"/>
       <c r="B31" s="85" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -11955,7 +11941,7 @@
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="73"/>
       <c r="B32" s="85" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -11969,7 +11955,7 @@
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="73"/>
       <c r="B33" s="85" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -11983,7 +11969,7 @@
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="73"/>
       <c r="B34" s="79" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -11997,7 +11983,7 @@
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="73"/>
       <c r="B35" s="85" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -12010,7 +11996,7 @@
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="73"/>
       <c r="B36" s="79" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -12024,7 +12010,7 @@
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="73"/>
       <c r="B37" s="85" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
@@ -12038,7 +12024,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="73"/>
       <c r="B38" s="79" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="C38" s="43"/>
       <c r="D38" s="43"/>
@@ -12052,7 +12038,7 @@
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="73"/>
       <c r="B39" s="85" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -12297,13 +12283,13 @@
       <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="187" t="s">
-        <v>269</v>
-      </c>
-      <c r="C59" s="187"/>
-      <c r="D59" s="187"/>
-      <c r="E59" s="187"/>
-      <c r="F59" s="125"/>
+      <c r="B59" s="181" t="s">
+        <v>256</v>
+      </c>
+      <c r="C59" s="181"/>
+      <c r="D59" s="181"/>
+      <c r="E59" s="181"/>
+      <c r="F59" s="124"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
       <c r="I59" s="43"/>
@@ -12335,12 +12321,12 @@
     </row>
     <row r="62" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="43" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
-      <c r="F62" s="124"/>
+      <c r="F62" s="123"/>
       <c r="G62" s="43"/>
       <c r="H62" s="43"/>
       <c r="I62" s="43"/>
@@ -12860,10 +12846,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="142"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12891,8 +12877,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="142"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13303,14 +13289,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="182"/>
+      <c r="E1" s="182"/>
+      <c r="F1" s="182"/>
+      <c r="G1" s="182"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -13503,11 +13489,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="189" t="s">
+      <c r="E27" s="183" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="190"/>
-      <c r="G27" s="191"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="185"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="284">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2363,9 +2363,6 @@
     <t>Popup menu</t>
   </si>
   <si>
-    <t>Ver 2.0</t>
-  </si>
-  <si>
     <t>@DivisionID
 @KeyID
 @TableID
@@ -2386,12 +2383,6 @@
   <si>
     <t>- Tạo mới tài liệu
 - Danh mục địa điểm (Danh mục trạm)</t>
-  </si>
-  <si>
-    <t>- Layout Screen thêm số thứ tự vào cột
-- Item Screen thêm popup menu và chỉnh sửa lại note
-- Input Check xóa các Message không cần thiết
-- Data Input chỉnh sửa lại câu @SQL002 và @SQL003</t>
   </si>
 </sst>
 </file>
@@ -2844,7 +2835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3183,6 +3174,21 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3210,9 +3216,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3273,6 +3276,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3282,24 +3291,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3333,73 +3336,33 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3773,7 +3736,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:J14"/>
+      <selection activeCell="E5" sqref="E5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3789,10 +3752,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3819,8 +3782,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3859,14 +3822,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="143" t="s">
+      <c r="E4" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3881,36 +3844,30 @@
       <c r="D5" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="144" t="s">
-        <v>284</v>
-      </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-    </row>
-    <row r="6" spans="1:10" s="196" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90">
+      <c r="E5" s="149" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+    </row>
+    <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="190">
         <v>2</v>
       </c>
       <c r="B6" s="191">
         <v>2</v>
       </c>
-      <c r="C6" s="192">
-        <v>42387</v>
-      </c>
-      <c r="D6" s="193" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="208" t="s">
-        <v>285</v>
-      </c>
-      <c r="F6" s="194"/>
-      <c r="G6" s="194"/>
-      <c r="H6" s="194"/>
-      <c r="I6" s="194"/>
-      <c r="J6" s="195"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="193"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="195"/>
+      <c r="G6" s="195"/>
+      <c r="H6" s="195"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="196"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91">
@@ -3921,12 +3878,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="137"/>
-      <c r="H7" s="137"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="138"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="143"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
@@ -3937,12 +3894,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
@@ -3953,12 +3910,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="137"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137"/>
-      <c r="I9" s="137"/>
-      <c r="J9" s="138"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="143"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
@@ -3969,12 +3926,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="137"/>
-      <c r="J10" s="138"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="143"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
@@ -3985,12 +3942,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="137"/>
-      <c r="I11" s="137"/>
-      <c r="J11" s="138"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="143"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
@@ -4001,12 +3958,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="137"/>
-      <c r="I12" s="137"/>
-      <c r="J12" s="138"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="143"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
@@ -4017,12 +3974,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="136"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="137"/>
-      <c r="J13" s="138"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="143"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98">
@@ -4033,12 +3990,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="137"/>
-      <c r="I14" s="137"/>
-      <c r="J14" s="138"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="143"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4049,12 +4006,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+      <c r="I15" s="140"/>
+      <c r="J15" s="140"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
@@ -4065,12 +4022,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
+      <c r="J16" s="140"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
@@ -4081,12 +4038,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="140"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -4097,12 +4054,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="140"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
@@ -4113,12 +4070,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="140"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
@@ -4129,12 +4086,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="140"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
@@ -4145,12 +4102,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="140"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
@@ -4161,12 +4118,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="140"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97">
@@ -4177,12 +4134,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98">
@@ -4193,12 +4150,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="140"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4209,12 +4166,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90">
@@ -4225,12 +4182,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
@@ -4241,12 +4198,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
@@ -4257,12 +4214,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="140"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="140"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
@@ -4273,12 +4230,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="140"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="140"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
@@ -4289,12 +4246,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
+      <c r="E30" s="140"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
@@ -4305,12 +4262,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="140"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
@@ -4321,12 +4278,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97">
@@ -4337,12 +4294,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="140"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98">
@@ -4353,12 +4310,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4369,12 +4326,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="145"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90">
@@ -4385,12 +4342,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -4401,12 +4358,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="145"/>
-      <c r="G37" s="145"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="140"/>
+      <c r="J37" s="140"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
@@ -4417,12 +4374,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="145"/>
-      <c r="F38" s="145"/>
-      <c r="G38" s="145"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
+      <c r="E38" s="140"/>
+      <c r="F38" s="140"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="140"/>
+      <c r="J38" s="140"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -4433,12 +4390,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="145"/>
-      <c r="F39" s="145"/>
-      <c r="G39" s="145"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
+      <c r="E39" s="140"/>
+      <c r="F39" s="140"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="140"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
@@ -4449,12 +4406,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="145"/>
-      <c r="F40" s="145"/>
-      <c r="G40" s="145"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="140"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="140"/>
+      <c r="J40" s="140"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
@@ -4465,12 +4422,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="145"/>
-      <c r="F41" s="145"/>
-      <c r="G41" s="145"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="140"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="140"/>
+      <c r="J41" s="140"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="96">
@@ -4481,32 +4438,23 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="145"/>
-      <c r="F42" s="145"/>
-      <c r="G42" s="145"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4522,14 +4470,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4746,10 +4703,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4779,8 +4736,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4810,20 +4767,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="146" t="s">
+      <c r="A4" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="146" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="147"/>
+      <c r="J4" s="151"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4834,10 +4791,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="155" t="s">
+      <c r="I5" s="159" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="156"/>
+      <c r="J5" s="160"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4848,8 +4805,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="158"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="162"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4860,8 +4817,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="157"/>
-      <c r="J7" s="158"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4872,8 +4829,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="157"/>
-      <c r="J8" s="158"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4884,8 +4841,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="157"/>
-      <c r="J9" s="158"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="162"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4896,8 +4853,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="160"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -4908,10 +4865,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="147"/>
+      <c r="J11" s="151"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -4922,10 +4879,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="149" t="s">
+      <c r="I12" s="153" t="s">
         <v>226</v>
       </c>
-      <c r="J12" s="150"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -4936,8 +4893,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="152"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="156"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -4948,8 +4905,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="152"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="156"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -4960,8 +4917,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -4972,8 +4929,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="156"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -4984,8 +4941,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="156"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -4996,8 +4953,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="156"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -5008,8 +4965,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -5020,8 +4977,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="156"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -5032,8 +4989,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="156"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5044,8 +5001,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5056,8 +5013,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="152"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="156"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5068,8 +5025,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="156"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5080,8 +5037,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="151"/>
-      <c r="J25" s="152"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="156"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5092,8 +5049,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="151"/>
-      <c r="J26" s="152"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="156"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5104,8 +5061,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="152"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="156"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5116,8 +5073,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="152"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="156"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5128,8 +5085,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="151"/>
-      <c r="J29" s="152"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="156"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5140,8 +5097,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="152"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="156"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5152,8 +5109,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="151"/>
-      <c r="J31" s="152"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="156"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5164,8 +5121,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="152"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="156"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5176,8 +5133,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="151"/>
-      <c r="J33" s="152"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="156"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5188,8 +5145,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="156"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5200,8 +5157,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="151"/>
-      <c r="J35" s="152"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="156"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5212,8 +5169,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="152"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="156"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5224,8 +5181,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="151"/>
-      <c r="J37" s="152"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="156"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5236,8 +5193,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="151"/>
-      <c r="J38" s="152"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="156"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5248,8 +5205,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="152"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="156"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5260,8 +5217,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="152"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="156"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5272,8 +5229,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="152"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="156"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5284,8 +5241,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="151"/>
-      <c r="J42" s="152"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="156"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5296,8 +5253,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="154"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5328,10 +5285,10 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6:C26"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5356,13 +5313,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5370,16 +5327,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="161" t="s">
+      <c r="H1" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="162"/>
-      <c r="J1" s="163" t="str">
+      <c r="I1" s="166"/>
+      <c r="J1" s="167" t="str">
         <f>'Update History'!F1</f>
         <v>CF0141</v>
       </c>
-      <c r="K1" s="164"/>
-      <c r="L1" s="165"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="169"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5395,11 +5352,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5407,16 +5364,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="161" t="s">
+      <c r="H2" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="162"/>
-      <c r="J2" s="163" t="str">
+      <c r="I2" s="166"/>
+      <c r="J2" s="167" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục địa điểm</v>
       </c>
-      <c r="K2" s="164"/>
-      <c r="L2" s="165"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="169"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5753,81 +5710,81 @@
       <c r="O12" s="69"/>
       <c r="P12" s="87"/>
     </row>
-    <row r="13" spans="1:16" s="190" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="186">
+    <row r="13" spans="1:16" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
         <v>9</v>
       </c>
-      <c r="B13" s="186" t="s">
-        <v>279</v>
-      </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="186">
+      <c r="B13" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33">
         <v>2.7</v>
       </c>
-      <c r="E13" s="187" t="s">
+      <c r="E13" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="188" t="s">
+      <c r="F13" s="137" t="s">
         <v>199</v>
       </c>
-      <c r="G13" s="188" t="s">
+      <c r="G13" s="137" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="189" t="s">
+      <c r="H13" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="I13" s="189" t="s">
+      <c r="I13" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="J13" s="197"/>
-      <c r="K13" s="197"/>
-      <c r="L13" s="189" t="s">
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="188"/>
-      <c r="P13" s="188" t="s">
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
+      <c r="P13" s="137" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="186">
+    <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
         <v>10</v>
       </c>
-      <c r="B14" s="186" t="s">
-        <v>279</v>
-      </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186">
+      <c r="B14" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33">
         <v>2.8</v>
       </c>
-      <c r="E14" s="187" t="s">
+      <c r="E14" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="188" t="s">
+      <c r="F14" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="G14" s="188" t="s">
+      <c r="G14" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="H14" s="189" t="s">
+      <c r="H14" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="I14" s="189" t="s">
+      <c r="I14" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="J14" s="197"/>
-      <c r="K14" s="197"/>
-      <c r="L14" s="189" t="s">
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="M14" s="197"/>
-      <c r="N14" s="188"/>
-      <c r="O14" s="188">
+      <c r="M14" s="62"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137">
         <v>0</v>
       </c>
-      <c r="P14" s="188"/>
+      <c r="P14" s="137"/>
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -5919,33 +5876,33 @@
       <c r="O17" s="69"/>
       <c r="P17" s="87"/>
     </row>
-    <row r="18" spans="1:16" s="190" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="186">
+    <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
         <v>14</v>
       </c>
-      <c r="B18" s="186" t="s">
-        <v>279</v>
-      </c>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186">
+      <c r="B18" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33">
         <v>6</v>
       </c>
-      <c r="E18" s="187" t="s">
+      <c r="E18" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="F18" s="188" t="s">
+      <c r="F18" s="137" t="s">
         <v>211</v>
       </c>
-      <c r="G18" s="188"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="189"/>
-      <c r="L18" s="189"/>
-      <c r="M18" s="189"/>
-      <c r="N18" s="189"/>
-      <c r="O18" s="188"/>
-      <c r="P18" s="188"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="137"/>
+      <c r="P18" s="137"/>
     </row>
     <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -7747,8 +7704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:J7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7772,7 +7729,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="170" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="128"/>
@@ -7807,7 +7764,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="172"/>
+      <c r="A2" s="171"/>
       <c r="B2" s="129"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -7855,15 +7812,15 @@
       <c r="E4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="142" t="s">
+      <c r="F4" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142" t="s">
+      <c r="G4" s="147"/>
+      <c r="H4" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -7881,13 +7838,15 @@
       <c r="E5" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F5" s="173" t="s">
+      <c r="F5" s="175" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="174"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="168"/>
+      <c r="G5" s="176"/>
+      <c r="H5" s="197" t="s">
+        <v>241</v>
+      </c>
+      <c r="I5" s="198"/>
+      <c r="J5" s="199"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -7905,13 +7864,15 @@
       <c r="E6" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F6" s="175" t="s">
+      <c r="F6" s="179" t="s">
         <v>240</v>
       </c>
-      <c r="G6" s="176"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="G6" s="180"/>
+      <c r="H6" s="197" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="198"/>
+      <c r="J6" s="199"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -7929,13 +7890,15 @@
       <c r="E7" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F7" s="175" t="s">
+      <c r="F7" s="179" t="s">
         <v>240</v>
       </c>
-      <c r="G7" s="176"/>
-      <c r="H7" s="166"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="197" t="s">
+        <v>244</v>
+      </c>
+      <c r="I7" s="198"/>
+      <c r="J7" s="199"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -7953,13 +7916,15 @@
       <c r="E8" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F8" s="173" t="s">
+      <c r="F8" s="175" t="s">
         <v>234</v>
       </c>
-      <c r="G8" s="174"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="168"/>
+      <c r="G8" s="176"/>
+      <c r="H8" s="197" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="198"/>
+      <c r="J8" s="199"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -7977,13 +7942,15 @@
       <c r="E9" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F9" s="173" t="s">
+      <c r="F9" s="175" t="s">
         <v>236</v>
       </c>
-      <c r="G9" s="174"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="168"/>
+      <c r="G9" s="176"/>
+      <c r="H9" s="197" t="s">
+        <v>202</v>
+      </c>
+      <c r="I9" s="198"/>
+      <c r="J9" s="199"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8001,13 +7968,15 @@
       <c r="E10" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="F10" s="173" t="s">
+      <c r="F10" s="175" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="174"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="168"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="197" t="s">
+        <v>203</v>
+      </c>
+      <c r="I10" s="198"/>
+      <c r="J10" s="199"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8017,11 +7986,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="167"/>
-      <c r="J11" s="168"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="178"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="174"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8031,11 +8000,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="168"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="178"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="174"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8045,11 +8014,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="167"/>
-      <c r="J13" s="168"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="174"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8059,11 +8028,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="168"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="178"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="174"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8073,11 +8042,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="168"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="178"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="174"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8087,11 +8056,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="168"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="174"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8101,11 +8070,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="166"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="168"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="178"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="174"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8115,11 +8084,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="169"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="168"/>
+      <c r="F18" s="177"/>
+      <c r="G18" s="178"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="174"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8129,11 +8098,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="168"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="178"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="174"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8143,11 +8112,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="168"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="174"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8157,11 +8126,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="136"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="168"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="174"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8171,11 +8140,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="167"/>
-      <c r="J22" s="168"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="174"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8185,11 +8154,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="167"/>
-      <c r="J23" s="168"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="174"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8199,11 +8168,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="167"/>
-      <c r="J24" s="168"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="174"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8213,11 +8182,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="167"/>
-      <c r="J25" s="168"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="174"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8227,11 +8196,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="168"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="174"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8241,11 +8210,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="168"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="174"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8255,11 +8224,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="167"/>
-      <c r="J28" s="168"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="174"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8269,11 +8238,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="167"/>
-      <c r="J29" s="168"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="174"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8283,11 +8252,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="167"/>
-      <c r="J30" s="168"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="174"/>
     </row>
     <row r="31" spans="1:18" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
@@ -8297,11 +8266,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="167"/>
-      <c r="J31" s="168"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="174"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -8318,11 +8287,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="167"/>
-      <c r="J32" s="168"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="174"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -8339,11 +8308,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="167"/>
-      <c r="J33" s="168"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="174"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -8360,11 +8329,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="167"/>
-      <c r="J34" s="168"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="173"/>
+      <c r="J34" s="174"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -8381,11 +8350,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="167"/>
-      <c r="J35" s="168"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="174"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -8402,11 +8371,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="167"/>
-      <c r="J36" s="168"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="173"/>
+      <c r="J36" s="174"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -8423,11 +8392,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="166"/>
-      <c r="I37" s="167"/>
-      <c r="J37" s="168"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="173"/>
+      <c r="J37" s="174"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -8444,11 +8413,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="136"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="168"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="173"/>
+      <c r="J38" s="174"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -8465,11 +8434,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="166"/>
-      <c r="I39" s="167"/>
-      <c r="J39" s="168"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="173"/>
+      <c r="J39" s="174"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -8486,11 +8455,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="167"/>
-      <c r="J40" s="168"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="143"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="174"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -8507,11 +8476,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="166"/>
-      <c r="I41" s="167"/>
-      <c r="J41" s="168"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="143"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="174"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -8528,11 +8497,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="136"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="166"/>
-      <c r="I42" s="167"/>
-      <c r="J42" s="168"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="143"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="174"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -8549,11 +8518,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="167"/>
-      <c r="J43" s="168"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="143"/>
+      <c r="H43" s="172"/>
+      <c r="I43" s="173"/>
+      <c r="J43" s="174"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -8570,11 +8539,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="166"/>
-      <c r="I44" s="167"/>
-      <c r="J44" s="168"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="143"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="173"/>
+      <c r="J44" s="174"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -8591,11 +8560,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="166"/>
-      <c r="I45" s="167"/>
-      <c r="J45" s="168"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="143"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="173"/>
+      <c r="J45" s="174"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -8612,11 +8581,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="166"/>
-      <c r="I46" s="167"/>
-      <c r="J46" s="168"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="143"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="173"/>
+      <c r="J46" s="174"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -8633,11 +8602,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="167"/>
-      <c r="J47" s="168"/>
+      <c r="F47" s="141"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="172"/>
+      <c r="I47" s="173"/>
+      <c r="J47" s="174"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -8654,11 +8623,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="166"/>
-      <c r="I48" s="167"/>
-      <c r="J48" s="168"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="143"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="173"/>
+      <c r="J48" s="174"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -8675,11 +8644,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="167"/>
-      <c r="J49" s="168"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="143"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="173"/>
+      <c r="J49" s="174"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -8696,11 +8665,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="166"/>
-      <c r="I50" s="167"/>
-      <c r="J50" s="168"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="143"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="173"/>
+      <c r="J50" s="174"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -8717,11 +8686,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="166"/>
-      <c r="I51" s="167"/>
-      <c r="J51" s="168"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="172"/>
+      <c r="I51" s="173"/>
+      <c r="J51" s="174"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -8738,11 +8707,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="166"/>
-      <c r="I52" s="167"/>
-      <c r="J52" s="168"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="143"/>
+      <c r="H52" s="172"/>
+      <c r="I52" s="173"/>
+      <c r="J52" s="174"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -8759,11 +8728,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="166"/>
-      <c r="I53" s="167"/>
-      <c r="J53" s="168"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="143"/>
+      <c r="H53" s="172"/>
+      <c r="I53" s="173"/>
+      <c r="J53" s="174"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -8780,11 +8749,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="138"/>
-      <c r="H54" s="166"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="168"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="172"/>
+      <c r="I54" s="173"/>
+      <c r="J54" s="174"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -8801,11 +8770,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="166"/>
-      <c r="I55" s="167"/>
-      <c r="J55" s="168"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="143"/>
+      <c r="H55" s="172"/>
+      <c r="I55" s="173"/>
+      <c r="J55" s="174"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -8817,6 +8786,94 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="105">
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -8834,94 +8891,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E55">
@@ -8943,8 +8912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8972,24 +8941,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="142"/>
-      <c r="H1" s="142"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="180" t="str">
+      <c r="J1" s="184" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="180"/>
+      <c r="K1" s="184"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9016,22 +8985,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="180" t="str">
+      <c r="J2" s="184" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="180"/>
+      <c r="K2" s="184"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9088,12 +9057,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="146" t="s">
+      <c r="K4" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="148"/>
-      <c r="M4" s="148"/>
-      <c r="N4" s="147"/>
+      <c r="L4" s="152"/>
+      <c r="M4" s="152"/>
+      <c r="N4" s="151"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9139,12 +9108,12 @@
       <c r="J5" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="K5" s="139" t="s">
+      <c r="K5" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="141"/>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="146"/>
       <c r="O5" s="126" t="s">
         <v>135</v>
       </c>
@@ -9163,101 +9132,101 @@
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
     </row>
-    <row r="6" spans="1:21" s="190" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="186">
+    <row r="6" spans="1:21" s="138" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="186" t="s">
+      <c r="B6" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="137" t="s">
+        <v>217</v>
+      </c>
+      <c r="H6" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="122" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" s="144" t="s">
+        <v>250</v>
+      </c>
+      <c r="L6" s="145"/>
+      <c r="M6" s="145"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="136" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="186"/>
-      <c r="D6" s="189"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="188" t="s">
-        <v>217</v>
-      </c>
-      <c r="H6" s="200" t="s">
-        <v>219</v>
-      </c>
-      <c r="I6" s="200" t="s">
+      <c r="P6" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="R6" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="S6" s="137" t="s">
+        <v>258</v>
+      </c>
+      <c r="T6" s="139"/>
+      <c r="U6" s="139"/>
+    </row>
+    <row r="7" spans="1:21" s="138" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>3</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="137" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="63" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="201" t="s">
-        <v>221</v>
-      </c>
-      <c r="K6" s="202" t="s">
-        <v>250</v>
-      </c>
-      <c r="L6" s="203"/>
-      <c r="M6" s="203"/>
-      <c r="N6" s="204"/>
-      <c r="O6" s="205" t="s">
-        <v>280</v>
-      </c>
-      <c r="P6" s="205" t="s">
+      <c r="J7" s="122" t="s">
+        <v>222</v>
+      </c>
+      <c r="K7" s="144" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="136" t="s">
         <v>281</v>
       </c>
-      <c r="Q6" s="206" t="s">
+      <c r="P7" s="136" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q7" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="R6" s="198" t="s">
+      <c r="R7" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="S6" s="188" t="s">
-        <v>258</v>
-      </c>
-      <c r="T6" s="207"/>
-      <c r="U6" s="207"/>
-    </row>
-    <row r="7" spans="1:21" s="190" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="186">
-        <v>3</v>
-      </c>
-      <c r="B7" s="186" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="186"/>
-      <c r="D7" s="189" t="s">
-        <v>264</v>
-      </c>
-      <c r="E7" s="186"/>
-      <c r="F7" s="199"/>
-      <c r="G7" s="188" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="200" t="s">
-        <v>201</v>
-      </c>
-      <c r="I7" s="200" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="201" t="s">
-        <v>222</v>
-      </c>
-      <c r="K7" s="202" t="s">
-        <v>251</v>
-      </c>
-      <c r="L7" s="203"/>
-      <c r="M7" s="203"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="205" t="s">
-        <v>282</v>
-      </c>
-      <c r="P7" s="205" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q7" s="206" t="s">
-        <v>201</v>
-      </c>
-      <c r="R7" s="198" t="s">
-        <v>229</v>
-      </c>
-      <c r="S7" s="209" t="s">
+      <c r="S7" s="81" t="s">
         <v>274</v>
       </c>
-      <c r="T7" s="207"/>
-      <c r="U7" s="207"/>
+      <c r="T7" s="139"/>
+      <c r="U7" s="139"/>
     </row>
     <row r="8" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -9272,10 +9241,10 @@
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
       <c r="J8" s="81"/>
-      <c r="K8" s="177"/>
-      <c r="L8" s="178"/>
-      <c r="M8" s="178"/>
-      <c r="N8" s="179"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="182"/>
+      <c r="M8" s="182"/>
+      <c r="N8" s="183"/>
       <c r="O8" s="88"/>
       <c r="P8" s="88"/>
       <c r="Q8" s="76"/>
@@ -9297,10 +9266,10 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="81"/>
-      <c r="K9" s="177"/>
-      <c r="L9" s="178"/>
-      <c r="M9" s="178"/>
-      <c r="N9" s="179"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="182"/>
+      <c r="M9" s="182"/>
+      <c r="N9" s="183"/>
       <c r="O9" s="88"/>
       <c r="P9" s="88"/>
       <c r="Q9" s="76"/>
@@ -9322,10 +9291,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="81"/>
-      <c r="K10" s="177"/>
-      <c r="L10" s="178"/>
-      <c r="M10" s="178"/>
-      <c r="N10" s="179"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="183"/>
       <c r="O10" s="88"/>
       <c r="P10" s="88"/>
       <c r="Q10" s="76"/>
@@ -9347,10 +9316,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="177"/>
-      <c r="L11" s="178"/>
-      <c r="M11" s="178"/>
-      <c r="N11" s="179"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="183"/>
       <c r="O11" s="88"/>
       <c r="P11" s="88"/>
       <c r="Q11" s="76"/>
@@ -9372,10 +9341,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="178"/>
-      <c r="M12" s="178"/>
-      <c r="N12" s="179"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="183"/>
       <c r="O12" s="84"/>
       <c r="P12" s="84"/>
       <c r="Q12" s="76"/>
@@ -9397,10 +9366,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="178"/>
-      <c r="M13" s="178"/>
-      <c r="N13" s="179"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="183"/>
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="76"/>
@@ -9422,10 +9391,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="81"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="178"/>
-      <c r="M14" s="178"/>
-      <c r="N14" s="179"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="182"/>
+      <c r="M14" s="182"/>
+      <c r="N14" s="183"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="76"/>
@@ -9447,10 +9416,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="81"/>
-      <c r="K15" s="177"/>
-      <c r="L15" s="178"/>
-      <c r="M15" s="178"/>
-      <c r="N15" s="179"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="183"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="76"/>
@@ -9472,10 +9441,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="178"/>
-      <c r="M16" s="178"/>
-      <c r="N16" s="179"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="183"/>
       <c r="O16" s="72"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
@@ -9497,10 +9466,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="177"/>
-      <c r="L17" s="178"/>
-      <c r="M17" s="178"/>
-      <c r="N17" s="179"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="183"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -9522,10 +9491,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="177"/>
-      <c r="L18" s="178"/>
-      <c r="M18" s="178"/>
-      <c r="N18" s="179"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="183"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -9547,10 +9516,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="178"/>
-      <c r="M19" s="178"/>
-      <c r="N19" s="179"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="183"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -9572,10 +9541,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="177"/>
-      <c r="L20" s="178"/>
-      <c r="M20" s="178"/>
-      <c r="N20" s="179"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="182"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="183"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -9597,10 +9566,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="177"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="178"/>
-      <c r="N21" s="179"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="183"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -9622,10 +9591,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="177"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="179"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="183"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -9647,10 +9616,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="177"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="179"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="183"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -9672,10 +9641,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="177"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="179"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="183"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -9697,10 +9666,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="179"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="183"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -9722,10 +9691,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="177"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="179"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="183"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -9747,10 +9716,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="177"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="179"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="183"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -9772,10 +9741,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="177"/>
-      <c r="L28" s="178"/>
-      <c r="M28" s="178"/>
-      <c r="N28" s="179"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="183"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -9797,10 +9766,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="179"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="183"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -9822,10 +9791,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="179"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="183"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -9847,10 +9816,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="178"/>
-      <c r="M31" s="178"/>
-      <c r="N31" s="179"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="183"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -9872,10 +9841,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="178"/>
-      <c r="M32" s="178"/>
-      <c r="N32" s="179"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="183"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -9897,10 +9866,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="178"/>
-      <c r="M33" s="178"/>
-      <c r="N33" s="179"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="183"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -9922,10 +9891,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="81"/>
-      <c r="K34" s="177"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="179"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="182"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="183"/>
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
       <c r="Q34" s="76"/>
@@ -9947,10 +9916,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="177"/>
-      <c r="L35" s="178"/>
-      <c r="M35" s="178"/>
-      <c r="N35" s="179"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="182"/>
+      <c r="M35" s="182"/>
+      <c r="N35" s="183"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="76"/>
@@ -9972,10 +9941,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="177"/>
-      <c r="L36" s="178"/>
-      <c r="M36" s="178"/>
-      <c r="N36" s="179"/>
+      <c r="K36" s="181"/>
+      <c r="L36" s="182"/>
+      <c r="M36" s="182"/>
+      <c r="N36" s="183"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -9997,10 +9966,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="177"/>
-      <c r="L37" s="178"/>
-      <c r="M37" s="178"/>
-      <c r="N37" s="179"/>
+      <c r="K37" s="181"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="182"/>
+      <c r="N37" s="183"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -10022,10 +9991,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="177"/>
-      <c r="L38" s="178"/>
-      <c r="M38" s="178"/>
-      <c r="N38" s="179"/>
+      <c r="K38" s="181"/>
+      <c r="L38" s="182"/>
+      <c r="M38" s="182"/>
+      <c r="N38" s="183"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10047,10 +10016,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="177"/>
-      <c r="L39" s="178"/>
-      <c r="M39" s="178"/>
-      <c r="N39" s="179"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="182"/>
+      <c r="M39" s="182"/>
+      <c r="N39" s="183"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10072,10 +10041,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="177"/>
-      <c r="L40" s="178"/>
-      <c r="M40" s="178"/>
-      <c r="N40" s="179"/>
+      <c r="K40" s="181"/>
+      <c r="L40" s="182"/>
+      <c r="M40" s="182"/>
+      <c r="N40" s="183"/>
       <c r="O40" s="74"/>
       <c r="P40" s="74"/>
       <c r="Q40" s="76"/>
@@ -10097,10 +10066,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="177"/>
-      <c r="L41" s="178"/>
-      <c r="M41" s="178"/>
-      <c r="N41" s="179"/>
+      <c r="K41" s="181"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="182"/>
+      <c r="N41" s="183"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10122,10 +10091,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="177"/>
-      <c r="L42" s="178"/>
-      <c r="M42" s="178"/>
-      <c r="N42" s="179"/>
+      <c r="K42" s="181"/>
+      <c r="L42" s="182"/>
+      <c r="M42" s="182"/>
+      <c r="N42" s="183"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10147,10 +10116,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="177"/>
-      <c r="L43" s="178"/>
-      <c r="M43" s="178"/>
-      <c r="N43" s="179"/>
+      <c r="K43" s="181"/>
+      <c r="L43" s="182"/>
+      <c r="M43" s="182"/>
+      <c r="N43" s="183"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10172,10 +10141,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="177"/>
-      <c r="L44" s="178"/>
-      <c r="M44" s="178"/>
-      <c r="N44" s="179"/>
+      <c r="K44" s="181"/>
+      <c r="L44" s="182"/>
+      <c r="M44" s="182"/>
+      <c r="N44" s="183"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10197,10 +10166,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="177"/>
-      <c r="L45" s="178"/>
-      <c r="M45" s="178"/>
-      <c r="N45" s="179"/>
+      <c r="K45" s="181"/>
+      <c r="L45" s="182"/>
+      <c r="M45" s="182"/>
+      <c r="N45" s="183"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10222,10 +10191,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="177"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="178"/>
-      <c r="N46" s="179"/>
+      <c r="K46" s="181"/>
+      <c r="L46" s="182"/>
+      <c r="M46" s="182"/>
+      <c r="N46" s="183"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10247,10 +10216,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="177"/>
-      <c r="L47" s="178"/>
-      <c r="M47" s="178"/>
-      <c r="N47" s="179"/>
+      <c r="K47" s="181"/>
+      <c r="L47" s="182"/>
+      <c r="M47" s="182"/>
+      <c r="N47" s="183"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -10272,10 +10241,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="177"/>
-      <c r="L48" s="178"/>
-      <c r="M48" s="178"/>
-      <c r="N48" s="179"/>
+      <c r="K48" s="181"/>
+      <c r="L48" s="182"/>
+      <c r="M48" s="182"/>
+      <c r="N48" s="183"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -10297,10 +10266,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="177"/>
-      <c r="L49" s="178"/>
-      <c r="M49" s="178"/>
-      <c r="N49" s="179"/>
+      <c r="K49" s="181"/>
+      <c r="L49" s="182"/>
+      <c r="M49" s="182"/>
+      <c r="N49" s="183"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -10322,10 +10291,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="177"/>
-      <c r="L50" s="178"/>
-      <c r="M50" s="178"/>
-      <c r="N50" s="179"/>
+      <c r="K50" s="181"/>
+      <c r="L50" s="182"/>
+      <c r="M50" s="182"/>
+      <c r="N50" s="183"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -10347,10 +10316,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="177"/>
-      <c r="L51" s="178"/>
-      <c r="M51" s="178"/>
-      <c r="N51" s="179"/>
+      <c r="K51" s="181"/>
+      <c r="L51" s="182"/>
+      <c r="M51" s="182"/>
+      <c r="N51" s="183"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -10372,10 +10341,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="177"/>
-      <c r="L52" s="178"/>
-      <c r="M52" s="178"/>
-      <c r="N52" s="179"/>
+      <c r="K52" s="181"/>
+      <c r="L52" s="182"/>
+      <c r="M52" s="182"/>
+      <c r="N52" s="183"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -10397,10 +10366,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="177"/>
-      <c r="L53" s="178"/>
-      <c r="M53" s="178"/>
-      <c r="N53" s="179"/>
+      <c r="K53" s="181"/>
+      <c r="L53" s="182"/>
+      <c r="M53" s="182"/>
+      <c r="N53" s="183"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -10422,10 +10391,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="177"/>
-      <c r="L54" s="178"/>
-      <c r="M54" s="178"/>
-      <c r="N54" s="179"/>
+      <c r="K54" s="181"/>
+      <c r="L54" s="182"/>
+      <c r="M54" s="182"/>
+      <c r="N54" s="183"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -10447,10 +10416,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="177"/>
-      <c r="L55" s="178"/>
-      <c r="M55" s="178"/>
-      <c r="N55" s="179"/>
+      <c r="K55" s="181"/>
+      <c r="L55" s="182"/>
+      <c r="M55" s="182"/>
+      <c r="N55" s="183"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -10472,10 +10441,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="177"/>
-      <c r="L56" s="178"/>
-      <c r="M56" s="178"/>
-      <c r="N56" s="179"/>
+      <c r="K56" s="181"/>
+      <c r="L56" s="182"/>
+      <c r="M56" s="182"/>
+      <c r="N56" s="183"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -10497,10 +10466,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="177"/>
-      <c r="L57" s="178"/>
-      <c r="M57" s="178"/>
-      <c r="N57" s="179"/>
+      <c r="K57" s="181"/>
+      <c r="L57" s="182"/>
+      <c r="M57" s="182"/>
+      <c r="N57" s="183"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -10522,10 +10491,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="177"/>
-      <c r="L58" s="178"/>
-      <c r="M58" s="178"/>
-      <c r="N58" s="179"/>
+      <c r="K58" s="181"/>
+      <c r="L58" s="182"/>
+      <c r="M58" s="182"/>
+      <c r="N58" s="183"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -10547,10 +10516,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="177"/>
-      <c r="L59" s="178"/>
-      <c r="M59" s="178"/>
-      <c r="N59" s="179"/>
+      <c r="K59" s="181"/>
+      <c r="L59" s="182"/>
+      <c r="M59" s="182"/>
+      <c r="N59" s="183"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -10572,10 +10541,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="177"/>
-      <c r="L60" s="178"/>
-      <c r="M60" s="178"/>
-      <c r="N60" s="179"/>
+      <c r="K60" s="181"/>
+      <c r="L60" s="182"/>
+      <c r="M60" s="182"/>
+      <c r="N60" s="183"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -10597,10 +10566,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="177"/>
-      <c r="L61" s="178"/>
-      <c r="M61" s="178"/>
-      <c r="N61" s="179"/>
+      <c r="K61" s="181"/>
+      <c r="L61" s="182"/>
+      <c r="M61" s="182"/>
+      <c r="N61" s="183"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -10622,10 +10591,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="177"/>
-      <c r="L62" s="178"/>
-      <c r="M62" s="178"/>
-      <c r="N62" s="179"/>
+      <c r="K62" s="181"/>
+      <c r="L62" s="182"/>
+      <c r="M62" s="182"/>
+      <c r="N62" s="183"/>
       <c r="O62" s="83"/>
       <c r="P62" s="83"/>
       <c r="Q62" s="76"/>
@@ -10647,10 +10616,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="177"/>
-      <c r="L63" s="178"/>
-      <c r="M63" s="178"/>
-      <c r="N63" s="179"/>
+      <c r="K63" s="181"/>
+      <c r="L63" s="182"/>
+      <c r="M63" s="182"/>
+      <c r="N63" s="183"/>
       <c r="O63" s="83"/>
       <c r="P63" s="83"/>
       <c r="Q63" s="76"/>
@@ -10672,10 +10641,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="177"/>
-      <c r="L64" s="178"/>
-      <c r="M64" s="178"/>
-      <c r="N64" s="179"/>
+      <c r="K64" s="181"/>
+      <c r="L64" s="182"/>
+      <c r="M64" s="182"/>
+      <c r="N64" s="183"/>
       <c r="O64" s="83"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="76"/>
@@ -10695,10 +10664,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="177"/>
-      <c r="L65" s="178"/>
-      <c r="M65" s="178"/>
-      <c r="N65" s="179"/>
+      <c r="K65" s="181"/>
+      <c r="L65" s="182"/>
+      <c r="M65" s="182"/>
+      <c r="N65" s="183"/>
       <c r="O65" s="83"/>
       <c r="P65" s="83"/>
       <c r="Q65" s="76"/>
@@ -10718,10 +10687,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="177"/>
-      <c r="L66" s="178"/>
-      <c r="M66" s="178"/>
-      <c r="N66" s="179"/>
+      <c r="K66" s="181"/>
+      <c r="L66" s="182"/>
+      <c r="M66" s="182"/>
+      <c r="N66" s="183"/>
       <c r="O66" s="83"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="76"/>
@@ -10741,10 +10710,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="177"/>
-      <c r="L67" s="178"/>
-      <c r="M67" s="178"/>
-      <c r="N67" s="179"/>
+      <c r="K67" s="181"/>
+      <c r="L67" s="182"/>
+      <c r="M67" s="182"/>
+      <c r="N67" s="183"/>
       <c r="O67" s="83"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="76"/>
@@ -10764,10 +10733,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="177"/>
-      <c r="L68" s="178"/>
-      <c r="M68" s="178"/>
-      <c r="N68" s="179"/>
+      <c r="K68" s="181"/>
+      <c r="L68" s="182"/>
+      <c r="M68" s="182"/>
+      <c r="N68" s="183"/>
       <c r="O68" s="83"/>
       <c r="P68" s="83"/>
       <c r="Q68" s="76"/>
@@ -10787,10 +10756,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="177"/>
-      <c r="L69" s="178"/>
-      <c r="M69" s="178"/>
-      <c r="N69" s="179"/>
+      <c r="K69" s="181"/>
+      <c r="L69" s="182"/>
+      <c r="M69" s="182"/>
+      <c r="N69" s="183"/>
       <c r="O69" s="83"/>
       <c r="P69" s="83"/>
       <c r="Q69" s="76"/>
@@ -10810,10 +10779,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="177"/>
-      <c r="L70" s="178"/>
-      <c r="M70" s="178"/>
-      <c r="N70" s="179"/>
+      <c r="K70" s="181"/>
+      <c r="L70" s="182"/>
+      <c r="M70" s="182"/>
+      <c r="N70" s="183"/>
       <c r="O70" s="83"/>
       <c r="P70" s="83"/>
       <c r="Q70" s="76"/>
@@ -10833,10 +10802,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="177"/>
-      <c r="L71" s="178"/>
-      <c r="M71" s="178"/>
-      <c r="N71" s="179"/>
+      <c r="K71" s="181"/>
+      <c r="L71" s="182"/>
+      <c r="M71" s="182"/>
+      <c r="N71" s="183"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="76"/>
@@ -10856,10 +10825,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="177"/>
-      <c r="L72" s="178"/>
-      <c r="M72" s="178"/>
-      <c r="N72" s="179"/>
+      <c r="K72" s="181"/>
+      <c r="L72" s="182"/>
+      <c r="M72" s="182"/>
+      <c r="N72" s="183"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="76"/>
@@ -10879,10 +10848,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="177"/>
-      <c r="L73" s="178"/>
-      <c r="M73" s="178"/>
-      <c r="N73" s="179"/>
+      <c r="K73" s="181"/>
+      <c r="L73" s="182"/>
+      <c r="M73" s="182"/>
+      <c r="N73" s="183"/>
       <c r="O73" s="83"/>
       <c r="P73" s="83"/>
       <c r="Q73" s="76"/>
@@ -10902,10 +10871,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="177"/>
-      <c r="L74" s="178"/>
-      <c r="M74" s="178"/>
-      <c r="N74" s="179"/>
+      <c r="K74" s="181"/>
+      <c r="L74" s="182"/>
+      <c r="M74" s="182"/>
+      <c r="N74" s="183"/>
       <c r="O74" s="83"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="76"/>
@@ -10925,10 +10894,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="177"/>
-      <c r="L75" s="178"/>
-      <c r="M75" s="178"/>
-      <c r="N75" s="179"/>
+      <c r="K75" s="181"/>
+      <c r="L75" s="182"/>
+      <c r="M75" s="182"/>
+      <c r="N75" s="183"/>
       <c r="O75" s="83"/>
       <c r="P75" s="83"/>
       <c r="Q75" s="76"/>
@@ -10948,10 +10917,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="177"/>
-      <c r="L76" s="178"/>
-      <c r="M76" s="178"/>
-      <c r="N76" s="179"/>
+      <c r="K76" s="181"/>
+      <c r="L76" s="182"/>
+      <c r="M76" s="182"/>
+      <c r="N76" s="183"/>
       <c r="O76" s="83"/>
       <c r="P76" s="83"/>
       <c r="Q76" s="76"/>
@@ -10971,10 +10940,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="177"/>
-      <c r="L77" s="178"/>
-      <c r="M77" s="178"/>
-      <c r="N77" s="179"/>
+      <c r="K77" s="181"/>
+      <c r="L77" s="182"/>
+      <c r="M77" s="182"/>
+      <c r="N77" s="183"/>
       <c r="O77" s="83"/>
       <c r="P77" s="83"/>
       <c r="Q77" s="76"/>
@@ -10994,10 +10963,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="177"/>
-      <c r="L78" s="178"/>
-      <c r="M78" s="178"/>
-      <c r="N78" s="179"/>
+      <c r="K78" s="181"/>
+      <c r="L78" s="182"/>
+      <c r="M78" s="182"/>
+      <c r="N78" s="183"/>
       <c r="O78" s="83"/>
       <c r="P78" s="83"/>
       <c r="Q78" s="76"/>
@@ -11017,10 +10986,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="177"/>
-      <c r="L79" s="178"/>
-      <c r="M79" s="178"/>
-      <c r="N79" s="179"/>
+      <c r="K79" s="181"/>
+      <c r="L79" s="182"/>
+      <c r="M79" s="182"/>
+      <c r="N79" s="183"/>
       <c r="O79" s="83"/>
       <c r="P79" s="83"/>
       <c r="Q79" s="76"/>
@@ -11040,10 +11009,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="177"/>
-      <c r="L80" s="178"/>
-      <c r="M80" s="178"/>
-      <c r="N80" s="179"/>
+      <c r="K80" s="181"/>
+      <c r="L80" s="182"/>
+      <c r="M80" s="182"/>
+      <c r="N80" s="183"/>
       <c r="O80" s="83"/>
       <c r="P80" s="83"/>
       <c r="Q80" s="76"/>
@@ -11063,10 +11032,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="177"/>
-      <c r="L81" s="178"/>
-      <c r="M81" s="178"/>
-      <c r="N81" s="179"/>
+      <c r="K81" s="181"/>
+      <c r="L81" s="182"/>
+      <c r="M81" s="182"/>
+      <c r="N81" s="183"/>
       <c r="O81" s="83"/>
       <c r="P81" s="83"/>
       <c r="Q81" s="76"/>
@@ -11086,10 +11055,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="177"/>
-      <c r="L82" s="178"/>
-      <c r="M82" s="178"/>
-      <c r="N82" s="179"/>
+      <c r="K82" s="181"/>
+      <c r="L82" s="182"/>
+      <c r="M82" s="182"/>
+      <c r="N82" s="183"/>
       <c r="O82" s="83"/>
       <c r="P82" s="83"/>
       <c r="Q82" s="76"/>
@@ -11109,10 +11078,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="177"/>
-      <c r="L83" s="178"/>
-      <c r="M83" s="178"/>
-      <c r="N83" s="179"/>
+      <c r="K83" s="181"/>
+      <c r="L83" s="182"/>
+      <c r="M83" s="182"/>
+      <c r="N83" s="183"/>
       <c r="O83" s="83"/>
       <c r="P83" s="83"/>
       <c r="Q83" s="76"/>
@@ -11132,10 +11101,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="177"/>
-      <c r="L84" s="178"/>
-      <c r="M84" s="178"/>
-      <c r="N84" s="179"/>
+      <c r="K84" s="181"/>
+      <c r="L84" s="182"/>
+      <c r="M84" s="182"/>
+      <c r="N84" s="183"/>
       <c r="O84" s="83"/>
       <c r="P84" s="83"/>
       <c r="Q84" s="76"/>
@@ -11155,10 +11124,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="177"/>
-      <c r="L85" s="178"/>
-      <c r="M85" s="178"/>
-      <c r="N85" s="179"/>
+      <c r="K85" s="181"/>
+      <c r="L85" s="182"/>
+      <c r="M85" s="182"/>
+      <c r="N85" s="183"/>
       <c r="O85" s="83"/>
       <c r="P85" s="83"/>
       <c r="Q85" s="76"/>
@@ -11178,10 +11147,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="177"/>
-      <c r="L86" s="178"/>
-      <c r="M86" s="178"/>
-      <c r="N86" s="179"/>
+      <c r="K86" s="181"/>
+      <c r="L86" s="182"/>
+      <c r="M86" s="182"/>
+      <c r="N86" s="183"/>
       <c r="O86" s="83"/>
       <c r="P86" s="83"/>
       <c r="Q86" s="76"/>
@@ -11201,10 +11170,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="177"/>
-      <c r="L87" s="178"/>
-      <c r="M87" s="178"/>
-      <c r="N87" s="179"/>
+      <c r="K87" s="181"/>
+      <c r="L87" s="182"/>
+      <c r="M87" s="182"/>
+      <c r="N87" s="183"/>
       <c r="O87" s="83"/>
       <c r="P87" s="83"/>
       <c r="Q87" s="76"/>
@@ -11224,10 +11193,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="177"/>
-      <c r="L88" s="178"/>
-      <c r="M88" s="178"/>
-      <c r="N88" s="179"/>
+      <c r="K88" s="181"/>
+      <c r="L88" s="182"/>
+      <c r="M88" s="182"/>
+      <c r="N88" s="183"/>
       <c r="O88" s="83"/>
       <c r="P88" s="83"/>
       <c r="Q88" s="76"/>
@@ -11247,10 +11216,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="177"/>
-      <c r="L89" s="178"/>
-      <c r="M89" s="178"/>
-      <c r="N89" s="179"/>
+      <c r="K89" s="181"/>
+      <c r="L89" s="182"/>
+      <c r="M89" s="182"/>
+      <c r="N89" s="183"/>
       <c r="O89" s="83"/>
       <c r="P89" s="83"/>
       <c r="Q89" s="76"/>
@@ -11270,10 +11239,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="177"/>
-      <c r="L90" s="178"/>
-      <c r="M90" s="178"/>
-      <c r="N90" s="179"/>
+      <c r="K90" s="181"/>
+      <c r="L90" s="182"/>
+      <c r="M90" s="182"/>
+      <c r="N90" s="183"/>
       <c r="O90" s="83"/>
       <c r="P90" s="83"/>
       <c r="Q90" s="76"/>
@@ -11293,10 +11262,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="177"/>
-      <c r="L91" s="178"/>
-      <c r="M91" s="178"/>
-      <c r="N91" s="179"/>
+      <c r="K91" s="181"/>
+      <c r="L91" s="182"/>
+      <c r="M91" s="182"/>
+      <c r="N91" s="183"/>
       <c r="O91" s="83"/>
       <c r="P91" s="83"/>
       <c r="Q91" s="76"/>
@@ -11316,10 +11285,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="177"/>
-      <c r="L92" s="178"/>
-      <c r="M92" s="178"/>
-      <c r="N92" s="179"/>
+      <c r="K92" s="181"/>
+      <c r="L92" s="182"/>
+      <c r="M92" s="182"/>
+      <c r="N92" s="183"/>
       <c r="O92" s="83"/>
       <c r="P92" s="83"/>
       <c r="Q92" s="76"/>
@@ -11339,10 +11308,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="177"/>
-      <c r="L93" s="178"/>
-      <c r="M93" s="178"/>
-      <c r="N93" s="179"/>
+      <c r="K93" s="181"/>
+      <c r="L93" s="182"/>
+      <c r="M93" s="182"/>
+      <c r="N93" s="183"/>
       <c r="O93" s="83"/>
       <c r="P93" s="83"/>
       <c r="Q93" s="76"/>
@@ -11362,10 +11331,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="177"/>
-      <c r="L94" s="178"/>
-      <c r="M94" s="178"/>
-      <c r="N94" s="179"/>
+      <c r="K94" s="181"/>
+      <c r="L94" s="182"/>
+      <c r="M94" s="182"/>
+      <c r="N94" s="183"/>
       <c r="O94" s="83"/>
       <c r="P94" s="83"/>
       <c r="Q94" s="76"/>
@@ -11378,32 +11347,58 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
     <mergeCell ref="K93:N93"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K6:N6"/>
@@ -11420,58 +11415,32 @@
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -11517,10 +11486,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11550,8 +11519,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12283,12 +12252,12 @@
       <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="181" t="s">
+      <c r="B59" s="185" t="s">
         <v>256</v>
       </c>
-      <c r="C59" s="181"/>
-      <c r="D59" s="181"/>
-      <c r="E59" s="181"/>
+      <c r="C59" s="185"/>
+      <c r="D59" s="185"/>
+      <c r="E59" s="185"/>
       <c r="F59" s="124"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
@@ -12846,10 +12815,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="142"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12877,8 +12846,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="142"/>
-      <c r="B2" s="142"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13289,14 +13258,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="182" t="s">
+      <c r="B1" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -13489,11 +13458,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="183" t="s">
+      <c r="E27" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="184"/>
-      <c r="G27" s="185"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="189"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="284">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3186,156 +3186,6 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3346,6 +3196,36 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3355,6 +3235,87 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3363,6 +3324,45 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3752,10 +3752,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="150"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3782,8 +3782,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3822,14 +3822,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3844,30 +3844,30 @@
       <c r="D5" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="149" t="s">
+      <c r="E5" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="190">
+      <c r="A6" s="140">
         <v>2</v>
       </c>
-      <c r="B6" s="191">
+      <c r="B6" s="141">
         <v>2</v>
       </c>
-      <c r="C6" s="192"/>
-      <c r="D6" s="193"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="196"/>
+      <c r="C6" s="142"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="155"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="156"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91">
@@ -3878,12 +3878,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
@@ -3894,12 +3894,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="149"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
@@ -3910,12 +3910,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="143"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
+      <c r="I9" s="145"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="143"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="145"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="146"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
@@ -3942,12 +3942,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="143"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
+      <c r="I11" s="145"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
@@ -3958,12 +3958,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="143"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="145"/>
+      <c r="G12" s="145"/>
+      <c r="H12" s="145"/>
+      <c r="I12" s="145"/>
+      <c r="J12" s="146"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
@@ -3974,12 +3974,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="145"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98">
@@ -3990,12 +3990,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="143"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="145"/>
+      <c r="I14" s="145"/>
+      <c r="J14" s="146"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4006,12 +4006,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="153"/>
+      <c r="I15" s="153"/>
+      <c r="J15" s="153"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
@@ -4022,12 +4022,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="153"/>
+      <c r="I16" s="153"/>
+      <c r="J16" s="153"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
@@ -4038,12 +4038,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="153"/>
+      <c r="I17" s="153"/>
+      <c r="J17" s="153"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -4054,12 +4054,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
@@ -4070,12 +4070,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="153"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="153"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="140"/>
-      <c r="J20" s="140"/>
+      <c r="E20" s="153"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="153"/>
+      <c r="I20" s="153"/>
+      <c r="J20" s="153"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
@@ -4102,12 +4102,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="140"/>
-      <c r="J21" s="140"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
@@ -4118,12 +4118,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="140"/>
-      <c r="J22" s="140"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97">
@@ -4134,12 +4134,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="140"/>
-      <c r="J23" s="140"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="153"/>
+      <c r="I23" s="153"/>
+      <c r="J23" s="153"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98">
@@ -4150,12 +4150,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="140"/>
-      <c r="J24" s="140"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="153"/>
+      <c r="I24" s="153"/>
+      <c r="J24" s="153"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4166,12 +4166,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
+      <c r="E25" s="153"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="153"/>
+      <c r="I25" s="153"/>
+      <c r="J25" s="153"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90">
@@ -4182,12 +4182,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
@@ -4198,12 +4198,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
@@ -4214,12 +4214,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
-      <c r="J28" s="140"/>
+      <c r="E28" s="153"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="153"/>
+      <c r="I28" s="153"/>
+      <c r="J28" s="153"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
@@ -4230,12 +4230,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="153"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
@@ -4246,12 +4246,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
@@ -4262,12 +4262,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="153"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
@@ -4278,12 +4278,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97">
@@ -4294,12 +4294,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
+      <c r="E33" s="153"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="153"/>
+      <c r="I33" s="153"/>
+      <c r="J33" s="153"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98">
@@ -4310,12 +4310,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="140"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
+      <c r="H34" s="153"/>
+      <c r="I34" s="153"/>
+      <c r="J34" s="153"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4326,12 +4326,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="153"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="153"/>
+      <c r="J35" s="153"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90">
@@ -4342,12 +4342,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="140"/>
-      <c r="J36" s="140"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="153"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="153"/>
+      <c r="J36" s="153"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="140"/>
-      <c r="J37" s="140"/>
+      <c r="E37" s="153"/>
+      <c r="F37" s="153"/>
+      <c r="G37" s="153"/>
+      <c r="H37" s="153"/>
+      <c r="I37" s="153"/>
+      <c r="J37" s="153"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
@@ -4374,12 +4374,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="140"/>
-      <c r="J38" s="140"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -4390,12 +4390,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="140"/>
-      <c r="F39" s="140"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="140"/>
-      <c r="J39" s="140"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
@@ -4406,12 +4406,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="140"/>
-      <c r="F40" s="140"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="140"/>
-      <c r="J40" s="140"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="153"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
@@ -4422,12 +4422,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="140"/>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="140"/>
-      <c r="J41" s="140"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="96">
@@ -4438,23 +4438,32 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4470,23 +4479,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4703,10 +4703,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="150"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4736,8 +4736,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4767,20 +4767,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="150" t="s">
+      <c r="A4" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="152"/>
-      <c r="E4" s="152"/>
-      <c r="F4" s="152"/>
-      <c r="G4" s="152"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="150" t="s">
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="151"/>
+      <c r="J4" s="158"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4791,10 +4791,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="159" t="s">
+      <c r="I5" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="160"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4805,8 +4805,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="162"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4817,8 +4817,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="161"/>
-      <c r="J7" s="162"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4829,8 +4829,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="161"/>
-      <c r="J8" s="162"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="169"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4841,8 +4841,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="161"/>
-      <c r="J9" s="162"/>
+      <c r="I9" s="168"/>
+      <c r="J9" s="169"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4853,8 +4853,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="164"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="171"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -4865,10 +4865,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="150" t="s">
+      <c r="I11" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="151"/>
+      <c r="J11" s="158"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -4879,10 +4879,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="153" t="s">
+      <c r="I12" s="160" t="s">
         <v>226</v>
       </c>
-      <c r="J12" s="154"/>
+      <c r="J12" s="161"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -4893,8 +4893,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="156"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -4905,8 +4905,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="156"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="163"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -4917,8 +4917,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="156"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="163"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -4929,8 +4929,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="156"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="163"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -4941,8 +4941,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="156"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="163"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -4953,8 +4953,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="156"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="163"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -4965,8 +4965,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="156"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="163"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -4977,8 +4977,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="156"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="163"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -4989,8 +4989,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="156"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="163"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5001,8 +5001,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="156"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="163"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5013,8 +5013,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="156"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="163"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5025,8 +5025,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="156"/>
+      <c r="I24" s="162"/>
+      <c r="J24" s="163"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5037,8 +5037,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="156"/>
+      <c r="I25" s="162"/>
+      <c r="J25" s="163"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5049,8 +5049,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="156"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="163"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5061,8 +5061,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="156"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="163"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5073,8 +5073,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="156"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="163"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5085,8 +5085,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="156"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="163"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5097,8 +5097,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="156"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="163"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5109,8 +5109,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="156"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="163"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5121,8 +5121,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="156"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="163"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5133,8 +5133,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="156"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="163"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5145,8 +5145,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="155"/>
-      <c r="J34" s="156"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="163"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5157,8 +5157,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="155"/>
-      <c r="J35" s="156"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="163"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5169,8 +5169,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="156"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="163"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5181,8 +5181,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="156"/>
+      <c r="I37" s="162"/>
+      <c r="J37" s="163"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5193,8 +5193,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="155"/>
-      <c r="J38" s="156"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="163"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5205,8 +5205,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="155"/>
-      <c r="J39" s="156"/>
+      <c r="I39" s="162"/>
+      <c r="J39" s="163"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5217,8 +5217,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="155"/>
-      <c r="J40" s="156"/>
+      <c r="I40" s="162"/>
+      <c r="J40" s="163"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5229,8 +5229,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="155"/>
-      <c r="J41" s="156"/>
+      <c r="I41" s="162"/>
+      <c r="J41" s="163"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5241,8 +5241,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="155"/>
-      <c r="J42" s="156"/>
+      <c r="I42" s="162"/>
+      <c r="J42" s="163"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5253,8 +5253,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="157"/>
-      <c r="J43" s="158"/>
+      <c r="I43" s="164"/>
+      <c r="J43" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5313,13 +5313,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5327,16 +5327,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="165" t="s">
+      <c r="H1" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="166"/>
-      <c r="J1" s="167" t="str">
+      <c r="I1" s="173"/>
+      <c r="J1" s="174" t="str">
         <f>'Update History'!F1</f>
         <v>CF0141</v>
       </c>
-      <c r="K1" s="168"/>
-      <c r="L1" s="169"/>
+      <c r="K1" s="175"/>
+      <c r="L1" s="176"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5352,11 +5352,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5364,16 +5364,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="165" t="s">
+      <c r="H2" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="166"/>
-      <c r="J2" s="167" t="str">
+      <c r="I2" s="173"/>
+      <c r="J2" s="174" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục địa điểm</v>
       </c>
-      <c r="K2" s="168"/>
-      <c r="L2" s="169"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="176"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7705,7 +7705,7 @@
   <dimension ref="A1:R55"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:J18"/>
+      <selection activeCell="C16" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7729,7 +7729,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="182" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="128"/>
@@ -7764,7 +7764,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171"/>
+      <c r="A2" s="183"/>
       <c r="B2" s="129"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -7812,15 +7812,15 @@
       <c r="E4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="147" t="s">
+      <c r="F4" s="150" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147" t="s">
+      <c r="G4" s="150"/>
+      <c r="H4" s="150" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -7835,18 +7835,16 @@
       <c r="D5" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" s="175" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="187" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="176"/>
-      <c r="H5" s="197" t="s">
+      <c r="G5" s="188"/>
+      <c r="H5" s="184" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="198"/>
-      <c r="J5" s="199"/>
+      <c r="I5" s="185"/>
+      <c r="J5" s="186"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -7861,18 +7859,16 @@
       <c r="D6" s="133" t="s">
         <v>238</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="F6" s="179" t="s">
+      <c r="E6" s="27"/>
+      <c r="F6" s="189" t="s">
         <v>240</v>
       </c>
-      <c r="G6" s="180"/>
-      <c r="H6" s="197" t="s">
+      <c r="G6" s="190"/>
+      <c r="H6" s="184" t="s">
         <v>242</v>
       </c>
-      <c r="I6" s="198"/>
-      <c r="J6" s="199"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="186"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -7887,18 +7883,16 @@
       <c r="D7" s="133" t="s">
         <v>238</v>
       </c>
-      <c r="E7" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="179" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="189" t="s">
         <v>240</v>
       </c>
-      <c r="G7" s="180"/>
-      <c r="H7" s="197" t="s">
+      <c r="G7" s="190"/>
+      <c r="H7" s="184" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="198"/>
-      <c r="J7" s="199"/>
+      <c r="I7" s="185"/>
+      <c r="J7" s="186"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -7913,18 +7907,16 @@
       <c r="D8" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" s="175" t="s">
+      <c r="E8" s="27"/>
+      <c r="F8" s="187" t="s">
         <v>234</v>
       </c>
-      <c r="G8" s="176"/>
-      <c r="H8" s="197" t="s">
+      <c r="G8" s="188"/>
+      <c r="H8" s="184" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="198"/>
-      <c r="J8" s="199"/>
+      <c r="I8" s="185"/>
+      <c r="J8" s="186"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -7939,18 +7931,16 @@
       <c r="D9" s="133" t="s">
         <v>235</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="F9" s="175" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="187" t="s">
         <v>236</v>
       </c>
-      <c r="G9" s="176"/>
-      <c r="H9" s="197" t="s">
+      <c r="G9" s="188"/>
+      <c r="H9" s="184" t="s">
         <v>202</v>
       </c>
-      <c r="I9" s="198"/>
-      <c r="J9" s="199"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="186"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -7965,18 +7955,16 @@
       <c r="D10" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="E10" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="175" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="187" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="176"/>
-      <c r="H10" s="197" t="s">
+      <c r="G10" s="188"/>
+      <c r="H10" s="184" t="s">
         <v>203</v>
       </c>
-      <c r="I10" s="198"/>
-      <c r="J10" s="199"/>
+      <c r="I10" s="185"/>
+      <c r="J10" s="186"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -7986,11 +7974,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="178"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="174"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="178"/>
+      <c r="J11" s="179"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8000,11 +7988,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="178"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="174"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="181"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="178"/>
+      <c r="J12" s="179"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8014,11 +8002,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="177"/>
-      <c r="G13" s="178"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="174"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="181"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="179"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8028,11 +8016,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="178"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="174"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="178"/>
+      <c r="J14" s="179"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8042,11 +8030,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="178"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="174"/>
+      <c r="F15" s="180"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="179"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8056,11 +8044,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="178"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="174"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="178"/>
+      <c r="J16" s="179"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8070,11 +8058,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="178"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="174"/>
+      <c r="F17" s="180"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="178"/>
+      <c r="J17" s="179"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8084,11 +8072,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="177"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="174"/>
+      <c r="F18" s="180"/>
+      <c r="G18" s="181"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="179"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8098,11 +8086,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="178"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="174"/>
+      <c r="F19" s="180"/>
+      <c r="G19" s="181"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="178"/>
+      <c r="J19" s="179"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8112,11 +8100,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="177"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="174"/>
+      <c r="F20" s="180"/>
+      <c r="G20" s="181"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="178"/>
+      <c r="J20" s="179"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8126,11 +8114,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="174"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="178"/>
+      <c r="J21" s="179"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8140,11 +8128,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="174"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="178"/>
+      <c r="J22" s="179"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8154,11 +8142,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="174"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="178"/>
+      <c r="J23" s="179"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8168,11 +8156,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="174"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="178"/>
+      <c r="J24" s="179"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8182,11 +8170,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="174"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="179"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8196,11 +8184,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="174"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="179"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8210,11 +8198,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="174"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="178"/>
+      <c r="J27" s="179"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8224,11 +8212,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="174"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="178"/>
+      <c r="J28" s="179"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8238,11 +8226,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="174"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="178"/>
+      <c r="J29" s="179"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8252,11 +8240,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="178"/>
+      <c r="J30" s="179"/>
     </row>
     <row r="31" spans="1:18" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
@@ -8266,11 +8254,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="174"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="179"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -8287,11 +8275,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="179"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -8308,11 +8296,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="179"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -8329,11 +8317,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="177"/>
+      <c r="I34" s="178"/>
+      <c r="J34" s="179"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -8350,11 +8338,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="174"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="177"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="179"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -8371,11 +8359,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="177"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="179"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -8392,11 +8380,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="173"/>
-      <c r="J37" s="174"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="177"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="179"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -8413,11 +8401,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="174"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="177"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="179"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -8434,11 +8422,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="173"/>
-      <c r="J39" s="174"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="177"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="179"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -8455,11 +8443,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="141"/>
-      <c r="G40" s="143"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
+      <c r="F40" s="144"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="177"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="179"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -8476,11 +8464,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="143"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="174"/>
+      <c r="F41" s="144"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="177"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="179"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -8497,11 +8485,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="141"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="174"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="177"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="179"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -8518,11 +8506,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="141"/>
-      <c r="G43" s="143"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="173"/>
-      <c r="J43" s="174"/>
+      <c r="F43" s="144"/>
+      <c r="G43" s="146"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="179"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -8539,11 +8527,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="141"/>
-      <c r="G44" s="143"/>
-      <c r="H44" s="172"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="174"/>
+      <c r="F44" s="144"/>
+      <c r="G44" s="146"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="179"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -8560,11 +8548,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="141"/>
-      <c r="G45" s="143"/>
-      <c r="H45" s="172"/>
-      <c r="I45" s="173"/>
-      <c r="J45" s="174"/>
+      <c r="F45" s="144"/>
+      <c r="G45" s="146"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="179"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -8581,11 +8569,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="141"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="172"/>
-      <c r="I46" s="173"/>
-      <c r="J46" s="174"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="146"/>
+      <c r="H46" s="177"/>
+      <c r="I46" s="178"/>
+      <c r="J46" s="179"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -8602,11 +8590,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="141"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="172"/>
-      <c r="I47" s="173"/>
-      <c r="J47" s="174"/>
+      <c r="F47" s="144"/>
+      <c r="G47" s="146"/>
+      <c r="H47" s="177"/>
+      <c r="I47" s="178"/>
+      <c r="J47" s="179"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -8623,11 +8611,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="143"/>
-      <c r="H48" s="172"/>
-      <c r="I48" s="173"/>
-      <c r="J48" s="174"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="177"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="179"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -8644,11 +8632,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="141"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="172"/>
-      <c r="I49" s="173"/>
-      <c r="J49" s="174"/>
+      <c r="F49" s="144"/>
+      <c r="G49" s="146"/>
+      <c r="H49" s="177"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="179"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -8665,11 +8653,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="141"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="172"/>
-      <c r="I50" s="173"/>
-      <c r="J50" s="174"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="146"/>
+      <c r="H50" s="177"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="179"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -8686,11 +8674,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="172"/>
-      <c r="I51" s="173"/>
-      <c r="J51" s="174"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="177"/>
+      <c r="I51" s="178"/>
+      <c r="J51" s="179"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -8707,11 +8695,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="141"/>
-      <c r="G52" s="143"/>
-      <c r="H52" s="172"/>
-      <c r="I52" s="173"/>
-      <c r="J52" s="174"/>
+      <c r="F52" s="144"/>
+      <c r="G52" s="146"/>
+      <c r="H52" s="177"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="179"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -8728,11 +8716,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="141"/>
-      <c r="G53" s="143"/>
-      <c r="H53" s="172"/>
-      <c r="I53" s="173"/>
-      <c r="J53" s="174"/>
+      <c r="F53" s="144"/>
+      <c r="G53" s="146"/>
+      <c r="H53" s="177"/>
+      <c r="I53" s="178"/>
+      <c r="J53" s="179"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -8749,11 +8737,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="141"/>
-      <c r="G54" s="143"/>
-      <c r="H54" s="172"/>
-      <c r="I54" s="173"/>
-      <c r="J54" s="174"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="146"/>
+      <c r="H54" s="177"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="179"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -8770,11 +8758,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="141"/>
-      <c r="G55" s="143"/>
-      <c r="H55" s="172"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="174"/>
+      <c r="F55" s="144"/>
+      <c r="G55" s="146"/>
+      <c r="H55" s="177"/>
+      <c r="I55" s="178"/>
+      <c r="J55" s="179"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -8786,94 +8774,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="105">
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -8891,6 +8791,94 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E55">
@@ -8941,24 +8929,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="184" t="str">
+      <c r="J1" s="194" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="184"/>
+      <c r="K1" s="194"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -8985,22 +8973,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="184" t="str">
+      <c r="J2" s="194" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="184"/>
+      <c r="K2" s="194"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9057,12 +9045,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="150" t="s">
+      <c r="K4" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="152"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="151"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="158"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9108,12 +9096,12 @@
       <c r="J5" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="K5" s="144" t="s">
+      <c r="K5" s="147" t="s">
         <v>277</v>
       </c>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="146"/>
+      <c r="L5" s="148"/>
+      <c r="M5" s="148"/>
+      <c r="N5" s="149"/>
       <c r="O5" s="126" t="s">
         <v>135</v>
       </c>
@@ -9155,12 +9143,12 @@
       <c r="J6" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="K6" s="144" t="s">
+      <c r="K6" s="147" t="s">
         <v>250</v>
       </c>
-      <c r="L6" s="145"/>
-      <c r="M6" s="145"/>
-      <c r="N6" s="146"/>
+      <c r="L6" s="148"/>
+      <c r="M6" s="148"/>
+      <c r="N6" s="149"/>
       <c r="O6" s="136" t="s">
         <v>279</v>
       </c>
@@ -9204,12 +9192,12 @@
       <c r="J7" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="144" t="s">
+      <c r="K7" s="147" t="s">
         <v>251</v>
       </c>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="146"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="149"/>
       <c r="O7" s="136" t="s">
         <v>281</v>
       </c>
@@ -9241,10 +9229,10 @@
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
       <c r="J8" s="81"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="182"/>
-      <c r="M8" s="182"/>
-      <c r="N8" s="183"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="192"/>
+      <c r="M8" s="192"/>
+      <c r="N8" s="193"/>
       <c r="O8" s="88"/>
       <c r="P8" s="88"/>
       <c r="Q8" s="76"/>
@@ -9266,10 +9254,10 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="81"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="182"/>
-      <c r="M9" s="182"/>
-      <c r="N9" s="183"/>
+      <c r="K9" s="191"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="192"/>
+      <c r="N9" s="193"/>
       <c r="O9" s="88"/>
       <c r="P9" s="88"/>
       <c r="Q9" s="76"/>
@@ -9291,10 +9279,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="81"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="183"/>
+      <c r="K10" s="191"/>
+      <c r="L10" s="192"/>
+      <c r="M10" s="192"/>
+      <c r="N10" s="193"/>
       <c r="O10" s="88"/>
       <c r="P10" s="88"/>
       <c r="Q10" s="76"/>
@@ -9316,10 +9304,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="182"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="183"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="192"/>
+      <c r="M11" s="192"/>
+      <c r="N11" s="193"/>
       <c r="O11" s="88"/>
       <c r="P11" s="88"/>
       <c r="Q11" s="76"/>
@@ -9341,10 +9329,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="183"/>
+      <c r="K12" s="191"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="192"/>
+      <c r="N12" s="193"/>
       <c r="O12" s="84"/>
       <c r="P12" s="84"/>
       <c r="Q12" s="76"/>
@@ -9366,10 +9354,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="182"/>
-      <c r="N13" s="183"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="192"/>
+      <c r="N13" s="193"/>
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="76"/>
@@ -9391,10 +9379,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="81"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="182"/>
-      <c r="M14" s="182"/>
-      <c r="N14" s="183"/>
+      <c r="K14" s="191"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="192"/>
+      <c r="N14" s="193"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="76"/>
@@ -9416,10 +9404,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="81"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="183"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="192"/>
+      <c r="N15" s="193"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="76"/>
@@ -9441,10 +9429,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="183"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="192"/>
+      <c r="M16" s="192"/>
+      <c r="N16" s="193"/>
       <c r="O16" s="72"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
@@ -9466,10 +9454,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="183"/>
+      <c r="K17" s="191"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="193"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -9491,10 +9479,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="183"/>
+      <c r="K18" s="191"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="192"/>
+      <c r="N18" s="193"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -9516,10 +9504,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="183"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="192"/>
+      <c r="M19" s="192"/>
+      <c r="N19" s="193"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -9541,10 +9529,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="183"/>
+      <c r="K20" s="191"/>
+      <c r="L20" s="192"/>
+      <c r="M20" s="192"/>
+      <c r="N20" s="193"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -9566,10 +9554,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="183"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="192"/>
+      <c r="M21" s="192"/>
+      <c r="N21" s="193"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -9591,10 +9579,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="183"/>
+      <c r="K22" s="191"/>
+      <c r="L22" s="192"/>
+      <c r="M22" s="192"/>
+      <c r="N22" s="193"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -9616,10 +9604,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="183"/>
+      <c r="K23" s="191"/>
+      <c r="L23" s="192"/>
+      <c r="M23" s="192"/>
+      <c r="N23" s="193"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -9641,10 +9629,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="183"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="192"/>
+      <c r="M24" s="192"/>
+      <c r="N24" s="193"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -9666,10 +9654,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="183"/>
+      <c r="K25" s="191"/>
+      <c r="L25" s="192"/>
+      <c r="M25" s="192"/>
+      <c r="N25" s="193"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -9691,10 +9679,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="183"/>
+      <c r="K26" s="191"/>
+      <c r="L26" s="192"/>
+      <c r="M26" s="192"/>
+      <c r="N26" s="193"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -9716,10 +9704,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="183"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="192"/>
+      <c r="M27" s="192"/>
+      <c r="N27" s="193"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -9741,10 +9729,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="183"/>
+      <c r="K28" s="191"/>
+      <c r="L28" s="192"/>
+      <c r="M28" s="192"/>
+      <c r="N28" s="193"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -9766,10 +9754,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="183"/>
+      <c r="K29" s="191"/>
+      <c r="L29" s="192"/>
+      <c r="M29" s="192"/>
+      <c r="N29" s="193"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -9791,10 +9779,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="183"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="192"/>
+      <c r="M30" s="192"/>
+      <c r="N30" s="193"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -9816,10 +9804,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="183"/>
+      <c r="K31" s="191"/>
+      <c r="L31" s="192"/>
+      <c r="M31" s="192"/>
+      <c r="N31" s="193"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -9841,10 +9829,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="183"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="192"/>
+      <c r="M32" s="192"/>
+      <c r="N32" s="193"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -9866,10 +9854,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="183"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="192"/>
+      <c r="M33" s="192"/>
+      <c r="N33" s="193"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -9891,10 +9879,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="81"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="183"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="192"/>
+      <c r="M34" s="192"/>
+      <c r="N34" s="193"/>
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
       <c r="Q34" s="76"/>
@@ -9916,10 +9904,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="182"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="183"/>
+      <c r="K35" s="191"/>
+      <c r="L35" s="192"/>
+      <c r="M35" s="192"/>
+      <c r="N35" s="193"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="76"/>
@@ -9941,10 +9929,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="181"/>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="183"/>
+      <c r="K36" s="191"/>
+      <c r="L36" s="192"/>
+      <c r="M36" s="192"/>
+      <c r="N36" s="193"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -9966,10 +9954,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="181"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="182"/>
-      <c r="N37" s="183"/>
+      <c r="K37" s="191"/>
+      <c r="L37" s="192"/>
+      <c r="M37" s="192"/>
+      <c r="N37" s="193"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -9991,10 +9979,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="181"/>
-      <c r="L38" s="182"/>
-      <c r="M38" s="182"/>
-      <c r="N38" s="183"/>
+      <c r="K38" s="191"/>
+      <c r="L38" s="192"/>
+      <c r="M38" s="192"/>
+      <c r="N38" s="193"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10016,10 +10004,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="182"/>
-      <c r="M39" s="182"/>
-      <c r="N39" s="183"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="192"/>
+      <c r="M39" s="192"/>
+      <c r="N39" s="193"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10041,10 +10029,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="181"/>
-      <c r="L40" s="182"/>
-      <c r="M40" s="182"/>
-      <c r="N40" s="183"/>
+      <c r="K40" s="191"/>
+      <c r="L40" s="192"/>
+      <c r="M40" s="192"/>
+      <c r="N40" s="193"/>
       <c r="O40" s="74"/>
       <c r="P40" s="74"/>
       <c r="Q40" s="76"/>
@@ -10066,10 +10054,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="181"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="182"/>
-      <c r="N41" s="183"/>
+      <c r="K41" s="191"/>
+      <c r="L41" s="192"/>
+      <c r="M41" s="192"/>
+      <c r="N41" s="193"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10091,10 +10079,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="181"/>
-      <c r="L42" s="182"/>
-      <c r="M42" s="182"/>
-      <c r="N42" s="183"/>
+      <c r="K42" s="191"/>
+      <c r="L42" s="192"/>
+      <c r="M42" s="192"/>
+      <c r="N42" s="193"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10116,10 +10104,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="181"/>
-      <c r="L43" s="182"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="183"/>
+      <c r="K43" s="191"/>
+      <c r="L43" s="192"/>
+      <c r="M43" s="192"/>
+      <c r="N43" s="193"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10141,10 +10129,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="181"/>
-      <c r="L44" s="182"/>
-      <c r="M44" s="182"/>
-      <c r="N44" s="183"/>
+      <c r="K44" s="191"/>
+      <c r="L44" s="192"/>
+      <c r="M44" s="192"/>
+      <c r="N44" s="193"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10166,10 +10154,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="182"/>
-      <c r="M45" s="182"/>
-      <c r="N45" s="183"/>
+      <c r="K45" s="191"/>
+      <c r="L45" s="192"/>
+      <c r="M45" s="192"/>
+      <c r="N45" s="193"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10191,10 +10179,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="181"/>
-      <c r="L46" s="182"/>
-      <c r="M46" s="182"/>
-      <c r="N46" s="183"/>
+      <c r="K46" s="191"/>
+      <c r="L46" s="192"/>
+      <c r="M46" s="192"/>
+      <c r="N46" s="193"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10216,10 +10204,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="181"/>
-      <c r="L47" s="182"/>
-      <c r="M47" s="182"/>
-      <c r="N47" s="183"/>
+      <c r="K47" s="191"/>
+      <c r="L47" s="192"/>
+      <c r="M47" s="192"/>
+      <c r="N47" s="193"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -10241,10 +10229,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="181"/>
-      <c r="L48" s="182"/>
-      <c r="M48" s="182"/>
-      <c r="N48" s="183"/>
+      <c r="K48" s="191"/>
+      <c r="L48" s="192"/>
+      <c r="M48" s="192"/>
+      <c r="N48" s="193"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -10266,10 +10254,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="181"/>
-      <c r="L49" s="182"/>
-      <c r="M49" s="182"/>
-      <c r="N49" s="183"/>
+      <c r="K49" s="191"/>
+      <c r="L49" s="192"/>
+      <c r="M49" s="192"/>
+      <c r="N49" s="193"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -10291,10 +10279,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="181"/>
-      <c r="L50" s="182"/>
-      <c r="M50" s="182"/>
-      <c r="N50" s="183"/>
+      <c r="K50" s="191"/>
+      <c r="L50" s="192"/>
+      <c r="M50" s="192"/>
+      <c r="N50" s="193"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -10316,10 +10304,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="181"/>
-      <c r="L51" s="182"/>
-      <c r="M51" s="182"/>
-      <c r="N51" s="183"/>
+      <c r="K51" s="191"/>
+      <c r="L51" s="192"/>
+      <c r="M51" s="192"/>
+      <c r="N51" s="193"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -10341,10 +10329,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="181"/>
-      <c r="L52" s="182"/>
-      <c r="M52" s="182"/>
-      <c r="N52" s="183"/>
+      <c r="K52" s="191"/>
+      <c r="L52" s="192"/>
+      <c r="M52" s="192"/>
+      <c r="N52" s="193"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -10366,10 +10354,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="181"/>
-      <c r="L53" s="182"/>
-      <c r="M53" s="182"/>
-      <c r="N53" s="183"/>
+      <c r="K53" s="191"/>
+      <c r="L53" s="192"/>
+      <c r="M53" s="192"/>
+      <c r="N53" s="193"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -10391,10 +10379,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="181"/>
-      <c r="L54" s="182"/>
-      <c r="M54" s="182"/>
-      <c r="N54" s="183"/>
+      <c r="K54" s="191"/>
+      <c r="L54" s="192"/>
+      <c r="M54" s="192"/>
+      <c r="N54" s="193"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -10416,10 +10404,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="181"/>
-      <c r="L55" s="182"/>
-      <c r="M55" s="182"/>
-      <c r="N55" s="183"/>
+      <c r="K55" s="191"/>
+      <c r="L55" s="192"/>
+      <c r="M55" s="192"/>
+      <c r="N55" s="193"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -10441,10 +10429,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="181"/>
-      <c r="L56" s="182"/>
-      <c r="M56" s="182"/>
-      <c r="N56" s="183"/>
+      <c r="K56" s="191"/>
+      <c r="L56" s="192"/>
+      <c r="M56" s="192"/>
+      <c r="N56" s="193"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -10466,10 +10454,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="181"/>
-      <c r="L57" s="182"/>
-      <c r="M57" s="182"/>
-      <c r="N57" s="183"/>
+      <c r="K57" s="191"/>
+      <c r="L57" s="192"/>
+      <c r="M57" s="192"/>
+      <c r="N57" s="193"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -10491,10 +10479,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="181"/>
-      <c r="L58" s="182"/>
-      <c r="M58" s="182"/>
-      <c r="N58" s="183"/>
+      <c r="K58" s="191"/>
+      <c r="L58" s="192"/>
+      <c r="M58" s="192"/>
+      <c r="N58" s="193"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -10516,10 +10504,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="181"/>
-      <c r="L59" s="182"/>
-      <c r="M59" s="182"/>
-      <c r="N59" s="183"/>
+      <c r="K59" s="191"/>
+      <c r="L59" s="192"/>
+      <c r="M59" s="192"/>
+      <c r="N59" s="193"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -10541,10 +10529,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="181"/>
-      <c r="L60" s="182"/>
-      <c r="M60" s="182"/>
-      <c r="N60" s="183"/>
+      <c r="K60" s="191"/>
+      <c r="L60" s="192"/>
+      <c r="M60" s="192"/>
+      <c r="N60" s="193"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -10566,10 +10554,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="181"/>
-      <c r="L61" s="182"/>
-      <c r="M61" s="182"/>
-      <c r="N61" s="183"/>
+      <c r="K61" s="191"/>
+      <c r="L61" s="192"/>
+      <c r="M61" s="192"/>
+      <c r="N61" s="193"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -10591,10 +10579,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="181"/>
-      <c r="L62" s="182"/>
-      <c r="M62" s="182"/>
-      <c r="N62" s="183"/>
+      <c r="K62" s="191"/>
+      <c r="L62" s="192"/>
+      <c r="M62" s="192"/>
+      <c r="N62" s="193"/>
       <c r="O62" s="83"/>
       <c r="P62" s="83"/>
       <c r="Q62" s="76"/>
@@ -10616,10 +10604,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="181"/>
-      <c r="L63" s="182"/>
-      <c r="M63" s="182"/>
-      <c r="N63" s="183"/>
+      <c r="K63" s="191"/>
+      <c r="L63" s="192"/>
+      <c r="M63" s="192"/>
+      <c r="N63" s="193"/>
       <c r="O63" s="83"/>
       <c r="P63" s="83"/>
       <c r="Q63" s="76"/>
@@ -10641,10 +10629,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="181"/>
-      <c r="L64" s="182"/>
-      <c r="M64" s="182"/>
-      <c r="N64" s="183"/>
+      <c r="K64" s="191"/>
+      <c r="L64" s="192"/>
+      <c r="M64" s="192"/>
+      <c r="N64" s="193"/>
       <c r="O64" s="83"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="76"/>
@@ -10664,10 +10652,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="181"/>
-      <c r="L65" s="182"/>
-      <c r="M65" s="182"/>
-      <c r="N65" s="183"/>
+      <c r="K65" s="191"/>
+      <c r="L65" s="192"/>
+      <c r="M65" s="192"/>
+      <c r="N65" s="193"/>
       <c r="O65" s="83"/>
       <c r="P65" s="83"/>
       <c r="Q65" s="76"/>
@@ -10687,10 +10675,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="181"/>
-      <c r="L66" s="182"/>
-      <c r="M66" s="182"/>
-      <c r="N66" s="183"/>
+      <c r="K66" s="191"/>
+      <c r="L66" s="192"/>
+      <c r="M66" s="192"/>
+      <c r="N66" s="193"/>
       <c r="O66" s="83"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="76"/>
@@ -10710,10 +10698,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="181"/>
-      <c r="L67" s="182"/>
-      <c r="M67" s="182"/>
-      <c r="N67" s="183"/>
+      <c r="K67" s="191"/>
+      <c r="L67" s="192"/>
+      <c r="M67" s="192"/>
+      <c r="N67" s="193"/>
       <c r="O67" s="83"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="76"/>
@@ -10733,10 +10721,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="181"/>
-      <c r="L68" s="182"/>
-      <c r="M68" s="182"/>
-      <c r="N68" s="183"/>
+      <c r="K68" s="191"/>
+      <c r="L68" s="192"/>
+      <c r="M68" s="192"/>
+      <c r="N68" s="193"/>
       <c r="O68" s="83"/>
       <c r="P68" s="83"/>
       <c r="Q68" s="76"/>
@@ -10756,10 +10744,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="181"/>
-      <c r="L69" s="182"/>
-      <c r="M69" s="182"/>
-      <c r="N69" s="183"/>
+      <c r="K69" s="191"/>
+      <c r="L69" s="192"/>
+      <c r="M69" s="192"/>
+      <c r="N69" s="193"/>
       <c r="O69" s="83"/>
       <c r="P69" s="83"/>
       <c r="Q69" s="76"/>
@@ -10779,10 +10767,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="181"/>
-      <c r="L70" s="182"/>
-      <c r="M70" s="182"/>
-      <c r="N70" s="183"/>
+      <c r="K70" s="191"/>
+      <c r="L70" s="192"/>
+      <c r="M70" s="192"/>
+      <c r="N70" s="193"/>
       <c r="O70" s="83"/>
       <c r="P70" s="83"/>
       <c r="Q70" s="76"/>
@@ -10802,10 +10790,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="181"/>
-      <c r="L71" s="182"/>
-      <c r="M71" s="182"/>
-      <c r="N71" s="183"/>
+      <c r="K71" s="191"/>
+      <c r="L71" s="192"/>
+      <c r="M71" s="192"/>
+      <c r="N71" s="193"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="76"/>
@@ -10825,10 +10813,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="181"/>
-      <c r="L72" s="182"/>
-      <c r="M72" s="182"/>
-      <c r="N72" s="183"/>
+      <c r="K72" s="191"/>
+      <c r="L72" s="192"/>
+      <c r="M72" s="192"/>
+      <c r="N72" s="193"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="76"/>
@@ -10848,10 +10836,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="181"/>
-      <c r="L73" s="182"/>
-      <c r="M73" s="182"/>
-      <c r="N73" s="183"/>
+      <c r="K73" s="191"/>
+      <c r="L73" s="192"/>
+      <c r="M73" s="192"/>
+      <c r="N73" s="193"/>
       <c r="O73" s="83"/>
       <c r="P73" s="83"/>
       <c r="Q73" s="76"/>
@@ -10871,10 +10859,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="181"/>
-      <c r="L74" s="182"/>
-      <c r="M74" s="182"/>
-      <c r="N74" s="183"/>
+      <c r="K74" s="191"/>
+      <c r="L74" s="192"/>
+      <c r="M74" s="192"/>
+      <c r="N74" s="193"/>
       <c r="O74" s="83"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="76"/>
@@ -10894,10 +10882,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="181"/>
-      <c r="L75" s="182"/>
-      <c r="M75" s="182"/>
-      <c r="N75" s="183"/>
+      <c r="K75" s="191"/>
+      <c r="L75" s="192"/>
+      <c r="M75" s="192"/>
+      <c r="N75" s="193"/>
       <c r="O75" s="83"/>
       <c r="P75" s="83"/>
       <c r="Q75" s="76"/>
@@ -10917,10 +10905,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="181"/>
-      <c r="L76" s="182"/>
-      <c r="M76" s="182"/>
-      <c r="N76" s="183"/>
+      <c r="K76" s="191"/>
+      <c r="L76" s="192"/>
+      <c r="M76" s="192"/>
+      <c r="N76" s="193"/>
       <c r="O76" s="83"/>
       <c r="P76" s="83"/>
       <c r="Q76" s="76"/>
@@ -10940,10 +10928,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="181"/>
-      <c r="L77" s="182"/>
-      <c r="M77" s="182"/>
-      <c r="N77" s="183"/>
+      <c r="K77" s="191"/>
+      <c r="L77" s="192"/>
+      <c r="M77" s="192"/>
+      <c r="N77" s="193"/>
       <c r="O77" s="83"/>
       <c r="P77" s="83"/>
       <c r="Q77" s="76"/>
@@ -10963,10 +10951,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="181"/>
-      <c r="L78" s="182"/>
-      <c r="M78" s="182"/>
-      <c r="N78" s="183"/>
+      <c r="K78" s="191"/>
+      <c r="L78" s="192"/>
+      <c r="M78" s="192"/>
+      <c r="N78" s="193"/>
       <c r="O78" s="83"/>
       <c r="P78" s="83"/>
       <c r="Q78" s="76"/>
@@ -10986,10 +10974,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="181"/>
-      <c r="L79" s="182"/>
-      <c r="M79" s="182"/>
-      <c r="N79" s="183"/>
+      <c r="K79" s="191"/>
+      <c r="L79" s="192"/>
+      <c r="M79" s="192"/>
+      <c r="N79" s="193"/>
       <c r="O79" s="83"/>
       <c r="P79" s="83"/>
       <c r="Q79" s="76"/>
@@ -11009,10 +10997,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="181"/>
-      <c r="L80" s="182"/>
-      <c r="M80" s="182"/>
-      <c r="N80" s="183"/>
+      <c r="K80" s="191"/>
+      <c r="L80" s="192"/>
+      <c r="M80" s="192"/>
+      <c r="N80" s="193"/>
       <c r="O80" s="83"/>
       <c r="P80" s="83"/>
       <c r="Q80" s="76"/>
@@ -11032,10 +11020,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="181"/>
-      <c r="L81" s="182"/>
-      <c r="M81" s="182"/>
-      <c r="N81" s="183"/>
+      <c r="K81" s="191"/>
+      <c r="L81" s="192"/>
+      <c r="M81" s="192"/>
+      <c r="N81" s="193"/>
       <c r="O81" s="83"/>
       <c r="P81" s="83"/>
       <c r="Q81" s="76"/>
@@ -11055,10 +11043,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="181"/>
-      <c r="L82" s="182"/>
-      <c r="M82" s="182"/>
-      <c r="N82" s="183"/>
+      <c r="K82" s="191"/>
+      <c r="L82" s="192"/>
+      <c r="M82" s="192"/>
+      <c r="N82" s="193"/>
       <c r="O82" s="83"/>
       <c r="P82" s="83"/>
       <c r="Q82" s="76"/>
@@ -11078,10 +11066,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="181"/>
-      <c r="L83" s="182"/>
-      <c r="M83" s="182"/>
-      <c r="N83" s="183"/>
+      <c r="K83" s="191"/>
+      <c r="L83" s="192"/>
+      <c r="M83" s="192"/>
+      <c r="N83" s="193"/>
       <c r="O83" s="83"/>
       <c r="P83" s="83"/>
       <c r="Q83" s="76"/>
@@ -11101,10 +11089,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="181"/>
-      <c r="L84" s="182"/>
-      <c r="M84" s="182"/>
-      <c r="N84" s="183"/>
+      <c r="K84" s="191"/>
+      <c r="L84" s="192"/>
+      <c r="M84" s="192"/>
+      <c r="N84" s="193"/>
       <c r="O84" s="83"/>
       <c r="P84" s="83"/>
       <c r="Q84" s="76"/>
@@ -11124,10 +11112,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="181"/>
-      <c r="L85" s="182"/>
-      <c r="M85" s="182"/>
-      <c r="N85" s="183"/>
+      <c r="K85" s="191"/>
+      <c r="L85" s="192"/>
+      <c r="M85" s="192"/>
+      <c r="N85" s="193"/>
       <c r="O85" s="83"/>
       <c r="P85" s="83"/>
       <c r="Q85" s="76"/>
@@ -11147,10 +11135,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="181"/>
-      <c r="L86" s="182"/>
-      <c r="M86" s="182"/>
-      <c r="N86" s="183"/>
+      <c r="K86" s="191"/>
+      <c r="L86" s="192"/>
+      <c r="M86" s="192"/>
+      <c r="N86" s="193"/>
       <c r="O86" s="83"/>
       <c r="P86" s="83"/>
       <c r="Q86" s="76"/>
@@ -11170,10 +11158,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="181"/>
-      <c r="L87" s="182"/>
-      <c r="M87" s="182"/>
-      <c r="N87" s="183"/>
+      <c r="K87" s="191"/>
+      <c r="L87" s="192"/>
+      <c r="M87" s="192"/>
+      <c r="N87" s="193"/>
       <c r="O87" s="83"/>
       <c r="P87" s="83"/>
       <c r="Q87" s="76"/>
@@ -11193,10 +11181,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="181"/>
-      <c r="L88" s="182"/>
-      <c r="M88" s="182"/>
-      <c r="N88" s="183"/>
+      <c r="K88" s="191"/>
+      <c r="L88" s="192"/>
+      <c r="M88" s="192"/>
+      <c r="N88" s="193"/>
       <c r="O88" s="83"/>
       <c r="P88" s="83"/>
       <c r="Q88" s="76"/>
@@ -11216,10 +11204,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="181"/>
-      <c r="L89" s="182"/>
-      <c r="M89" s="182"/>
-      <c r="N89" s="183"/>
+      <c r="K89" s="191"/>
+      <c r="L89" s="192"/>
+      <c r="M89" s="192"/>
+      <c r="N89" s="193"/>
       <c r="O89" s="83"/>
       <c r="P89" s="83"/>
       <c r="Q89" s="76"/>
@@ -11239,10 +11227,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="181"/>
-      <c r="L90" s="182"/>
-      <c r="M90" s="182"/>
-      <c r="N90" s="183"/>
+      <c r="K90" s="191"/>
+      <c r="L90" s="192"/>
+      <c r="M90" s="192"/>
+      <c r="N90" s="193"/>
       <c r="O90" s="83"/>
       <c r="P90" s="83"/>
       <c r="Q90" s="76"/>
@@ -11262,10 +11250,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="181"/>
-      <c r="L91" s="182"/>
-      <c r="M91" s="182"/>
-      <c r="N91" s="183"/>
+      <c r="K91" s="191"/>
+      <c r="L91" s="192"/>
+      <c r="M91" s="192"/>
+      <c r="N91" s="193"/>
       <c r="O91" s="83"/>
       <c r="P91" s="83"/>
       <c r="Q91" s="76"/>
@@ -11285,10 +11273,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="181"/>
-      <c r="L92" s="182"/>
-      <c r="M92" s="182"/>
-      <c r="N92" s="183"/>
+      <c r="K92" s="191"/>
+      <c r="L92" s="192"/>
+      <c r="M92" s="192"/>
+      <c r="N92" s="193"/>
       <c r="O92" s="83"/>
       <c r="P92" s="83"/>
       <c r="Q92" s="76"/>
@@ -11308,10 +11296,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="181"/>
-      <c r="L93" s="182"/>
-      <c r="M93" s="182"/>
-      <c r="N93" s="183"/>
+      <c r="K93" s="191"/>
+      <c r="L93" s="192"/>
+      <c r="M93" s="192"/>
+      <c r="N93" s="193"/>
       <c r="O93" s="83"/>
       <c r="P93" s="83"/>
       <c r="Q93" s="76"/>
@@ -11331,10 +11319,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="181"/>
-      <c r="L94" s="182"/>
-      <c r="M94" s="182"/>
-      <c r="N94" s="183"/>
+      <c r="K94" s="191"/>
+      <c r="L94" s="192"/>
+      <c r="M94" s="192"/>
+      <c r="N94" s="193"/>
       <c r="O94" s="83"/>
       <c r="P94" s="83"/>
       <c r="Q94" s="76"/>
@@ -11347,6 +11335,84 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="K15:N15"/>
@@ -11363,84 +11429,6 @@
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -11486,10 +11474,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="150"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11519,8 +11507,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12252,12 +12240,12 @@
       <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="185" t="s">
+      <c r="B59" s="195" t="s">
         <v>256</v>
       </c>
-      <c r="C59" s="185"/>
-      <c r="D59" s="185"/>
-      <c r="E59" s="185"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="195"/>
+      <c r="E59" s="195"/>
       <c r="F59" s="124"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
@@ -12815,10 +12803,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="150"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12846,8 +12834,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
+      <c r="A2" s="150"/>
+      <c r="B2" s="150"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13258,14 +13246,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
+      <c r="C1" s="196"/>
+      <c r="D1" s="196"/>
+      <c r="E1" s="196"/>
+      <c r="F1" s="196"/>
+      <c r="G1" s="196"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -13458,11 +13446,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="187" t="s">
+      <c r="E27" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="188"/>
-      <c r="G27" s="189"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="199"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="286">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2264,13 +2264,6 @@
     <t>Load nội dung lên màn hình lưới danh mục</t>
   </si>
   <si>
-    <t>EXEC PROCEDURE [dbo].[CP0141]  
- @DivisionID NVARCHAR(50),
- @KeyID NVARCHAR(50),
- @TableID NVARCHAR(50),
- @IsEdit TINYINT  ----  =0  la Xoa,  = 1 la Sua</t>
-  </si>
-  <si>
     <t>DELETE FROM CT0141
 WHERE DivisionID = @DivisionID AND StationID = @StationID</t>
   </si>
@@ -2317,72 +2310,84 @@
     <t>AT1002 CT0141</t>
   </si>
   <si>
+    <t>- Click LinkAdd Gọi màn hình CF0142 - Cập nhật địa điểm (dạng thêm mới)</t>
+  </si>
+  <si>
+    <t>- Click LinkEdit Gọi màn hình CF0142 - Cập nhật địa điểm (dạng Edit)</t>
+  </si>
+  <si>
+    <t>- Click LinkView Gọi màn hình CF0142 - Cập nhật địa điểm (dạng View)</t>
+  </si>
+  <si>
+    <t>- Click System Gọi màn hình Thông tin Hệ thống AS0059</t>
+  </si>
+  <si>
+    <t>- Click Excel Gọi màn hình  Xuất dữ liệu ra Excel - AS0062</t>
+  </si>
+  <si>
+    <t>- Click LinkSearch Gọi màn hình Thanh tìm kiếm - AS0060</t>
+  </si>
+  <si>
+    <t>Thỏa câu @SQL0002 thực thi câu @SQL0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thực thi @SQL0002 Kiểm tra trước khi xóa, nếu không thỏa thì hiển thị message CFML000064 </t>
+  </si>
+  <si>
+    <t>- Nếu thỏa thực thi @SQL0003 để xóa StationID được chọn, thực thi @SQL0001 đển load lại dữ liệu lên gird</t>
+  </si>
+  <si>
+    <t>Popup menu</t>
+  </si>
+  <si>
+    <t>@DivisionID @StationID</t>
+  </si>
+  <si>
+    <t>@@DivisionID Grid.StationID</t>
+  </si>
+  <si>
+    <t>- Tạo mới tài liệu
+- Danh mục địa điểm (Danh mục trạm)</t>
+  </si>
+  <si>
+    <t>EXEC PROCEDURE [dbo].[AP1000]  
+ @DivisionID NVARCHAR(50),
+ @KeyValues NVARCHAR(50),
+ @TableID NVARCHAR(50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@DivisionID
+@KeyValues
+@TableID
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@@DivisionID
+Grid.StationID
+'CT0141'
+</t>
+  </si>
+  <si>
+    <t>Dùng chung</t>
+  </si>
+  <si>
+    <t>IsCommon</t>
+  </si>
+  <si>
     <t>CT41.StationID, CT41.[Address], CT41.StreetNo, CT41.Street, CT41.Ward,
        CT41.District, CT41.CityID, AT02.CityName, CT41.[Description],
-       CT41.[Disabled]</t>
-  </si>
-  <si>
-    <t>- Click LinkAdd Gọi màn hình CF0142 - Cập nhật địa điểm (dạng thêm mới)</t>
-  </si>
-  <si>
-    <t>- Click LinkEdit Gọi màn hình CF0142 - Cập nhật địa điểm (dạng Edit)</t>
-  </si>
-  <si>
-    <t>- Click LinkView Gọi màn hình CF0142 - Cập nhật địa điểm (dạng View)</t>
-  </si>
-  <si>
-    <t>- Click System Gọi màn hình Thông tin Hệ thống AS0059</t>
-  </si>
-  <si>
-    <t>- Click Excel Gọi màn hình  Xuất dữ liệu ra Excel - AS0062</t>
-  </si>
-  <si>
-    <t>- Click LinkSearch Gọi màn hình Thanh tìm kiếm - AS0060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mã địa điểm, Địa chỉ, Số, Đường, Phường/Xã, Quận/Huyện, Tỉnh/Thành Phố, Không hiển thị </t>
-  </si>
-  <si>
-    <t>Thỏa câu @SQL0002 thực thi câu @SQL0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thực thi @SQL0002 Kiểm tra trước khi xóa, nếu không thỏa thì hiển thị message CFML000064 </t>
-  </si>
-  <si>
-    <t>- Nếu thỏa thực thi @SQL0003 để xóa StationID được chọn, thực thi @SQL0001 đển load lại dữ liệu lên gird</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT CT41.StationID, CT41.[Address], CT41.StreetNo, CT41.Street, CT41.Ward, CT41.District, CT41.CityID, AT02.CityName, CT41.[Description], CT41.[Disabled] 
+       CT41.[Disabled], CT41.IsCommon</t>
+  </si>
+  <si>
+    <t>Mã địa điểm, Địa chỉ, Số, Đường, Phường/Xã, Quận/Huyện, Tỉnh/Thành Phố, Không hiển thị , Dùng chung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT CT41.StationID, CT41.[Address], CT41.StreetNo, CT41.Street, CT41.Ward, CT41.District, CT41.CityID, AT02.CityName, CT41.[Description], CT41.[Disabled] , CT41.IsCommon
 FROM CT0141 CT41 
 LEFT JOIN AT1002 AT02 ON AT02.DivisionID = CT41.DivisionID AND AT02.CityID = CT41.CityID
 WHERE CT41.DivisionID = @DivisionID
 ORDER BY CT41.StationID
 </t>
-  </si>
-  <si>
-    <t>Popup menu</t>
-  </si>
-  <si>
-    <t>@DivisionID
-@KeyID
-@TableID
- @IsEdit</t>
-  </si>
-  <si>
-    <t>@@DivisionID
-Grid.StationID
-'CT0141'
-=0  la Xoa,  = 1 la Sua</t>
-  </si>
-  <si>
-    <t>@DivisionID @StationID</t>
-  </si>
-  <si>
-    <t>@@DivisionID Grid.StationID</t>
-  </si>
-  <si>
-    <t>- Tạo mới tài liệu
-- Danh mục địa điểm (Danh mục trạm)</t>
   </si>
 </sst>
 </file>
@@ -2835,7 +2840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="200">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3196,6 +3201,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3223,9 +3237,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3295,6 +3306,39 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3303,39 +3347,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3752,10 +3763,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3782,8 +3793,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3822,14 +3833,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="151" t="s">
+      <c r="E4" s="154" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3844,14 +3855,14 @@
       <c r="D5" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="152" t="s">
-        <v>283</v>
-      </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
+      <c r="E5" s="155" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="140">
@@ -3862,12 +3873,12 @@
       </c>
       <c r="C6" s="142"/>
       <c r="D6" s="143"/>
-      <c r="E6" s="154"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="155"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="155"/>
-      <c r="J6" s="156"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91">
@@ -3878,12 +3889,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="149"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
@@ -3894,12 +3905,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="149"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="151"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="152"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
@@ -3910,12 +3921,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="149"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
@@ -3926,12 +3937,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
@@ -3942,12 +3953,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
+      <c r="E11" s="147"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
@@ -3958,12 +3969,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="144"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="149"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
@@ -3974,12 +3985,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="148"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="149"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98">
@@ -3990,12 +4001,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
+      <c r="E14" s="147"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="149"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4006,12 +4017,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="153"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
@@ -4022,12 +4033,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="153"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="146"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="146"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
@@ -4038,12 +4049,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="146"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="146"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -4054,12 +4065,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="146"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="146"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
@@ -4070,12 +4081,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="146"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
@@ -4086,12 +4097,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="153"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="146"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="146"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
@@ -4102,12 +4113,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="146"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="146"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
@@ -4118,12 +4129,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="146"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="146"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97">
@@ -4134,12 +4145,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="146"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="146"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98">
@@ -4150,12 +4161,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4166,12 +4177,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="146"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="146"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90">
@@ -4182,12 +4193,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="146"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="146"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
@@ -4198,12 +4209,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
+      <c r="E27" s="146"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="146"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
@@ -4214,12 +4225,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="153"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
@@ -4230,12 +4241,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="153"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="153"/>
+      <c r="E29" s="146"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
@@ -4246,12 +4257,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
+      <c r="E30" s="146"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
@@ -4262,12 +4273,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
@@ -4278,12 +4289,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97">
@@ -4294,12 +4305,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="153"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98">
@@ -4310,12 +4321,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="146"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4326,12 +4337,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
+      <c r="E35" s="146"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="146"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90">
@@ -4342,12 +4353,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="146"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -4358,12 +4369,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="153"/>
-      <c r="F37" s="153"/>
-      <c r="G37" s="153"/>
-      <c r="H37" s="153"/>
-      <c r="I37" s="153"/>
-      <c r="J37" s="153"/>
+      <c r="E37" s="146"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="146"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="146"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
@@ -4374,12 +4385,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
+      <c r="E38" s="146"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="146"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="146"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -4390,12 +4401,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="146"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
@@ -4406,12 +4417,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="146"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
@@ -4422,12 +4433,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
+      <c r="E41" s="146"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="146"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="146"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="96">
@@ -4438,32 +4449,23 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
+      <c r="E42" s="146"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="146"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4479,14 +4481,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4703,10 +4714,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4736,8 +4747,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4767,20 +4778,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="157" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="159" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="158"/>
+      <c r="J4" s="160"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -4791,10 +4802,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="166" t="s">
+      <c r="I5" s="168" t="s">
         <v>173</v>
       </c>
-      <c r="J5" s="167"/>
+      <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -4805,8 +4816,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="169"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="171"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -4817,8 +4828,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="169"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="171"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -4829,8 +4840,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="169"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="171"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -4841,8 +4852,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="169"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="171"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -4853,8 +4864,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="171"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="173"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -4865,10 +4876,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="157" t="s">
+      <c r="I11" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="158"/>
+      <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -4879,10 +4890,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="160" t="s">
+      <c r="I12" s="162" t="s">
         <v>226</v>
       </c>
-      <c r="J12" s="161"/>
+      <c r="J12" s="163"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -4893,8 +4904,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="165"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -4905,8 +4916,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="163"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="165"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -4917,8 +4928,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="163"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="165"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -4929,8 +4940,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="163"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="165"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -4941,8 +4952,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="163"/>
+      <c r="I17" s="164"/>
+      <c r="J17" s="165"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -4953,8 +4964,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="163"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="165"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -4965,8 +4976,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="163"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="165"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -4977,8 +4988,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="163"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="165"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -4989,8 +5000,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="163"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="165"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5001,8 +5012,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="163"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="165"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5013,8 +5024,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="163"/>
+      <c r="I23" s="164"/>
+      <c r="J23" s="165"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5025,8 +5036,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="163"/>
+      <c r="I24" s="164"/>
+      <c r="J24" s="165"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5037,8 +5048,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="163"/>
+      <c r="I25" s="164"/>
+      <c r="J25" s="165"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5049,8 +5060,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="163"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="165"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5061,8 +5072,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="163"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="165"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5073,8 +5084,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="163"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="165"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5085,8 +5096,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="163"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="165"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5097,8 +5108,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="163"/>
+      <c r="I30" s="164"/>
+      <c r="J30" s="165"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5109,8 +5120,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="163"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="165"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5121,8 +5132,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="163"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="165"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5133,8 +5144,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="163"/>
+      <c r="I33" s="164"/>
+      <c r="J33" s="165"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5145,8 +5156,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="163"/>
+      <c r="I34" s="164"/>
+      <c r="J34" s="165"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5157,8 +5168,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="163"/>
+      <c r="I35" s="164"/>
+      <c r="J35" s="165"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5169,8 +5180,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="163"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="165"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5181,8 +5192,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="162"/>
-      <c r="J37" s="163"/>
+      <c r="I37" s="164"/>
+      <c r="J37" s="165"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5193,8 +5204,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="162"/>
-      <c r="J38" s="163"/>
+      <c r="I38" s="164"/>
+      <c r="J38" s="165"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5205,8 +5216,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="162"/>
-      <c r="J39" s="163"/>
+      <c r="I39" s="164"/>
+      <c r="J39" s="165"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5217,8 +5228,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="162"/>
-      <c r="J40" s="163"/>
+      <c r="I40" s="164"/>
+      <c r="J40" s="165"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5229,8 +5240,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="162"/>
-      <c r="J41" s="163"/>
+      <c r="I41" s="164"/>
+      <c r="J41" s="165"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5241,8 +5252,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="162"/>
-      <c r="J42" s="163"/>
+      <c r="I42" s="164"/>
+      <c r="J42" s="165"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5253,8 +5264,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="165"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5282,13 +5293,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="N5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11:B21"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5313,13 +5324,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5327,16 +5338,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="172" t="s">
+      <c r="H1" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="173"/>
-      <c r="J1" s="174" t="str">
+      <c r="I1" s="175"/>
+      <c r="J1" s="176" t="str">
         <f>'Update History'!F1</f>
         <v>CF0141</v>
       </c>
-      <c r="K1" s="175"/>
-      <c r="L1" s="176"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="178"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5352,11 +5363,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5364,16 +5375,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="172" t="s">
+      <c r="H2" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="173"/>
-      <c r="J2" s="174" t="str">
+      <c r="I2" s="175"/>
+      <c r="J2" s="176" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục địa điểm</v>
       </c>
-      <c r="K2" s="175"/>
-      <c r="L2" s="176"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="178"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5396,7 +5407,7 @@
         <v>230</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -5563,7 +5574,7 @@
       <c r="N8" s="69"/>
       <c r="O8" s="69"/>
       <c r="P8" s="87" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5745,7 +5756,7 @@
       <c r="N13" s="137"/>
       <c r="O13" s="137"/>
       <c r="P13" s="137" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5795,26 +5806,28 @@
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="33">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E15" s="59" t="s">
-        <v>183</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="83"/>
-      <c r="H15" s="40" t="s">
-        <v>209</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="F15" s="145" t="s">
+        <v>282</v>
+      </c>
+      <c r="G15" s="145" t="s">
+        <v>282</v>
+      </c>
+      <c r="H15" s="40"/>
       <c r="I15" s="40"/>
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
       <c r="L15" s="40"/>
       <c r="M15" s="62"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="87"/>
+      <c r="N15" s="145"/>
+      <c r="O15" s="145">
+        <v>0</v>
+      </c>
+      <c r="P15" s="145"/>
     </row>
     <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -5825,17 +5838,17 @@
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="59" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F16" s="87" t="s">
-        <v>204</v>
-      </c>
-      <c r="G16" s="87"/>
+        <v>207</v>
+      </c>
+      <c r="G16" s="83"/>
       <c r="H16" s="40" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I16" s="40"/>
       <c r="J16" s="62"/>
@@ -5855,23 +5868,23 @@
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" s="59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F17" s="87" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G17" s="87"/>
       <c r="H17" s="40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I17" s="40"/>
       <c r="J17" s="62"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="62"/>
       <c r="L17" s="40"/>
-      <c r="M17" s="69"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="69"/>
       <c r="O17" s="69"/>
       <c r="P17" s="87"/>
@@ -5885,24 +5898,26 @@
       </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="F18" s="137" t="s">
-        <v>211</v>
-      </c>
-      <c r="G18" s="137"/>
-      <c r="H18" s="40"/>
+        <v>185</v>
+      </c>
+      <c r="F18" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="G18" s="87"/>
+      <c r="H18" s="40" t="s">
+        <v>209</v>
+      </c>
       <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
+      <c r="J18" s="62"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="137"/>
-      <c r="P18" s="137"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="87"/>
     </row>
     <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -5913,26 +5928,24 @@
       </c>
       <c r="C19" s="33"/>
       <c r="D19" s="33">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="E19" s="59" t="s">
-        <v>186</v>
-      </c>
-      <c r="F19" s="121" t="s">
-        <v>241</v>
-      </c>
-      <c r="G19" s="83"/>
-      <c r="H19" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="137" t="s">
         <v>211</v>
       </c>
+      <c r="G19" s="137"/>
+      <c r="H19" s="40"/>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="87"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -5943,15 +5956,15 @@
       </c>
       <c r="C20" s="33"/>
       <c r="D20" s="33">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F20" s="121" t="s">
-        <v>242</v>
-      </c>
-      <c r="G20" s="87"/>
+        <v>241</v>
+      </c>
+      <c r="G20" s="83"/>
       <c r="H20" s="40" t="s">
         <v>211</v>
       </c>
@@ -5961,7 +5974,7 @@
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="69"/>
+      <c r="O20" s="82"/>
       <c r="P20" s="87"/>
     </row>
     <row r="21" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5973,13 +5986,13 @@
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="33">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="E21" s="59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F21" s="121" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G21" s="87"/>
       <c r="H21" s="40" t="s">
@@ -6003,13 +6016,13 @@
       </c>
       <c r="C22" s="33"/>
       <c r="D22" s="33">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" s="121" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G22" s="87"/>
       <c r="H22" s="40" t="s">
@@ -6021,7 +6034,7 @@
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="87"/>
+      <c r="O22" s="69"/>
       <c r="P22" s="87"/>
     </row>
     <row r="23" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6033,13 +6046,13 @@
       </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="E23" s="59" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F23" s="121" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G23" s="87"/>
       <c r="H23" s="40" t="s">
@@ -6051,7 +6064,7 @@
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="69"/>
+      <c r="O23" s="87"/>
       <c r="P23" s="87"/>
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6063,26 +6076,26 @@
       </c>
       <c r="C24" s="33"/>
       <c r="D24" s="33">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="E24" s="59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F24" s="121" t="s">
-        <v>246</v>
-      </c>
-      <c r="G24" s="83"/>
+        <v>245</v>
+      </c>
+      <c r="G24" s="87"/>
       <c r="H24" s="40" t="s">
         <v>211</v>
       </c>
       <c r="I24" s="40"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="61"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="40"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="32"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="40"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="87"/>
     </row>
     <row r="25" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -6093,15 +6106,15 @@
       </c>
       <c r="C25" s="33"/>
       <c r="D25" s="33">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="E25" s="59" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" s="121" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="82"/>
+        <v>246</v>
+      </c>
+      <c r="G25" s="83"/>
       <c r="H25" s="40" t="s">
         <v>211</v>
       </c>
@@ -6109,9 +6122,9 @@
       <c r="J25" s="40"/>
       <c r="K25" s="61"/>
       <c r="L25" s="40"/>
-      <c r="M25" s="62"/>
+      <c r="M25" s="61"/>
       <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
+      <c r="O25" s="40"/>
       <c r="P25" s="32"/>
     </row>
     <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6123,15 +6136,15 @@
       </c>
       <c r="C26" s="33"/>
       <c r="D26" s="33">
-        <v>6.8</v>
-      </c>
-      <c r="E26" s="86" t="s">
-        <v>193</v>
+        <v>6.7</v>
+      </c>
+      <c r="E26" s="59" t="s">
+        <v>192</v>
       </c>
       <c r="F26" s="121" t="s">
-        <v>203</v>
-      </c>
-      <c r="G26" s="40"/>
+        <v>202</v>
+      </c>
+      <c r="G26" s="82"/>
       <c r="H26" s="40" t="s">
         <v>211</v>
       </c>
@@ -6148,13 +6161,23 @@
       <c r="A27" s="33">
         <v>23</v>
       </c>
-      <c r="B27" s="33"/>
+      <c r="B27" s="33" t="s">
+        <v>232</v>
+      </c>
       <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
+      <c r="D27" s="33">
+        <v>6.8</v>
+      </c>
+      <c r="E27" s="86" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="121" t="s">
+        <v>203</v>
+      </c>
       <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="H27" s="40" t="s">
+        <v>211</v>
+      </c>
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
       <c r="K27" s="61"/>
@@ -6206,7 +6229,7 @@
     </row>
     <row r="30" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -6226,7 +6249,7 @@
     </row>
     <row r="31" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -6246,7 +6269,7 @@
     </row>
     <row r="32" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -6266,7 +6289,7 @@
     </row>
     <row r="33" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -6286,7 +6309,7 @@
     </row>
     <row r="34" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -6306,7 +6329,7 @@
     </row>
     <row r="35" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -6326,7 +6349,7 @@
     </row>
     <row r="36" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -6346,7 +6369,7 @@
     </row>
     <row r="37" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -6366,7 +6389,7 @@
     </row>
     <row r="38" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -6386,7 +6409,7 @@
     </row>
     <row r="39" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -6406,7 +6429,7 @@
     </row>
     <row r="40" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -6426,7 +6449,7 @@
     </row>
     <row r="41" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -6446,7 +6469,7 @@
     </row>
     <row r="42" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -6466,7 +6489,7 @@
     </row>
     <row r="43" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -6486,7 +6509,7 @@
     </row>
     <row r="44" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -6506,7 +6529,7 @@
     </row>
     <row r="45" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -6526,7 +6549,7 @@
     </row>
     <row r="46" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -6546,7 +6569,7 @@
     </row>
     <row r="47" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -6566,14 +6589,14 @@
     </row>
     <row r="48" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
+      <c r="E48" s="69"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="40"/>
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
@@ -6586,14 +6609,14 @@
     </row>
     <row r="49" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="74"/>
       <c r="F49" s="74"/>
-      <c r="G49" s="40"/>
+      <c r="G49" s="74"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
@@ -6606,14 +6629,14 @@
     </row>
     <row r="50" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="74"/>
       <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
+      <c r="G50" s="40"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
@@ -6626,14 +6649,14 @@
     </row>
     <row r="51" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="74"/>
       <c r="F51" s="74"/>
-      <c r="G51" s="40"/>
+      <c r="G51" s="74"/>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
       <c r="J51" s="40"/>
@@ -6646,7 +6669,7 @@
     </row>
     <row r="52" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -6666,7 +6689,7 @@
     </row>
     <row r="53" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -6686,7 +6709,7 @@
     </row>
     <row r="54" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -6704,6 +6727,26 @@
       <c r="O54" s="61"/>
       <c r="P54" s="32"/>
     </row>
+    <row r="55" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="33">
+        <v>50</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="74"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="61"/>
+      <c r="O55" s="61"/>
+      <c r="P55" s="32"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E2"/>
@@ -6713,20 +6756,20 @@
     <mergeCell ref="J2:L2"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N25:O54 M24:N24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N26:O55 M25:N25">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I54 I5:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I23:I55 I5:I20">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G26:G54 G5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L54">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G27:G55 G5"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L55">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Combo Column,Grid Column,Data Column,Other"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6:H55">
       <formula1>"Caption,Textbox,DateTimePicker,RichTextbox,Label,ComboBox,CheckBox,RadioButton,Button,DataGrid, Image,Link,Form,Frame,Menu,MenuItem,Combo Column,Grid Column,Data Column,DropDown,Other"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7704,7 +7747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C15:C16"/>
     </sheetView>
   </sheetViews>
@@ -7729,7 +7772,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="128"/>
@@ -7764,7 +7807,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="183"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="129"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -7812,15 +7855,15 @@
       <c r="E4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="150" t="s">
+      <c r="F4" s="153" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150" t="s">
+      <c r="G4" s="153"/>
+      <c r="H4" s="153" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -7836,15 +7879,15 @@
         <v>135</v>
       </c>
       <c r="E5" s="27"/>
-      <c r="F5" s="187" t="s">
+      <c r="F5" s="184" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="188"/>
-      <c r="H5" s="184" t="s">
+      <c r="G5" s="185"/>
+      <c r="H5" s="181" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="185"/>
-      <c r="J5" s="186"/>
+      <c r="I5" s="182"/>
+      <c r="J5" s="183"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -7860,15 +7903,15 @@
         <v>238</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="189" t="s">
+      <c r="F6" s="188" t="s">
         <v>240</v>
       </c>
-      <c r="G6" s="190"/>
-      <c r="H6" s="184" t="s">
+      <c r="G6" s="189"/>
+      <c r="H6" s="181" t="s">
         <v>242</v>
       </c>
-      <c r="I6" s="185"/>
-      <c r="J6" s="186"/>
+      <c r="I6" s="182"/>
+      <c r="J6" s="183"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -7884,15 +7927,15 @@
         <v>238</v>
       </c>
       <c r="E7" s="27"/>
-      <c r="F7" s="189" t="s">
+      <c r="F7" s="188" t="s">
         <v>240</v>
       </c>
-      <c r="G7" s="190"/>
-      <c r="H7" s="184" t="s">
+      <c r="G7" s="189"/>
+      <c r="H7" s="181" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="185"/>
-      <c r="J7" s="186"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="183"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -7908,15 +7951,15 @@
         <v>135</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="187" t="s">
+      <c r="F8" s="184" t="s">
         <v>234</v>
       </c>
-      <c r="G8" s="188"/>
-      <c r="H8" s="184" t="s">
+      <c r="G8" s="185"/>
+      <c r="H8" s="181" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="185"/>
-      <c r="J8" s="186"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="183"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -7932,15 +7975,15 @@
         <v>235</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="187" t="s">
+      <c r="F9" s="184" t="s">
         <v>236</v>
       </c>
-      <c r="G9" s="188"/>
-      <c r="H9" s="184" t="s">
+      <c r="G9" s="185"/>
+      <c r="H9" s="181" t="s">
         <v>202</v>
       </c>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -7956,15 +7999,15 @@
         <v>135</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="187" t="s">
+      <c r="F10" s="184" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="188"/>
-      <c r="H10" s="184" t="s">
+      <c r="G10" s="185"/>
+      <c r="H10" s="181" t="s">
         <v>203</v>
       </c>
-      <c r="I10" s="185"/>
-      <c r="J10" s="186"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="183"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -7974,11 +8017,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="178"/>
-      <c r="J11" s="179"/>
+      <c r="F11" s="186"/>
+      <c r="G11" s="187"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="191"/>
+      <c r="J11" s="192"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -7988,11 +8031,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="181"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="178"/>
-      <c r="J12" s="179"/>
+      <c r="F12" s="186"/>
+      <c r="G12" s="187"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="191"/>
+      <c r="J12" s="192"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8002,11 +8045,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="181"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="178"/>
-      <c r="J13" s="179"/>
+      <c r="F13" s="186"/>
+      <c r="G13" s="187"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="192"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8016,11 +8059,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="180"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="178"/>
-      <c r="J14" s="179"/>
+      <c r="F14" s="186"/>
+      <c r="G14" s="187"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="192"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8030,11 +8073,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="180"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="179"/>
+      <c r="F15" s="186"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="191"/>
+      <c r="J15" s="192"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8044,11 +8087,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="178"/>
-      <c r="J16" s="179"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="187"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="192"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8058,11 +8101,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="180"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="187"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="191"/>
+      <c r="J17" s="192"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8072,11 +8115,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="180"/>
-      <c r="G18" s="181"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="179"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="187"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="191"/>
+      <c r="J18" s="192"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8086,11 +8129,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="181"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="178"/>
-      <c r="J19" s="179"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="187"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="192"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8100,11 +8143,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="180"/>
-      <c r="G20" s="181"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="178"/>
-      <c r="J20" s="179"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="187"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="192"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8114,11 +8157,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="179"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="192"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8128,11 +8171,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="179"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="192"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8142,11 +8185,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="179"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="191"/>
+      <c r="J23" s="192"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8156,11 +8199,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="179"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="190"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="192"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8170,11 +8213,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="191"/>
+      <c r="J25" s="192"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8184,11 +8227,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="179"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="191"/>
+      <c r="J26" s="192"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8198,11 +8241,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="179"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="192"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8212,11 +8255,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="178"/>
-      <c r="J28" s="179"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="190"/>
+      <c r="I28" s="191"/>
+      <c r="J28" s="192"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8226,11 +8269,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="144"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="179"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="191"/>
+      <c r="J29" s="192"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8240,11 +8283,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="178"/>
-      <c r="J30" s="179"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="190"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="192"/>
     </row>
     <row r="31" spans="1:18" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
@@ -8254,11 +8297,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="179"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="191"/>
+      <c r="J31" s="192"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -8275,11 +8318,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="179"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="192"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -8296,11 +8339,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="179"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="192"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -8317,11 +8360,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="179"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="190"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="192"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -8338,11 +8381,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="144"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="179"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="192"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -8359,11 +8402,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="177"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="179"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="192"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -8380,11 +8423,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="144"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="177"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="179"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="190"/>
+      <c r="I37" s="191"/>
+      <c r="J37" s="192"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -8401,11 +8444,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="144"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="177"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="179"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="190"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="192"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -8422,11 +8465,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="144"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="177"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="179"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="190"/>
+      <c r="I39" s="191"/>
+      <c r="J39" s="192"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -8443,11 +8486,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="144"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="177"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="179"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="190"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="192"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -8464,11 +8507,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="144"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="177"/>
-      <c r="I41" s="178"/>
-      <c r="J41" s="179"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="191"/>
+      <c r="J41" s="192"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -8485,11 +8528,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="144"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="177"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="179"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="192"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -8506,11 +8549,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="144"/>
-      <c r="G43" s="146"/>
-      <c r="H43" s="177"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="179"/>
+      <c r="F43" s="147"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="190"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="192"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -8527,11 +8570,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="146"/>
-      <c r="H44" s="177"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="179"/>
+      <c r="F44" s="147"/>
+      <c r="G44" s="149"/>
+      <c r="H44" s="190"/>
+      <c r="I44" s="191"/>
+      <c r="J44" s="192"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -8548,11 +8591,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="144"/>
-      <c r="G45" s="146"/>
-      <c r="H45" s="177"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="179"/>
+      <c r="F45" s="147"/>
+      <c r="G45" s="149"/>
+      <c r="H45" s="190"/>
+      <c r="I45" s="191"/>
+      <c r="J45" s="192"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -8569,11 +8612,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="144"/>
-      <c r="G46" s="146"/>
-      <c r="H46" s="177"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="179"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="190"/>
+      <c r="I46" s="191"/>
+      <c r="J46" s="192"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -8590,11 +8633,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="144"/>
-      <c r="G47" s="146"/>
-      <c r="H47" s="177"/>
-      <c r="I47" s="178"/>
-      <c r="J47" s="179"/>
+      <c r="F47" s="147"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="190"/>
+      <c r="I47" s="191"/>
+      <c r="J47" s="192"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -8611,11 +8654,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="144"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="177"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="179"/>
+      <c r="F48" s="147"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="190"/>
+      <c r="I48" s="191"/>
+      <c r="J48" s="192"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -8632,11 +8675,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="144"/>
-      <c r="G49" s="146"/>
-      <c r="H49" s="177"/>
-      <c r="I49" s="178"/>
-      <c r="J49" s="179"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="149"/>
+      <c r="H49" s="190"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="192"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -8653,11 +8696,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="144"/>
-      <c r="G50" s="146"/>
-      <c r="H50" s="177"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="179"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="190"/>
+      <c r="I50" s="191"/>
+      <c r="J50" s="192"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -8674,11 +8717,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="146"/>
-      <c r="H51" s="177"/>
-      <c r="I51" s="178"/>
-      <c r="J51" s="179"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="190"/>
+      <c r="I51" s="191"/>
+      <c r="J51" s="192"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -8695,11 +8738,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="144"/>
-      <c r="G52" s="146"/>
-      <c r="H52" s="177"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="179"/>
+      <c r="F52" s="147"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="190"/>
+      <c r="I52" s="191"/>
+      <c r="J52" s="192"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -8716,11 +8759,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="144"/>
-      <c r="G53" s="146"/>
-      <c r="H53" s="177"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="179"/>
+      <c r="F53" s="147"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="190"/>
+      <c r="I53" s="191"/>
+      <c r="J53" s="192"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -8737,11 +8780,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="144"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="177"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="179"/>
+      <c r="F54" s="147"/>
+      <c r="G54" s="149"/>
+      <c r="H54" s="190"/>
+      <c r="I54" s="191"/>
+      <c r="J54" s="192"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -8758,11 +8801,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="144"/>
-      <c r="G55" s="146"/>
-      <c r="H55" s="177"/>
-      <c r="I55" s="178"/>
-      <c r="J55" s="179"/>
+      <c r="F55" s="147"/>
+      <c r="G55" s="149"/>
+      <c r="H55" s="190"/>
+      <c r="I55" s="191"/>
+      <c r="J55" s="192"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -8774,6 +8817,94 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="105">
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -8791,94 +8922,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E55">
@@ -8900,8 +8943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8929,24 +8972,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="B1" s="153"/>
+      <c r="C1" s="153"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="194" t="str">
+      <c r="J1" s="196" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="194"/>
+      <c r="K1" s="196"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -8973,22 +9016,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="194" t="str">
+      <c r="J2" s="196" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="194"/>
+      <c r="K2" s="196"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9022,7 +9065,7 @@
         <v>230</v>
       </c>
       <c r="C4" s="135" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>98</v>
@@ -9045,12 +9088,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="157" t="s">
+      <c r="K4" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="158"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="160"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9076,13 +9119,13 @@
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="G5" s="87" t="s">
         <v>216</v>
@@ -9096,12 +9139,12 @@
       <c r="J5" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="K5" s="147" t="s">
-        <v>277</v>
-      </c>
-      <c r="L5" s="148"/>
-      <c r="M5" s="148"/>
-      <c r="N5" s="149"/>
+      <c r="K5" s="150" t="s">
+        <v>285</v>
+      </c>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="152"/>
       <c r="O5" s="126" t="s">
         <v>135</v>
       </c>
@@ -9143,16 +9186,16 @@
       <c r="J6" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="K6" s="147" t="s">
-        <v>250</v>
-      </c>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="149"/>
-      <c r="O6" s="136" t="s">
+      <c r="K6" s="150" t="s">
+        <v>278</v>
+      </c>
+      <c r="L6" s="151"/>
+      <c r="M6" s="151"/>
+      <c r="N6" s="152"/>
+      <c r="O6" s="144" t="s">
         <v>279</v>
       </c>
-      <c r="P6" s="136" t="s">
+      <c r="P6" s="144" t="s">
         <v>280</v>
       </c>
       <c r="Q6" s="76" t="s">
@@ -9162,7 +9205,7 @@
         <v>229</v>
       </c>
       <c r="S6" s="137" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T6" s="139"/>
       <c r="U6" s="139"/>
@@ -9176,7 +9219,7 @@
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
@@ -9192,17 +9235,17 @@
       <c r="J7" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="147" t="s">
-        <v>251</v>
-      </c>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="149"/>
+      <c r="K7" s="150" t="s">
+        <v>250</v>
+      </c>
+      <c r="L7" s="151"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="152"/>
       <c r="O7" s="136" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P7" s="136" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="Q7" s="76" t="s">
         <v>201</v>
@@ -9211,7 +9254,7 @@
         <v>229</v>
       </c>
       <c r="S7" s="81" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="T7" s="139"/>
       <c r="U7" s="139"/>
@@ -9229,10 +9272,10 @@
       <c r="H8" s="63"/>
       <c r="I8" s="63"/>
       <c r="J8" s="81"/>
-      <c r="K8" s="191"/>
-      <c r="L8" s="192"/>
-      <c r="M8" s="192"/>
-      <c r="N8" s="193"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="195"/>
       <c r="O8" s="88"/>
       <c r="P8" s="88"/>
       <c r="Q8" s="76"/>
@@ -9254,10 +9297,10 @@
       <c r="H9" s="63"/>
       <c r="I9" s="63"/>
       <c r="J9" s="81"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="192"/>
-      <c r="N9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="195"/>
       <c r="O9" s="88"/>
       <c r="P9" s="88"/>
       <c r="Q9" s="76"/>
@@ -9279,10 +9322,10 @@
       <c r="H10" s="63"/>
       <c r="I10" s="63"/>
       <c r="J10" s="81"/>
-      <c r="K10" s="191"/>
-      <c r="L10" s="192"/>
-      <c r="M10" s="192"/>
-      <c r="N10" s="193"/>
+      <c r="K10" s="193"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="195"/>
       <c r="O10" s="88"/>
       <c r="P10" s="88"/>
       <c r="Q10" s="76"/>
@@ -9304,10 +9347,10 @@
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="81"/>
-      <c r="K11" s="191"/>
-      <c r="L11" s="192"/>
-      <c r="M11" s="192"/>
-      <c r="N11" s="193"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="195"/>
       <c r="O11" s="88"/>
       <c r="P11" s="88"/>
       <c r="Q11" s="76"/>
@@ -9329,10 +9372,10 @@
       <c r="H12" s="63"/>
       <c r="I12" s="63"/>
       <c r="J12" s="81"/>
-      <c r="K12" s="191"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="192"/>
-      <c r="N12" s="193"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="195"/>
       <c r="O12" s="84"/>
       <c r="P12" s="84"/>
       <c r="Q12" s="76"/>
@@ -9354,10 +9397,10 @@
       <c r="H13" s="63"/>
       <c r="I13" s="63"/>
       <c r="J13" s="81"/>
-      <c r="K13" s="191"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="195"/>
       <c r="O13" s="84"/>
       <c r="P13" s="84"/>
       <c r="Q13" s="76"/>
@@ -9379,10 +9422,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="81"/>
-      <c r="K14" s="191"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="192"/>
-      <c r="N14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="195"/>
       <c r="O14" s="80"/>
       <c r="P14" s="80"/>
       <c r="Q14" s="76"/>
@@ -9404,10 +9447,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="81"/>
-      <c r="K15" s="191"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="192"/>
-      <c r="N15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="195"/>
       <c r="O15" s="80"/>
       <c r="P15" s="80"/>
       <c r="Q15" s="76"/>
@@ -9429,10 +9472,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="40"/>
-      <c r="K16" s="191"/>
-      <c r="L16" s="192"/>
-      <c r="M16" s="192"/>
-      <c r="N16" s="193"/>
+      <c r="K16" s="193"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="195"/>
       <c r="O16" s="72"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="76"/>
@@ -9454,10 +9497,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="191"/>
-      <c r="L17" s="192"/>
-      <c r="M17" s="192"/>
-      <c r="N17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="195"/>
       <c r="O17" s="60"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -9479,10 +9522,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="191"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="192"/>
-      <c r="N18" s="193"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="195"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -9504,10 +9547,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="191"/>
-      <c r="L19" s="192"/>
-      <c r="M19" s="192"/>
-      <c r="N19" s="193"/>
+      <c r="K19" s="193"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="195"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -9529,10 +9572,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="191"/>
-      <c r="L20" s="192"/>
-      <c r="M20" s="192"/>
-      <c r="N20" s="193"/>
+      <c r="K20" s="193"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="195"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -9554,10 +9597,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="191"/>
-      <c r="L21" s="192"/>
-      <c r="M21" s="192"/>
-      <c r="N21" s="193"/>
+      <c r="K21" s="193"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="195"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -9579,10 +9622,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="191"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="193"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="195"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -9604,10 +9647,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="191"/>
-      <c r="L23" s="192"/>
-      <c r="M23" s="192"/>
-      <c r="N23" s="193"/>
+      <c r="K23" s="193"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="195"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -9629,10 +9672,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="191"/>
-      <c r="L24" s="192"/>
-      <c r="M24" s="192"/>
-      <c r="N24" s="193"/>
+      <c r="K24" s="193"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="195"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -9654,10 +9697,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="191"/>
-      <c r="L25" s="192"/>
-      <c r="M25" s="192"/>
-      <c r="N25" s="193"/>
+      <c r="K25" s="193"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="195"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -9679,10 +9722,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="191"/>
-      <c r="L26" s="192"/>
-      <c r="M26" s="192"/>
-      <c r="N26" s="193"/>
+      <c r="K26" s="193"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="195"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -9704,10 +9747,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="191"/>
-      <c r="L27" s="192"/>
-      <c r="M27" s="192"/>
-      <c r="N27" s="193"/>
+      <c r="K27" s="193"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="195"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -9729,10 +9772,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="191"/>
-      <c r="L28" s="192"/>
-      <c r="M28" s="192"/>
-      <c r="N28" s="193"/>
+      <c r="K28" s="193"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="195"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -9754,10 +9797,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="191"/>
-      <c r="L29" s="192"/>
-      <c r="M29" s="192"/>
-      <c r="N29" s="193"/>
+      <c r="K29" s="193"/>
+      <c r="L29" s="194"/>
+      <c r="M29" s="194"/>
+      <c r="N29" s="195"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -9779,10 +9822,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="192"/>
-      <c r="M30" s="192"/>
-      <c r="N30" s="193"/>
+      <c r="K30" s="193"/>
+      <c r="L30" s="194"/>
+      <c r="M30" s="194"/>
+      <c r="N30" s="195"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -9804,10 +9847,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="191"/>
-      <c r="L31" s="192"/>
-      <c r="M31" s="192"/>
-      <c r="N31" s="193"/>
+      <c r="K31" s="193"/>
+      <c r="L31" s="194"/>
+      <c r="M31" s="194"/>
+      <c r="N31" s="195"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -9829,10 +9872,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="191"/>
-      <c r="L32" s="192"/>
-      <c r="M32" s="192"/>
-      <c r="N32" s="193"/>
+      <c r="K32" s="193"/>
+      <c r="L32" s="194"/>
+      <c r="M32" s="194"/>
+      <c r="N32" s="195"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -9854,10 +9897,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="191"/>
-      <c r="L33" s="192"/>
-      <c r="M33" s="192"/>
-      <c r="N33" s="193"/>
+      <c r="K33" s="193"/>
+      <c r="L33" s="194"/>
+      <c r="M33" s="194"/>
+      <c r="N33" s="195"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -9879,10 +9922,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="81"/>
-      <c r="K34" s="191"/>
-      <c r="L34" s="192"/>
-      <c r="M34" s="192"/>
-      <c r="N34" s="193"/>
+      <c r="K34" s="193"/>
+      <c r="L34" s="194"/>
+      <c r="M34" s="194"/>
+      <c r="N34" s="195"/>
       <c r="O34" s="84"/>
       <c r="P34" s="84"/>
       <c r="Q34" s="76"/>
@@ -9904,10 +9947,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="191"/>
-      <c r="L35" s="192"/>
-      <c r="M35" s="192"/>
-      <c r="N35" s="193"/>
+      <c r="K35" s="193"/>
+      <c r="L35" s="194"/>
+      <c r="M35" s="194"/>
+      <c r="N35" s="195"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
       <c r="Q35" s="76"/>
@@ -9929,10 +9972,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="191"/>
-      <c r="L36" s="192"/>
-      <c r="M36" s="192"/>
-      <c r="N36" s="193"/>
+      <c r="K36" s="193"/>
+      <c r="L36" s="194"/>
+      <c r="M36" s="194"/>
+      <c r="N36" s="195"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -9954,10 +9997,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="191"/>
-      <c r="L37" s="192"/>
-      <c r="M37" s="192"/>
-      <c r="N37" s="193"/>
+      <c r="K37" s="193"/>
+      <c r="L37" s="194"/>
+      <c r="M37" s="194"/>
+      <c r="N37" s="195"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -9979,10 +10022,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="191"/>
-      <c r="L38" s="192"/>
-      <c r="M38" s="192"/>
-      <c r="N38" s="193"/>
+      <c r="K38" s="193"/>
+      <c r="L38" s="194"/>
+      <c r="M38" s="194"/>
+      <c r="N38" s="195"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10004,10 +10047,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="191"/>
-      <c r="L39" s="192"/>
-      <c r="M39" s="192"/>
-      <c r="N39" s="193"/>
+      <c r="K39" s="193"/>
+      <c r="L39" s="194"/>
+      <c r="M39" s="194"/>
+      <c r="N39" s="195"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10029,10 +10072,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="191"/>
-      <c r="L40" s="192"/>
-      <c r="M40" s="192"/>
-      <c r="N40" s="193"/>
+      <c r="K40" s="193"/>
+      <c r="L40" s="194"/>
+      <c r="M40" s="194"/>
+      <c r="N40" s="195"/>
       <c r="O40" s="74"/>
       <c r="P40" s="74"/>
       <c r="Q40" s="76"/>
@@ -10054,10 +10097,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="191"/>
-      <c r="L41" s="192"/>
-      <c r="M41" s="192"/>
-      <c r="N41" s="193"/>
+      <c r="K41" s="193"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="195"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10079,10 +10122,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="191"/>
-      <c r="L42" s="192"/>
-      <c r="M42" s="192"/>
-      <c r="N42" s="193"/>
+      <c r="K42" s="193"/>
+      <c r="L42" s="194"/>
+      <c r="M42" s="194"/>
+      <c r="N42" s="195"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10104,10 +10147,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="191"/>
-      <c r="L43" s="192"/>
-      <c r="M43" s="192"/>
-      <c r="N43" s="193"/>
+      <c r="K43" s="193"/>
+      <c r="L43" s="194"/>
+      <c r="M43" s="194"/>
+      <c r="N43" s="195"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10129,10 +10172,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="191"/>
-      <c r="L44" s="192"/>
-      <c r="M44" s="192"/>
-      <c r="N44" s="193"/>
+      <c r="K44" s="193"/>
+      <c r="L44" s="194"/>
+      <c r="M44" s="194"/>
+      <c r="N44" s="195"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10154,10 +10197,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="191"/>
-      <c r="L45" s="192"/>
-      <c r="M45" s="192"/>
-      <c r="N45" s="193"/>
+      <c r="K45" s="193"/>
+      <c r="L45" s="194"/>
+      <c r="M45" s="194"/>
+      <c r="N45" s="195"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10179,10 +10222,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="191"/>
-      <c r="L46" s="192"/>
-      <c r="M46" s="192"/>
-      <c r="N46" s="193"/>
+      <c r="K46" s="193"/>
+      <c r="L46" s="194"/>
+      <c r="M46" s="194"/>
+      <c r="N46" s="195"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10204,10 +10247,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="191"/>
-      <c r="L47" s="192"/>
-      <c r="M47" s="192"/>
-      <c r="N47" s="193"/>
+      <c r="K47" s="193"/>
+      <c r="L47" s="194"/>
+      <c r="M47" s="194"/>
+      <c r="N47" s="195"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -10229,10 +10272,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="191"/>
-      <c r="L48" s="192"/>
-      <c r="M48" s="192"/>
-      <c r="N48" s="193"/>
+      <c r="K48" s="193"/>
+      <c r="L48" s="194"/>
+      <c r="M48" s="194"/>
+      <c r="N48" s="195"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -10254,10 +10297,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="191"/>
-      <c r="L49" s="192"/>
-      <c r="M49" s="192"/>
-      <c r="N49" s="193"/>
+      <c r="K49" s="193"/>
+      <c r="L49" s="194"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="195"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -10279,10 +10322,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="191"/>
-      <c r="L50" s="192"/>
-      <c r="M50" s="192"/>
-      <c r="N50" s="193"/>
+      <c r="K50" s="193"/>
+      <c r="L50" s="194"/>
+      <c r="M50" s="194"/>
+      <c r="N50" s="195"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -10304,10 +10347,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="191"/>
-      <c r="L51" s="192"/>
-      <c r="M51" s="192"/>
-      <c r="N51" s="193"/>
+      <c r="K51" s="193"/>
+      <c r="L51" s="194"/>
+      <c r="M51" s="194"/>
+      <c r="N51" s="195"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -10329,10 +10372,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="191"/>
-      <c r="L52" s="192"/>
-      <c r="M52" s="192"/>
-      <c r="N52" s="193"/>
+      <c r="K52" s="193"/>
+      <c r="L52" s="194"/>
+      <c r="M52" s="194"/>
+      <c r="N52" s="195"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -10354,10 +10397,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="191"/>
-      <c r="L53" s="192"/>
-      <c r="M53" s="192"/>
-      <c r="N53" s="193"/>
+      <c r="K53" s="193"/>
+      <c r="L53" s="194"/>
+      <c r="M53" s="194"/>
+      <c r="N53" s="195"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -10379,10 +10422,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="191"/>
-      <c r="L54" s="192"/>
-      <c r="M54" s="192"/>
-      <c r="N54" s="193"/>
+      <c r="K54" s="193"/>
+      <c r="L54" s="194"/>
+      <c r="M54" s="194"/>
+      <c r="N54" s="195"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -10404,10 +10447,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="191"/>
-      <c r="L55" s="192"/>
-      <c r="M55" s="192"/>
-      <c r="N55" s="193"/>
+      <c r="K55" s="193"/>
+      <c r="L55" s="194"/>
+      <c r="M55" s="194"/>
+      <c r="N55" s="195"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -10429,10 +10472,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="191"/>
-      <c r="L56" s="192"/>
-      <c r="M56" s="192"/>
-      <c r="N56" s="193"/>
+      <c r="K56" s="193"/>
+      <c r="L56" s="194"/>
+      <c r="M56" s="194"/>
+      <c r="N56" s="195"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -10454,10 +10497,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="191"/>
-      <c r="L57" s="192"/>
-      <c r="M57" s="192"/>
-      <c r="N57" s="193"/>
+      <c r="K57" s="193"/>
+      <c r="L57" s="194"/>
+      <c r="M57" s="194"/>
+      <c r="N57" s="195"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -10479,10 +10522,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="191"/>
-      <c r="L58" s="192"/>
-      <c r="M58" s="192"/>
-      <c r="N58" s="193"/>
+      <c r="K58" s="193"/>
+      <c r="L58" s="194"/>
+      <c r="M58" s="194"/>
+      <c r="N58" s="195"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -10504,10 +10547,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="191"/>
-      <c r="L59" s="192"/>
-      <c r="M59" s="192"/>
-      <c r="N59" s="193"/>
+      <c r="K59" s="193"/>
+      <c r="L59" s="194"/>
+      <c r="M59" s="194"/>
+      <c r="N59" s="195"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -10529,10 +10572,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="191"/>
-      <c r="L60" s="192"/>
-      <c r="M60" s="192"/>
-      <c r="N60" s="193"/>
+      <c r="K60" s="193"/>
+      <c r="L60" s="194"/>
+      <c r="M60" s="194"/>
+      <c r="N60" s="195"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -10554,10 +10597,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="191"/>
-      <c r="L61" s="192"/>
-      <c r="M61" s="192"/>
-      <c r="N61" s="193"/>
+      <c r="K61" s="193"/>
+      <c r="L61" s="194"/>
+      <c r="M61" s="194"/>
+      <c r="N61" s="195"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -10579,10 +10622,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="191"/>
-      <c r="L62" s="192"/>
-      <c r="M62" s="192"/>
-      <c r="N62" s="193"/>
+      <c r="K62" s="193"/>
+      <c r="L62" s="194"/>
+      <c r="M62" s="194"/>
+      <c r="N62" s="195"/>
       <c r="O62" s="83"/>
       <c r="P62" s="83"/>
       <c r="Q62" s="76"/>
@@ -10604,10 +10647,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="191"/>
-      <c r="L63" s="192"/>
-      <c r="M63" s="192"/>
-      <c r="N63" s="193"/>
+      <c r="K63" s="193"/>
+      <c r="L63" s="194"/>
+      <c r="M63" s="194"/>
+      <c r="N63" s="195"/>
       <c r="O63" s="83"/>
       <c r="P63" s="83"/>
       <c r="Q63" s="76"/>
@@ -10629,10 +10672,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="191"/>
-      <c r="L64" s="192"/>
-      <c r="M64" s="192"/>
-      <c r="N64" s="193"/>
+      <c r="K64" s="193"/>
+      <c r="L64" s="194"/>
+      <c r="M64" s="194"/>
+      <c r="N64" s="195"/>
       <c r="O64" s="83"/>
       <c r="P64" s="83"/>
       <c r="Q64" s="76"/>
@@ -10652,10 +10695,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="191"/>
-      <c r="L65" s="192"/>
-      <c r="M65" s="192"/>
-      <c r="N65" s="193"/>
+      <c r="K65" s="193"/>
+      <c r="L65" s="194"/>
+      <c r="M65" s="194"/>
+      <c r="N65" s="195"/>
       <c r="O65" s="83"/>
       <c r="P65" s="83"/>
       <c r="Q65" s="76"/>
@@ -10675,10 +10718,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="191"/>
-      <c r="L66" s="192"/>
-      <c r="M66" s="192"/>
-      <c r="N66" s="193"/>
+      <c r="K66" s="193"/>
+      <c r="L66" s="194"/>
+      <c r="M66" s="194"/>
+      <c r="N66" s="195"/>
       <c r="O66" s="83"/>
       <c r="P66" s="83"/>
       <c r="Q66" s="76"/>
@@ -10698,10 +10741,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="191"/>
-      <c r="L67" s="192"/>
-      <c r="M67" s="192"/>
-      <c r="N67" s="193"/>
+      <c r="K67" s="193"/>
+      <c r="L67" s="194"/>
+      <c r="M67" s="194"/>
+      <c r="N67" s="195"/>
       <c r="O67" s="83"/>
       <c r="P67" s="83"/>
       <c r="Q67" s="76"/>
@@ -10721,10 +10764,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="191"/>
-      <c r="L68" s="192"/>
-      <c r="M68" s="192"/>
-      <c r="N68" s="193"/>
+      <c r="K68" s="193"/>
+      <c r="L68" s="194"/>
+      <c r="M68" s="194"/>
+      <c r="N68" s="195"/>
       <c r="O68" s="83"/>
       <c r="P68" s="83"/>
       <c r="Q68" s="76"/>
@@ -10744,10 +10787,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="191"/>
-      <c r="L69" s="192"/>
-      <c r="M69" s="192"/>
-      <c r="N69" s="193"/>
+      <c r="K69" s="193"/>
+      <c r="L69" s="194"/>
+      <c r="M69" s="194"/>
+      <c r="N69" s="195"/>
       <c r="O69" s="83"/>
       <c r="P69" s="83"/>
       <c r="Q69" s="76"/>
@@ -10767,10 +10810,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="191"/>
-      <c r="L70" s="192"/>
-      <c r="M70" s="192"/>
-      <c r="N70" s="193"/>
+      <c r="K70" s="193"/>
+      <c r="L70" s="194"/>
+      <c r="M70" s="194"/>
+      <c r="N70" s="195"/>
       <c r="O70" s="83"/>
       <c r="P70" s="83"/>
       <c r="Q70" s="76"/>
@@ -10790,10 +10833,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="191"/>
-      <c r="L71" s="192"/>
-      <c r="M71" s="192"/>
-      <c r="N71" s="193"/>
+      <c r="K71" s="193"/>
+      <c r="L71" s="194"/>
+      <c r="M71" s="194"/>
+      <c r="N71" s="195"/>
       <c r="O71" s="83"/>
       <c r="P71" s="83"/>
       <c r="Q71" s="76"/>
@@ -10813,10 +10856,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="191"/>
-      <c r="L72" s="192"/>
-      <c r="M72" s="192"/>
-      <c r="N72" s="193"/>
+      <c r="K72" s="193"/>
+      <c r="L72" s="194"/>
+      <c r="M72" s="194"/>
+      <c r="N72" s="195"/>
       <c r="O72" s="83"/>
       <c r="P72" s="83"/>
       <c r="Q72" s="76"/>
@@ -10836,10 +10879,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="191"/>
-      <c r="L73" s="192"/>
-      <c r="M73" s="192"/>
-      <c r="N73" s="193"/>
+      <c r="K73" s="193"/>
+      <c r="L73" s="194"/>
+      <c r="M73" s="194"/>
+      <c r="N73" s="195"/>
       <c r="O73" s="83"/>
       <c r="P73" s="83"/>
       <c r="Q73" s="76"/>
@@ -10859,10 +10902,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="191"/>
-      <c r="L74" s="192"/>
-      <c r="M74" s="192"/>
-      <c r="N74" s="193"/>
+      <c r="K74" s="193"/>
+      <c r="L74" s="194"/>
+      <c r="M74" s="194"/>
+      <c r="N74" s="195"/>
       <c r="O74" s="83"/>
       <c r="P74" s="83"/>
       <c r="Q74" s="76"/>
@@ -10882,10 +10925,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="191"/>
-      <c r="L75" s="192"/>
-      <c r="M75" s="192"/>
-      <c r="N75" s="193"/>
+      <c r="K75" s="193"/>
+      <c r="L75" s="194"/>
+      <c r="M75" s="194"/>
+      <c r="N75" s="195"/>
       <c r="O75" s="83"/>
       <c r="P75" s="83"/>
       <c r="Q75" s="76"/>
@@ -10905,10 +10948,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="191"/>
-      <c r="L76" s="192"/>
-      <c r="M76" s="192"/>
-      <c r="N76" s="193"/>
+      <c r="K76" s="193"/>
+      <c r="L76" s="194"/>
+      <c r="M76" s="194"/>
+      <c r="N76" s="195"/>
       <c r="O76" s="83"/>
       <c r="P76" s="83"/>
       <c r="Q76" s="76"/>
@@ -10928,10 +10971,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="191"/>
-      <c r="L77" s="192"/>
-      <c r="M77" s="192"/>
-      <c r="N77" s="193"/>
+      <c r="K77" s="193"/>
+      <c r="L77" s="194"/>
+      <c r="M77" s="194"/>
+      <c r="N77" s="195"/>
       <c r="O77" s="83"/>
       <c r="P77" s="83"/>
       <c r="Q77" s="76"/>
@@ -10951,10 +10994,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="191"/>
-      <c r="L78" s="192"/>
-      <c r="M78" s="192"/>
-      <c r="N78" s="193"/>
+      <c r="K78" s="193"/>
+      <c r="L78" s="194"/>
+      <c r="M78" s="194"/>
+      <c r="N78" s="195"/>
       <c r="O78" s="83"/>
       <c r="P78" s="83"/>
       <c r="Q78" s="76"/>
@@ -10974,10 +11017,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="191"/>
-      <c r="L79" s="192"/>
-      <c r="M79" s="192"/>
-      <c r="N79" s="193"/>
+      <c r="K79" s="193"/>
+      <c r="L79" s="194"/>
+      <c r="M79" s="194"/>
+      <c r="N79" s="195"/>
       <c r="O79" s="83"/>
       <c r="P79" s="83"/>
       <c r="Q79" s="76"/>
@@ -10997,10 +11040,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="191"/>
-      <c r="L80" s="192"/>
-      <c r="M80" s="192"/>
-      <c r="N80" s="193"/>
+      <c r="K80" s="193"/>
+      <c r="L80" s="194"/>
+      <c r="M80" s="194"/>
+      <c r="N80" s="195"/>
       <c r="O80" s="83"/>
       <c r="P80" s="83"/>
       <c r="Q80" s="76"/>
@@ -11020,10 +11063,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="191"/>
-      <c r="L81" s="192"/>
-      <c r="M81" s="192"/>
-      <c r="N81" s="193"/>
+      <c r="K81" s="193"/>
+      <c r="L81" s="194"/>
+      <c r="M81" s="194"/>
+      <c r="N81" s="195"/>
       <c r="O81" s="83"/>
       <c r="P81" s="83"/>
       <c r="Q81" s="76"/>
@@ -11043,10 +11086,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="191"/>
-      <c r="L82" s="192"/>
-      <c r="M82" s="192"/>
-      <c r="N82" s="193"/>
+      <c r="K82" s="193"/>
+      <c r="L82" s="194"/>
+      <c r="M82" s="194"/>
+      <c r="N82" s="195"/>
       <c r="O82" s="83"/>
       <c r="P82" s="83"/>
       <c r="Q82" s="76"/>
@@ -11066,10 +11109,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="191"/>
-      <c r="L83" s="192"/>
-      <c r="M83" s="192"/>
-      <c r="N83" s="193"/>
+      <c r="K83" s="193"/>
+      <c r="L83" s="194"/>
+      <c r="M83" s="194"/>
+      <c r="N83" s="195"/>
       <c r="O83" s="83"/>
       <c r="P83" s="83"/>
       <c r="Q83" s="76"/>
@@ -11089,10 +11132,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="191"/>
-      <c r="L84" s="192"/>
-      <c r="M84" s="192"/>
-      <c r="N84" s="193"/>
+      <c r="K84" s="193"/>
+      <c r="L84" s="194"/>
+      <c r="M84" s="194"/>
+      <c r="N84" s="195"/>
       <c r="O84" s="83"/>
       <c r="P84" s="83"/>
       <c r="Q84" s="76"/>
@@ -11112,10 +11155,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="191"/>
-      <c r="L85" s="192"/>
-      <c r="M85" s="192"/>
-      <c r="N85" s="193"/>
+      <c r="K85" s="193"/>
+      <c r="L85" s="194"/>
+      <c r="M85" s="194"/>
+      <c r="N85" s="195"/>
       <c r="O85" s="83"/>
       <c r="P85" s="83"/>
       <c r="Q85" s="76"/>
@@ -11135,10 +11178,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="191"/>
-      <c r="L86" s="192"/>
-      <c r="M86" s="192"/>
-      <c r="N86" s="193"/>
+      <c r="K86" s="193"/>
+      <c r="L86" s="194"/>
+      <c r="M86" s="194"/>
+      <c r="N86" s="195"/>
       <c r="O86" s="83"/>
       <c r="P86" s="83"/>
       <c r="Q86" s="76"/>
@@ -11158,10 +11201,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="191"/>
-      <c r="L87" s="192"/>
-      <c r="M87" s="192"/>
-      <c r="N87" s="193"/>
+      <c r="K87" s="193"/>
+      <c r="L87" s="194"/>
+      <c r="M87" s="194"/>
+      <c r="N87" s="195"/>
       <c r="O87" s="83"/>
       <c r="P87" s="83"/>
       <c r="Q87" s="76"/>
@@ -11181,10 +11224,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="191"/>
-      <c r="L88" s="192"/>
-      <c r="M88" s="192"/>
-      <c r="N88" s="193"/>
+      <c r="K88" s="193"/>
+      <c r="L88" s="194"/>
+      <c r="M88" s="194"/>
+      <c r="N88" s="195"/>
       <c r="O88" s="83"/>
       <c r="P88" s="83"/>
       <c r="Q88" s="76"/>
@@ -11204,10 +11247,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="191"/>
-      <c r="L89" s="192"/>
-      <c r="M89" s="192"/>
-      <c r="N89" s="193"/>
+      <c r="K89" s="193"/>
+      <c r="L89" s="194"/>
+      <c r="M89" s="194"/>
+      <c r="N89" s="195"/>
       <c r="O89" s="83"/>
       <c r="P89" s="83"/>
       <c r="Q89" s="76"/>
@@ -11227,10 +11270,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="191"/>
-      <c r="L90" s="192"/>
-      <c r="M90" s="192"/>
-      <c r="N90" s="193"/>
+      <c r="K90" s="193"/>
+      <c r="L90" s="194"/>
+      <c r="M90" s="194"/>
+      <c r="N90" s="195"/>
       <c r="O90" s="83"/>
       <c r="P90" s="83"/>
       <c r="Q90" s="76"/>
@@ -11250,10 +11293,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="191"/>
-      <c r="L91" s="192"/>
-      <c r="M91" s="192"/>
-      <c r="N91" s="193"/>
+      <c r="K91" s="193"/>
+      <c r="L91" s="194"/>
+      <c r="M91" s="194"/>
+      <c r="N91" s="195"/>
       <c r="O91" s="83"/>
       <c r="P91" s="83"/>
       <c r="Q91" s="76"/>
@@ -11273,10 +11316,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="191"/>
-      <c r="L92" s="192"/>
-      <c r="M92" s="192"/>
-      <c r="N92" s="193"/>
+      <c r="K92" s="193"/>
+      <c r="L92" s="194"/>
+      <c r="M92" s="194"/>
+      <c r="N92" s="195"/>
       <c r="O92" s="83"/>
       <c r="P92" s="83"/>
       <c r="Q92" s="76"/>
@@ -11296,10 +11339,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="191"/>
-      <c r="L93" s="192"/>
-      <c r="M93" s="192"/>
-      <c r="N93" s="193"/>
+      <c r="K93" s="193"/>
+      <c r="L93" s="194"/>
+      <c r="M93" s="194"/>
+      <c r="N93" s="195"/>
       <c r="O93" s="83"/>
       <c r="P93" s="83"/>
       <c r="Q93" s="76"/>
@@ -11319,10 +11362,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="191"/>
-      <c r="L94" s="192"/>
-      <c r="M94" s="192"/>
-      <c r="N94" s="193"/>
+      <c r="K94" s="193"/>
+      <c r="L94" s="194"/>
+      <c r="M94" s="194"/>
+      <c r="N94" s="195"/>
       <c r="O94" s="83"/>
       <c r="P94" s="83"/>
       <c r="Q94" s="76"/>
@@ -11335,32 +11378,58 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
     <mergeCell ref="K93:N93"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K6:N6"/>
@@ -11377,58 +11446,32 @@
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -11474,10 +11517,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11507,8 +11550,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -11566,7 +11609,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -11658,7 +11701,7 @@
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11711,7 +11754,7 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -11800,7 +11843,7 @@
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="73"/>
       <c r="B25" s="85" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="43"/>
@@ -11828,7 +11871,7 @@
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="73"/>
       <c r="B27" s="85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="43"/>
@@ -11856,7 +11899,7 @@
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="73"/>
       <c r="B29" s="85" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -11870,7 +11913,7 @@
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="73"/>
       <c r="B30" s="123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C30" s="43"/>
       <c r="D30" s="43"/>
@@ -11884,7 +11927,7 @@
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="73"/>
       <c r="B31" s="85" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C31" s="43"/>
       <c r="D31" s="43"/>
@@ -11898,7 +11941,7 @@
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="73"/>
       <c r="B32" s="85" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -11912,7 +11955,7 @@
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="73"/>
       <c r="B33" s="85" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -11926,7 +11969,7 @@
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="73"/>
       <c r="B34" s="79" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -11940,7 +11983,7 @@
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="73"/>
       <c r="B35" s="85" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -11953,7 +11996,7 @@
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="73"/>
       <c r="B36" s="79" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -11967,7 +12010,7 @@
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="73"/>
       <c r="B37" s="85" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C37" s="43"/>
       <c r="D37" s="43"/>
@@ -11981,7 +12024,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="73"/>
       <c r="B38" s="79" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C38" s="43"/>
       <c r="D38" s="43"/>
@@ -11995,7 +12038,7 @@
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="73"/>
       <c r="B39" s="85" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -12240,12 +12283,12 @@
       <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="195" t="s">
-        <v>256</v>
-      </c>
-      <c r="C59" s="195"/>
-      <c r="D59" s="195"/>
-      <c r="E59" s="195"/>
+      <c r="B59" s="197" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" s="197"/>
+      <c r="D59" s="197"/>
+      <c r="E59" s="197"/>
       <c r="F59" s="124"/>
       <c r="G59" s="43"/>
       <c r="H59" s="43"/>
@@ -12278,7 +12321,7 @@
     </row>
     <row r="62" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="43" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C62" s="43"/>
       <c r="D62" s="43"/>
@@ -12803,10 +12846,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="153"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12834,8 +12877,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="150"/>
-      <c r="B2" s="150"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="153"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13246,14 +13289,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="196" t="s">
+      <c r="B1" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="198"/>
+      <c r="E1" s="198"/>
+      <c r="F1" s="198"/>
+      <c r="G1" s="198"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -13446,11 +13489,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="197" t="s">
+      <c r="E27" s="199" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="198"/>
-      <c r="G27" s="199"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="201"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Danh muc dia diem/CF0141_Danh muc dia diem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Danh muc dia diem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\SVN_Daisuthuc\10_DOCUMENT\13_DETAIL_DESIGN\Danh muc dia diem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="781"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1327,7 +1327,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="286">
   <si>
     <t>Detail Design</t>
   </si>
@@ -3207,36 +3207,36 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3306,6 +3306,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3327,26 +3342,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3746,7 +3746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:J5"/>
     </sheetView>
   </sheetViews>
@@ -3763,10 +3763,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -3793,8 +3793,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -3833,14 +3833,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="154" t="s">
+      <c r="E4" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="154"/>
-      <c r="I4" s="154"/>
-      <c r="J4" s="154"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -3855,14 +3855,14 @@
       <c r="D5" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="155" t="s">
+      <c r="E5" s="154" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="146"/>
-      <c r="G5" s="146"/>
-      <c r="H5" s="146"/>
-      <c r="I5" s="146"/>
-      <c r="J5" s="146"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="140">
@@ -3889,12 +3889,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="147"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="149"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="148"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
@@ -3905,12 +3905,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="152"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="151"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
@@ -3921,12 +3921,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="149"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="148"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
@@ -3937,12 +3937,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="148"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
@@ -3953,12 +3953,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="147"/>
+      <c r="J11" s="148"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
@@ -3969,12 +3969,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="149"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="148"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
@@ -3985,12 +3985,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="147"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98">
@@ -4001,12 +4001,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="147"/>
+      <c r="H14" s="147"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4017,12 +4017,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="146"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="146"/>
+      <c r="E15" s="155"/>
+      <c r="F15" s="155"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="155"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
@@ -4033,12 +4033,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
+      <c r="E16" s="155"/>
+      <c r="F16" s="155"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="155"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
@@ -4049,12 +4049,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="146"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="146"/>
+      <c r="E17" s="155"/>
+      <c r="F17" s="155"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="155"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="155"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -4065,12 +4065,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
+      <c r="E18" s="155"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="155"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
@@ -4081,12 +4081,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
@@ -4097,12 +4097,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
+      <c r="E20" s="155"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="155"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
@@ -4113,12 +4113,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
@@ -4129,12 +4129,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97">
@@ -4145,12 +4145,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
+      <c r="E23" s="155"/>
+      <c r="F23" s="155"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="155"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98">
@@ -4161,12 +4161,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
+      <c r="E24" s="155"/>
+      <c r="F24" s="155"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4177,12 +4177,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
+      <c r="E25" s="155"/>
+      <c r="F25" s="155"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="155"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="155"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90">
@@ -4193,12 +4193,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
@@ -4209,12 +4209,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="146"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="146"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="146"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
@@ -4225,12 +4225,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="146"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="146"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="146"/>
+      <c r="E28" s="155"/>
+      <c r="F28" s="155"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
@@ -4241,12 +4241,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="155"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
@@ -4257,12 +4257,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
+      <c r="E30" s="155"/>
+      <c r="F30" s="155"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
@@ -4273,12 +4273,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
@@ -4289,12 +4289,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97">
@@ -4305,12 +4305,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
+      <c r="E33" s="155"/>
+      <c r="F33" s="155"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="155"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98">
@@ -4321,12 +4321,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="146"/>
+      <c r="E34" s="155"/>
+      <c r="F34" s="155"/>
+      <c r="G34" s="155"/>
+      <c r="H34" s="155"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4337,12 +4337,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="155"/>
+      <c r="H35" s="155"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90">
@@ -4353,12 +4353,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="146"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="146"/>
-      <c r="H36" s="146"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="146"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="155"/>
+      <c r="H36" s="155"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="155"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -4369,12 +4369,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="146"/>
-      <c r="G37" s="146"/>
-      <c r="H37" s="146"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="146"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="155"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="155"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
@@ -4385,12 +4385,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="146"/>
-      <c r="F38" s="146"/>
-      <c r="G38" s="146"/>
-      <c r="H38" s="146"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="146"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="146"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
@@ -4417,12 +4417,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="146"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
@@ -4433,12 +4433,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="146"/>
-      <c r="F41" s="146"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="146"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="96">
@@ -4449,23 +4449,32 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="146"/>
-      <c r="F42" s="146"/>
-      <c r="G42" s="146"/>
-      <c r="H42" s="146"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="146"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4481,23 +4490,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4714,10 +4714,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4747,8 +4747,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5296,10 +5296,10 @@
   <dimension ref="A1:P55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="N8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:F15"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5324,13 +5324,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5363,11 +5363,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5817,11 +5817,17 @@
       <c r="G15" s="145" t="s">
         <v>282</v>
       </c>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
+      <c r="H15" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>214</v>
+      </c>
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
-      <c r="L15" s="40"/>
+      <c r="L15" s="40" t="s">
+        <v>215</v>
+      </c>
       <c r="M15" s="62"/>
       <c r="N15" s="145"/>
       <c r="O15" s="145">
@@ -7772,7 +7778,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="184" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="128"/>
@@ -7807,7 +7813,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180"/>
+      <c r="A2" s="185"/>
       <c r="B2" s="129"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -7855,15 +7861,15 @@
       <c r="E4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="153" t="s">
+      <c r="F4" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153" t="s">
+      <c r="G4" s="152"/>
+      <c r="H4" s="152" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="152"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -7879,15 +7885,15 @@
         <v>135</v>
       </c>
       <c r="E5" s="27"/>
-      <c r="F5" s="184" t="s">
+      <c r="F5" s="189" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="185"/>
-      <c r="H5" s="181" t="s">
+      <c r="G5" s="190"/>
+      <c r="H5" s="186" t="s">
         <v>241</v>
       </c>
-      <c r="I5" s="182"/>
-      <c r="J5" s="183"/>
+      <c r="I5" s="187"/>
+      <c r="J5" s="188"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -7903,15 +7909,15 @@
         <v>238</v>
       </c>
       <c r="E6" s="27"/>
-      <c r="F6" s="188" t="s">
+      <c r="F6" s="191" t="s">
         <v>240</v>
       </c>
-      <c r="G6" s="189"/>
-      <c r="H6" s="181" t="s">
+      <c r="G6" s="192"/>
+      <c r="H6" s="186" t="s">
         <v>242</v>
       </c>
-      <c r="I6" s="182"/>
-      <c r="J6" s="183"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="188"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -7927,15 +7933,15 @@
         <v>238</v>
       </c>
       <c r="E7" s="27"/>
-      <c r="F7" s="188" t="s">
+      <c r="F7" s="191" t="s">
         <v>240</v>
       </c>
-      <c r="G7" s="189"/>
-      <c r="H7" s="181" t="s">
+      <c r="G7" s="192"/>
+      <c r="H7" s="186" t="s">
         <v>244</v>
       </c>
-      <c r="I7" s="182"/>
-      <c r="J7" s="183"/>
+      <c r="I7" s="187"/>
+      <c r="J7" s="188"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -7951,15 +7957,15 @@
         <v>135</v>
       </c>
       <c r="E8" s="27"/>
-      <c r="F8" s="184" t="s">
+      <c r="F8" s="189" t="s">
         <v>234</v>
       </c>
-      <c r="G8" s="185"/>
-      <c r="H8" s="181" t="s">
+      <c r="G8" s="190"/>
+      <c r="H8" s="186" t="s">
         <v>245</v>
       </c>
-      <c r="I8" s="182"/>
-      <c r="J8" s="183"/>
+      <c r="I8" s="187"/>
+      <c r="J8" s="188"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -7975,15 +7981,15 @@
         <v>235</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="184" t="s">
+      <c r="F9" s="189" t="s">
         <v>236</v>
       </c>
-      <c r="G9" s="185"/>
-      <c r="H9" s="181" t="s">
+      <c r="G9" s="190"/>
+      <c r="H9" s="186" t="s">
         <v>202</v>
       </c>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="I9" s="187"/>
+      <c r="J9" s="188"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -7999,15 +8005,15 @@
         <v>135</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="184" t="s">
+      <c r="F10" s="189" t="s">
         <v>237</v>
       </c>
-      <c r="G10" s="185"/>
-      <c r="H10" s="181" t="s">
+      <c r="G10" s="190"/>
+      <c r="H10" s="186" t="s">
         <v>203</v>
       </c>
-      <c r="I10" s="182"/>
-      <c r="J10" s="183"/>
+      <c r="I10" s="187"/>
+      <c r="J10" s="188"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8017,11 +8023,11 @@
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="32"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="191"/>
-      <c r="J11" s="192"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="183"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="181"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8031,11 +8037,11 @@
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="32"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="191"/>
-      <c r="J12" s="192"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="180"/>
+      <c r="J12" s="181"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8045,11 +8051,11 @@
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="32"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="192"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="183"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="180"/>
+      <c r="J13" s="181"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8059,11 +8065,11 @@
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="32"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="191"/>
-      <c r="J14" s="192"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="180"/>
+      <c r="J14" s="181"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8073,11 +8079,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="191"/>
-      <c r="J15" s="192"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="183"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="181"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8087,11 +8093,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="192"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="183"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="181"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8101,11 +8107,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="191"/>
-      <c r="J17" s="192"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="183"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="180"/>
+      <c r="J17" s="181"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8115,11 +8121,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="191"/>
-      <c r="J18" s="192"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="180"/>
+      <c r="J18" s="181"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8129,11 +8135,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="191"/>
-      <c r="J19" s="192"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="179"/>
+      <c r="I19" s="180"/>
+      <c r="J19" s="181"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8143,11 +8149,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="192"/>
+      <c r="F20" s="182"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="179"/>
+      <c r="I20" s="180"/>
+      <c r="J20" s="181"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8157,11 +8163,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="191"/>
-      <c r="J21" s="192"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="179"/>
+      <c r="I21" s="180"/>
+      <c r="J21" s="181"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8171,11 +8177,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="191"/>
-      <c r="J22" s="192"/>
+      <c r="F22" s="146"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="179"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="181"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8185,11 +8191,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="149"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="191"/>
-      <c r="J23" s="192"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="179"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="181"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8199,11 +8205,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="191"/>
-      <c r="J24" s="192"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="179"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="181"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8213,11 +8219,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="191"/>
-      <c r="J25" s="192"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="179"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="181"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8227,11 +8233,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="191"/>
-      <c r="J26" s="192"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="181"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8241,11 +8247,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="192"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="181"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8255,11 +8261,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="192"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="179"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="181"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8269,11 +8275,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="190"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="192"/>
+      <c r="F29" s="146"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="181"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8283,11 +8289,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="190"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="192"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="181"/>
     </row>
     <row r="31" spans="1:18" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A31" s="33">
@@ -8297,11 +8303,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="190"/>
-      <c r="I31" s="191"/>
-      <c r="J31" s="192"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="181"/>
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
@@ -8318,11 +8324,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="190"/>
-      <c r="I32" s="191"/>
-      <c r="J32" s="192"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="181"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -8339,11 +8345,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="191"/>
-      <c r="J33" s="192"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="181"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -8360,11 +8366,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="190"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="192"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="179"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="181"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -8381,11 +8387,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="191"/>
-      <c r="J35" s="192"/>
+      <c r="F35" s="146"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="181"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -8402,11 +8408,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="191"/>
-      <c r="J36" s="192"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="179"/>
+      <c r="I36" s="180"/>
+      <c r="J36" s="181"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -8423,11 +8429,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="190"/>
-      <c r="I37" s="191"/>
-      <c r="J37" s="192"/>
+      <c r="F37" s="146"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="179"/>
+      <c r="I37" s="180"/>
+      <c r="J37" s="181"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -8444,11 +8450,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="190"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="192"/>
+      <c r="F38" s="146"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="180"/>
+      <c r="J38" s="181"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -8465,11 +8471,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="190"/>
-      <c r="I39" s="191"/>
-      <c r="J39" s="192"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="180"/>
+      <c r="J39" s="181"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -8486,11 +8492,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="149"/>
-      <c r="H40" s="190"/>
-      <c r="I40" s="191"/>
-      <c r="J40" s="192"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="180"/>
+      <c r="J40" s="181"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -8507,11 +8513,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="191"/>
-      <c r="J41" s="192"/>
+      <c r="F41" s="146"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="179"/>
+      <c r="I41" s="180"/>
+      <c r="J41" s="181"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -8528,11 +8534,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="191"/>
-      <c r="J42" s="192"/>
+      <c r="F42" s="146"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="181"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -8549,11 +8555,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="147"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="190"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="192"/>
+      <c r="F43" s="146"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="179"/>
+      <c r="I43" s="180"/>
+      <c r="J43" s="181"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -8570,11 +8576,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="147"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="191"/>
-      <c r="J44" s="192"/>
+      <c r="F44" s="146"/>
+      <c r="G44" s="148"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="180"/>
+      <c r="J44" s="181"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -8591,11 +8597,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="147"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="190"/>
-      <c r="I45" s="191"/>
-      <c r="J45" s="192"/>
+      <c r="F45" s="146"/>
+      <c r="G45" s="148"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="180"/>
+      <c r="J45" s="181"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -8612,11 +8618,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="147"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="190"/>
-      <c r="I46" s="191"/>
-      <c r="J46" s="192"/>
+      <c r="F46" s="146"/>
+      <c r="G46" s="148"/>
+      <c r="H46" s="179"/>
+      <c r="I46" s="180"/>
+      <c r="J46" s="181"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -8633,11 +8639,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="190"/>
-      <c r="I47" s="191"/>
-      <c r="J47" s="192"/>
+      <c r="F47" s="146"/>
+      <c r="G47" s="148"/>
+      <c r="H47" s="179"/>
+      <c r="I47" s="180"/>
+      <c r="J47" s="181"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -8654,11 +8660,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="147"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="190"/>
-      <c r="I48" s="191"/>
-      <c r="J48" s="192"/>
+      <c r="F48" s="146"/>
+      <c r="G48" s="148"/>
+      <c r="H48" s="179"/>
+      <c r="I48" s="180"/>
+      <c r="J48" s="181"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -8675,11 +8681,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="147"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="190"/>
-      <c r="I49" s="191"/>
-      <c r="J49" s="192"/>
+      <c r="F49" s="146"/>
+      <c r="G49" s="148"/>
+      <c r="H49" s="179"/>
+      <c r="I49" s="180"/>
+      <c r="J49" s="181"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -8696,11 +8702,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="147"/>
-      <c r="G50" s="149"/>
-      <c r="H50" s="190"/>
-      <c r="I50" s="191"/>
-      <c r="J50" s="192"/>
+      <c r="F50" s="146"/>
+      <c r="G50" s="148"/>
+      <c r="H50" s="179"/>
+      <c r="I50" s="180"/>
+      <c r="J50" s="181"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -8717,11 +8723,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="147"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="190"/>
-      <c r="I51" s="191"/>
-      <c r="J51" s="192"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="148"/>
+      <c r="H51" s="179"/>
+      <c r="I51" s="180"/>
+      <c r="J51" s="181"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -8738,11 +8744,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="147"/>
-      <c r="G52" s="149"/>
-      <c r="H52" s="190"/>
-      <c r="I52" s="191"/>
-      <c r="J52" s="192"/>
+      <c r="F52" s="146"/>
+      <c r="G52" s="148"/>
+      <c r="H52" s="179"/>
+      <c r="I52" s="180"/>
+      <c r="J52" s="181"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -8759,11 +8765,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="147"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="190"/>
-      <c r="I53" s="191"/>
-      <c r="J53" s="192"/>
+      <c r="F53" s="146"/>
+      <c r="G53" s="148"/>
+      <c r="H53" s="179"/>
+      <c r="I53" s="180"/>
+      <c r="J53" s="181"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -8780,11 +8786,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="147"/>
-      <c r="G54" s="149"/>
-      <c r="H54" s="190"/>
-      <c r="I54" s="191"/>
-      <c r="J54" s="192"/>
+      <c r="F54" s="146"/>
+      <c r="G54" s="148"/>
+      <c r="H54" s="179"/>
+      <c r="I54" s="180"/>
+      <c r="J54" s="181"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -8801,11 +8807,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="147"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="190"/>
-      <c r="I55" s="191"/>
-      <c r="J55" s="192"/>
+      <c r="F55" s="146"/>
+      <c r="G55" s="148"/>
+      <c r="H55" s="179"/>
+      <c r="I55" s="180"/>
+      <c r="J55" s="181"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -8817,94 +8823,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="105">
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H6:J6"/>
@@ -8922,6 +8840,94 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E55">
@@ -8943,8 +8949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048467"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:N6"/>
+    <sheetView view="pageBreakPreview" topLeftCell="I1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8972,16 +8978,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -9016,14 +9022,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9139,12 +9145,12 @@
       <c r="J5" s="122" t="s">
         <v>220</v>
       </c>
-      <c r="K5" s="150" t="s">
+      <c r="K5" s="149" t="s">
         <v>285</v>
       </c>
-      <c r="L5" s="151"/>
-      <c r="M5" s="151"/>
-      <c r="N5" s="152"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="151"/>
       <c r="O5" s="126" t="s">
         <v>135</v>
       </c>
@@ -9186,12 +9192,12 @@
       <c r="J6" s="122" t="s">
         <v>221</v>
       </c>
-      <c r="K6" s="150" t="s">
+      <c r="K6" s="149" t="s">
         <v>278</v>
       </c>
-      <c r="L6" s="151"/>
-      <c r="M6" s="151"/>
-      <c r="N6" s="152"/>
+      <c r="L6" s="150"/>
+      <c r="M6" s="150"/>
+      <c r="N6" s="151"/>
       <c r="O6" s="144" t="s">
         <v>279</v>
       </c>
@@ -9235,12 +9241,12 @@
       <c r="J7" s="122" t="s">
         <v>222</v>
       </c>
-      <c r="K7" s="150" t="s">
+      <c r="K7" s="149" t="s">
         <v>250</v>
       </c>
-      <c r="L7" s="151"/>
-      <c r="M7" s="151"/>
-      <c r="N7" s="152"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="150"/>
+      <c r="N7" s="151"/>
       <c r="O7" s="136" t="s">
         <v>275</v>
       </c>
@@ -11378,6 +11384,84 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="K14:N14"/>
     <mergeCell ref="K15:N15"/>
@@ -11394,84 +11478,6 @@
     <mergeCell ref="K10:N10"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048467:Q1048576 Q5:Q94"/>
@@ -11517,10 +11523,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11550,8 +11556,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12846,10 +12852,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="153"/>
+      <c r="B1" s="152"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12877,8 +12883,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="153"/>
-      <c r="B2" s="153"/>
+      <c r="A2" s="152"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
